--- a/report/Conflat-LENR.xlsx
+++ b/report/Conflat-LENR.xlsx
@@ -261,8 +261,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,8 +276,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO19"/>
+  <dimension ref="A1:DV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18:AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,14 +802,14 @@
       <c r="L1" s="37"/>
       <c r="M1" s="37"/>
       <c r="N1" s="37"/>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
       <c r="U1" s="38" t="s">
         <v>28</v>
       </c>
@@ -2745,14 +2745,14 @@
     </row>
     <row r="11" spans="1:119" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2953,27 +2953,27 @@
       </c>
       <c r="B13" s="6">
         <f ca="1">O6+AA13-AJ13-U13</f>
-        <v>-9.2163546380194994</v>
+        <v>-8.5583010946971676</v>
       </c>
       <c r="C13" s="6">
         <f ca="1">P6+AB13-AK13-V13</f>
-        <v>-8.450853692739301</v>
+        <v>-8.5872848996268267</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" ref="D13:G16" ca="1" si="7">Q6+AC13-AL13-W13</f>
-        <v>-8.5901663526523429</v>
+        <f t="shared" ref="D13:G15" ca="1" si="7">Q6+AC13-AL13-W13</f>
+        <v>-8.7989310498324755</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.9685281381865103</v>
+        <v>-6.9638886388305785</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.3254325615661102</v>
+        <v>-8.2191086019505306</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.4275469254110469</v>
+        <v>-7.6226951407657566</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="3"/>
@@ -2990,51 +2990,51 @@
       <c r="T13" s="8"/>
       <c r="U13" s="6">
         <f ca="1">BT13-AP13</f>
-        <v>6.9285663529871648</v>
+        <v>6.0547965369967116</v>
       </c>
       <c r="V13" s="6">
         <f ca="1">BU13-AQ13</f>
-        <v>6.353073964811955</v>
+        <v>6.7603138312793583</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" ref="W13:Z16" ca="1" si="8">BV13-AR13</f>
-        <v>6.100494793216189</v>
+        <f t="shared" ref="W13:Z15" ca="1" si="8">BV13-AR13</f>
+        <v>6.8457437204685441</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7218528560777884</v>
+        <v>5.6892657639122604</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3839123591856541</v>
+        <v>6.4258419653221637</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9041539473574467</v>
+        <v>6.5912248627411287</v>
       </c>
       <c r="AA13" s="6">
         <f ca="1">$B$6*BN13/60*$B$7*(BB13-BH13)</f>
-        <v>2.0592799341856219E-2</v>
+        <v>0.10065002876450112</v>
       </c>
       <c r="AB13" s="6">
         <f t="shared" ref="AB13:AF16" ca="1" si="9">$B$6*BO13/60*$B$7*(BC13-BI13)</f>
-        <v>3.539209039371128E-2</v>
+        <v>2.1377491730024047E-2</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>2.7266974703961614E-2</v>
+        <v>0.12427481923695494</v>
       </c>
       <c r="AD13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6484603816227775E-2</v>
+        <v>9.4042246752494368E-2</v>
       </c>
       <c r="AE13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10934338509100745</v>
+        <v>0.17129910017363062</v>
       </c>
       <c r="AF13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>1.636769746791834E-2</v>
+        <v>7.1772669688806925E-2</v>
       </c>
       <c r="AG13" s="14"/>
       <c r="AH13" s="9">
@@ -3044,315 +3044,315 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="4">
         <f ca="1">AJ6+RAND()</f>
-        <v>33.486490908608012</v>
+        <v>33.782264410698779</v>
       </c>
       <c r="AK13" s="4">
         <f t="shared" ref="AK13:BU16" ca="1" si="10">AK6+RAND()</f>
-        <v>33.360346935725218</v>
+        <v>33.075523677481655</v>
       </c>
       <c r="AL13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.734607827308828</v>
+        <v>33.295131441769598</v>
       </c>
       <c r="AM13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.53703429938713</v>
+        <v>32.632539535132992</v>
       </c>
       <c r="AN13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.385553113965805</v>
+        <v>33.299255263296338</v>
       </c>
       <c r="AO13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.022891586636526</v>
+        <v>32.586373858828445</v>
       </c>
       <c r="AP13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.181442312588029</v>
+        <v>26.678019062212229</v>
       </c>
       <c r="AQ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.550954800821597</v>
+        <v>25.516239624986188</v>
       </c>
       <c r="AR13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.486908280294482</v>
+        <v>26.325952560763948</v>
       </c>
       <c r="AS13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.740211461113567</v>
+        <v>26.282127678970806</v>
       </c>
       <c r="AT13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.627740419065365</v>
+        <v>26.727153104985796</v>
       </c>
       <c r="AU13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.846314947295902</v>
+        <v>25.909324718462841</v>
       </c>
       <c r="AV13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.496812194965678</v>
+        <v>33.202381920353957</v>
       </c>
       <c r="AW13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.544530375718168</v>
+        <v>33.012421534728176</v>
       </c>
       <c r="AX13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.691829130340146</v>
+        <v>33.594798818146835</v>
       </c>
       <c r="AY13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.614593629031269</v>
+        <v>33.477402827355156</v>
       </c>
       <c r="AZ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.564831084057431</v>
+        <v>33.740018448826568</v>
       </c>
       <c r="BA13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.242578741819116</v>
+        <v>33.17779476551533</v>
       </c>
       <c r="BB13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.627229072695776</v>
+        <v>48.600826121096333</v>
       </c>
       <c r="BC13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.243575204979727</v>
+        <v>48.161859203620402</v>
       </c>
       <c r="BD13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.138952812485989</v>
+        <v>48.411606683687353</v>
       </c>
       <c r="BE13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.404821266868872</v>
+        <v>48.647447626960641</v>
       </c>
       <c r="BF13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.296228713824902</v>
+        <v>48.136680451725283</v>
       </c>
       <c r="BG13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.376698298326716</v>
+        <v>48.301931905983032</v>
       </c>
       <c r="BH13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>45.376357147437204</v>
+        <v>45.366804424795404</v>
       </c>
       <c r="BI13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>44.945447320992322</v>
+        <v>45.533309999047809</v>
       </c>
       <c r="BJ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>45.158987307910401</v>
+        <v>44.661017506353566</v>
       </c>
       <c r="BK13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>45.170510174358277</v>
+        <v>44.578328291835525</v>
       </c>
       <c r="BL13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>44.762284212268185</v>
+        <v>44.333874846606562</v>
       </c>
       <c r="BM13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>45.188839907821873</v>
+        <v>44.797134575840801</v>
       </c>
       <c r="BN13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12005205134971726</v>
+        <v>0.58982751976971848</v>
       </c>
       <c r="BO13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20337275916121478</v>
+        <v>0.15413266711208862</v>
       </c>
       <c r="BP13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.173412251107423</v>
+        <v>0.62796827187582771</v>
       </c>
       <c r="BQ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15519071998840248</v>
+        <v>0.43800253815598433</v>
       </c>
       <c r="BR13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58639039423335571</v>
+        <v>0.85369947393777612</v>
       </c>
       <c r="BS13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>9.7306673370488941E-2</v>
+        <v>0.38810590356073149</v>
       </c>
       <c r="BT13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.110008665575194</v>
+        <v>32.732815599208941</v>
       </c>
       <c r="BU13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>31.904028765633552</v>
+        <v>32.276553456265546</v>
       </c>
       <c r="BV13" s="4">
         <f t="shared" ref="BV13:DI13" ca="1" si="11">BV6+RAND()</f>
-        <v>32.587403073510671</v>
+        <v>33.171696281232492</v>
       </c>
       <c r="BW13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>32.462064317191356</v>
+        <v>31.971393442883066</v>
       </c>
       <c r="BX13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>33.011652778251019</v>
+        <v>33.152995070307959</v>
       </c>
       <c r="BY13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>31.750468894653348</v>
+        <v>32.50054958120397</v>
       </c>
       <c r="BZ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5943687554227377</v>
+        <v>0.58314798688327618</v>
       </c>
       <c r="CA13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.92976564220506908</v>
+        <v>0.84788476827990578</v>
       </c>
       <c r="CB13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0644484321319012</v>
+        <v>1.3462812378970832</v>
       </c>
       <c r="CC13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4577231334533232</v>
+        <v>0.59647116945059186</v>
       </c>
       <c r="CD13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.60754452205856</v>
+        <v>1.2108004839490039</v>
       </c>
       <c r="CE13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62789196168987038</v>
+        <v>0.62174735606054565</v>
       </c>
       <c r="CF13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.76382811967415309</v>
+        <v>0.7123652304037984</v>
       </c>
       <c r="CG13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5222332769984193</v>
+        <v>1.5642813031352012</v>
       </c>
       <c r="CH13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1614416767743192</v>
+        <v>1.9309069349085033</v>
       </c>
       <c r="CI13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.317009653389468</v>
+        <v>1.2230004843324171</v>
       </c>
       <c r="CJ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.8007091619985105</v>
+        <v>1.5096639951717832</v>
       </c>
       <c r="CK13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5743737470495562</v>
+        <v>1.5824595328105646</v>
       </c>
       <c r="CL13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.99768584740876598</v>
+        <v>0.86999320754707143</v>
       </c>
       <c r="CM13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42144867126895103</v>
+        <v>0.96504080226365108</v>
       </c>
       <c r="CN13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36259835719938566</v>
+        <v>0.87724270495200862</v>
       </c>
       <c r="CO13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.64793123027756105</v>
+        <v>0.89956692909982605</v>
       </c>
       <c r="CP13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7809774693380559</v>
+        <v>0.37713732342493494</v>
       </c>
       <c r="CQ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.50549531568002193</v>
+        <v>0.53202762542250071</v>
       </c>
       <c r="CR13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66783172686881231</v>
+        <v>0.28271264496257026</v>
       </c>
       <c r="CS13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.51519184900501502</v>
+        <v>0.28317946750059442</v>
       </c>
       <c r="CT13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.34520766185570922</v>
+        <v>0.19905077812838373</v>
       </c>
       <c r="CU13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.94369261050654463</v>
+        <v>1.0005738464361209</v>
       </c>
       <c r="CV13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.76105589806883633</v>
+        <v>0.71142324054225103</v>
       </c>
       <c r="CW13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.91517615026283172</v>
+        <v>0.21053089137445186</v>
       </c>
       <c r="CX13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.55474187691422672</v>
+        <v>0.44075875800810921</v>
       </c>
       <c r="CY13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.59025694085549929</v>
+        <v>0.28086744959250176</v>
       </c>
       <c r="CZ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.13980973038760608</v>
+        <v>0.80088324650549536</v>
       </c>
       <c r="DA13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.1285273149778022</v>
+        <v>0.59824497090335826</v>
       </c>
       <c r="DB13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.57408751930812718</v>
+        <v>1.9639965517291559E-2</v>
       </c>
       <c r="DC13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47954374501178371</v>
+        <v>2.1794646880650512E-2</v>
       </c>
       <c r="DD13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.78073148304052964</v>
+        <v>1.173951230758884</v>
       </c>
       <c r="DE13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0470806645633024</v>
+        <v>0.61861299941730363</v>
       </c>
       <c r="DF13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71285977906797182</v>
+        <v>0.66359883433673739</v>
       </c>
       <c r="DG13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.91610282309307212</v>
+        <v>1.4238672284391978</v>
       </c>
       <c r="DH13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.80471969506676044</v>
+        <v>1.4618743504110046</v>
       </c>
       <c r="DI13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84003094875250539</v>
+        <v>1.5271960503288495</v>
       </c>
     </row>
     <row r="14" spans="1:119" x14ac:dyDescent="0.25">
@@ -3362,75 +3362,75 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" ref="B14:C14" ca="1" si="13">O7+AA14-AJ14-U14</f>
-        <v>-9.4931605046489373</v>
+        <v>-8.1672947753993732</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>-8.5055585359478663</v>
+        <v>-8.0937624658671474</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.0063349503571075</v>
+        <v>-8.0837010037653982</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.5521414180296347</v>
+        <v>-8.5383971733074802</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.8090440711603684</v>
+        <v>-7.0802028009777054</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.2700211682326525</v>
+        <v>-7.7879845628280115</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" ref="U14:U16" ca="1" si="14">BT14-AP14</f>
-        <v>7.1849570116006056</v>
+        <v>6.7956106850044158</v>
       </c>
       <c r="V14" s="6">
         <f t="shared" ref="V14:V16" ca="1" si="15">BU14-AQ14</f>
-        <v>6.9510872199625062</v>
+        <v>6.5488932820191614</v>
       </c>
       <c r="W14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1599271200191055</v>
+        <v>6.3106846587269985</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6826709405752283</v>
+        <v>7.3957067112926609</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4229309301375288</v>
+        <v>5.9376910260693698</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4601331394167829</v>
+        <v>6.4298736921165833</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" ref="AA14:AA16" ca="1" si="16">$B$6*BN14/60*$B$7*(BB14-BH14)</f>
-        <v>8.1354425003704565E-3</v>
+        <v>0.13083833005046361</v>
       </c>
       <c r="AB14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6495117714770975E-2</v>
+        <v>7.0073364022829127E-2</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19065756101138581</v>
+        <v>0.10100361822438744</v>
       </c>
       <c r="AD14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1352027053741294</v>
+        <v>7.8291126471157546E-2</v>
       </c>
       <c r="AE14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19700777863089941</v>
+        <v>0.18650865551815246</v>
       </c>
       <c r="AF14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14268829239952605</v>
+        <v>0.13113973619836805</v>
       </c>
       <c r="AH14" s="16">
         <f t="shared" ref="AH14:AH16" si="17">AH7</f>
@@ -3438,315 +3438,315 @@
       </c>
       <c r="AJ14" s="4">
         <f t="shared" ref="AJ14:AY16" ca="1" si="18">AJ7+RAND()</f>
-        <v>38.403462745079125</v>
+        <v>37.589646229975848</v>
       </c>
       <c r="AK14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.530652121199665</v>
+        <v>37.504628235370355</v>
       </c>
       <c r="AL14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>38.017283692924785</v>
+        <v>37.854238264838187</v>
       </c>
       <c r="AM14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.001179123170587</v>
+        <v>37.21748752882803</v>
       </c>
       <c r="AN14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.688437521025257</v>
+        <v>37.434337031798009</v>
       </c>
       <c r="AO14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.059339876747352</v>
+        <v>37.596014162441755</v>
       </c>
       <c r="AP14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.675517251966316</v>
+        <v>25.548431209145388</v>
       </c>
       <c r="AQ14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.409715494946692</v>
+        <v>25.062318875797931</v>
       </c>
       <c r="AR14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.795692741956533</v>
+        <v>25.825040175772919</v>
       </c>
       <c r="AS14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>24.722048882654427</v>
+        <v>24.648766675029997</v>
       </c>
       <c r="AT14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>26.160358251649118</v>
+        <v>26.054831764880085</v>
       </c>
       <c r="AU14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.22726189894161</v>
+        <v>25.584551707679655</v>
       </c>
       <c r="AV14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.228985884615135</v>
+        <v>33.077978097185692</v>
       </c>
       <c r="AW14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.271031738766602</v>
+        <v>33.546708250550545</v>
       </c>
       <c r="AX14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.797773357392764</v>
+        <v>33.156480370121926</v>
       </c>
       <c r="AY14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.205424586328</v>
+        <v>33.623750366525556</v>
       </c>
       <c r="AZ14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.310630536505066</v>
+        <v>33.1621867750031</v>
       </c>
       <c r="BA14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.900063170721644</v>
+        <v>33.594879216592417</v>
       </c>
       <c r="BB14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.657508421217592</v>
+        <v>49.299099482281378</v>
       </c>
       <c r="BC14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>50.248111693215158</v>
+        <v>49.760428030682306</v>
       </c>
       <c r="BD14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.825520331343668</v>
+        <v>49.6433764846198</v>
       </c>
       <c r="BE14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>50.136417998479686</v>
+        <v>49.87401695771144</v>
       </c>
       <c r="BF14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>50.160008811184575</v>
+        <v>50.372193973582675</v>
       </c>
       <c r="BG14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.777778930407273</v>
+        <v>50.33334104782886</v>
       </c>
       <c r="BH14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>45.626596915995563</v>
+        <v>46.33940889925077</v>
       </c>
       <c r="BI14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.168174232770163</v>
+        <v>46.930835101283165</v>
       </c>
       <c r="BJ14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.289522315800632</v>
+        <v>46.076875920990695</v>
       </c>
       <c r="BK14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.48683263784158</v>
+        <v>46.752101812344087</v>
       </c>
       <c r="BL14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.037020272847883</v>
+        <v>46.619586103628471</v>
       </c>
       <c r="BM14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.885054086377032</v>
+        <v>46.995989018760795</v>
       </c>
       <c r="BN14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8250047050413599E-2</v>
+        <v>0.83780459746326219</v>
       </c>
       <c r="BO14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.40178354431383745</v>
+        <v>0.46933513059783649</v>
       </c>
       <c r="BP14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0218710084122247</v>
+        <v>0.53672112874358235</v>
       </c>
       <c r="BQ14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70209505378747916</v>
+        <v>0.47527558463190683</v>
       </c>
       <c r="BR14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.90557683415778512</v>
+        <v>0.94193267795339541</v>
       </c>
       <c r="BS14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.93483566454984446</v>
+        <v>0.74470855701637562</v>
       </c>
       <c r="BT14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.860474263566921</v>
+        <v>32.344041894149804</v>
       </c>
       <c r="BU14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.360802714909198</v>
+        <v>31.611212157817093</v>
       </c>
       <c r="BV14" s="4">
         <f t="shared" ref="BV14:DI14" ca="1" si="19">BV7+RAND()</f>
-        <v>31.955619861975638</v>
+        <v>32.135724834499918</v>
       </c>
       <c r="BW14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>31.404719823229655</v>
+        <v>32.044473386322657</v>
       </c>
       <c r="BX14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>32.583289181786647</v>
+        <v>31.992522790949455</v>
       </c>
       <c r="BY14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>31.687395038358392</v>
+        <v>32.014425399796238</v>
       </c>
       <c r="BZ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.47459191838016856</v>
+        <v>1.1394898781909861</v>
       </c>
       <c r="CA14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0441406363616652</v>
+        <v>0.62141536126111918</v>
       </c>
       <c r="CB14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.66471253684563425</v>
+        <v>1.27638141954624</v>
       </c>
       <c r="CC14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2447124534416532</v>
+        <v>1.5512052578539475</v>
       </c>
       <c r="CD14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.71923110803302281</v>
+        <v>0.96891804827335581</v>
       </c>
       <c r="CE14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.1103056012839536</v>
+        <v>1.1509177777433535</v>
       </c>
       <c r="CF14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.56897023173301808</v>
+        <v>0.57160613798927973</v>
       </c>
       <c r="CG14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.97986585826905825</v>
+        <v>1.3443646238655202</v>
       </c>
       <c r="CH14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.381364979532776</v>
+        <v>1.9417458769282478</v>
       </c>
       <c r="CI14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7487343554113117</v>
+        <v>1.7746844623971318</v>
       </c>
       <c r="CJ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5934368813021438</v>
+        <v>1.9479227144670255</v>
       </c>
       <c r="CK14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5671714334844971</v>
+        <v>1.0266722837971618</v>
       </c>
       <c r="CL14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.74902308073710289</v>
+        <v>1.4378667525818627</v>
       </c>
       <c r="CM14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.70316373729116455</v>
+        <v>0.51132553557960492</v>
       </c>
       <c r="CN14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.68364007153700435</v>
+        <v>0.79548893479467142</v>
       </c>
       <c r="CO14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.39512028177187319</v>
+        <v>0.84997876337073286</v>
       </c>
       <c r="CP14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.25888368019293845</v>
+        <v>0.45245153781930786</v>
       </c>
       <c r="CQ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>5.8164972143414491E-2</v>
+        <v>8.6827653450201103E-2</v>
       </c>
       <c r="CR14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.75145835248975112</v>
+        <v>0.82230729982779649</v>
       </c>
       <c r="CS14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.34530644284578377</v>
+        <v>0.70559130884581855</v>
       </c>
       <c r="CT14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.98654634068836744</v>
+        <v>0.33711149420664144</v>
       </c>
       <c r="CU14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.48902459322805586</v>
+        <v>0.24270186901161134</v>
       </c>
       <c r="CV14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.54279509090290234</v>
+        <v>0.11743879618753568</v>
       </c>
       <c r="CW14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.48570646429203146</v>
+        <v>0.83652691268814694</v>
       </c>
       <c r="CX14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>9.6201744025710662E-2</v>
+        <v>0.46781254979000236</v>
       </c>
       <c r="CY14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.7330404379723281</v>
+        <v>0.1853530411091984</v>
       </c>
       <c r="CZ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.78957418563034532</v>
+        <v>0.44249775182346274</v>
       </c>
       <c r="DA14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>2.1201823580465944E-2</v>
+        <v>0.18242661021176718</v>
       </c>
       <c r="DB14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.59145745891103751</v>
+        <v>0.81255927396566641</v>
       </c>
       <c r="DC14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.28687693061611558</v>
+        <v>0.43542614380846162</v>
       </c>
       <c r="DD14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.29627460238126285</v>
+        <v>0.89884120656073074</v>
       </c>
       <c r="DE14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3846570879341753</v>
+        <v>1.2587086379712917</v>
       </c>
       <c r="DF14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.72864707618723068</v>
+        <v>1.5931844595703697</v>
       </c>
       <c r="DG14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.77504480451205537</v>
+        <v>1.5110783119422875</v>
       </c>
       <c r="DH14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.87289857341556221</v>
+        <v>1.4008549694188188</v>
       </c>
       <c r="DI14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.68800998943777236</v>
+        <v>1.1220446465485112</v>
       </c>
     </row>
     <row r="15" spans="1:119" x14ac:dyDescent="0.25">
@@ -3756,75 +3756,75 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" ref="B15:C15" ca="1" si="20">O8+AA15-AJ15-U15</f>
-        <v>-8.5478465720955086</v>
+        <v>-8.7055926764260825</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>-8.0584899319277028</v>
+        <v>-8.8290704709977916</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-9.4824090709071491</v>
+        <v>-9.7062649330360955</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.5144584588048318</v>
+        <v>-8.2316235369272164</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-9.6090197187788</v>
+        <v>-9.5631736791418547</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.5780260151208374</v>
+        <v>-8.9120230245111571</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>6.8589342983800918</v>
+        <v>6.8601251888906241</v>
       </c>
       <c r="V15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7.1251820012826315</v>
+        <v>7.4570697207944718</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>7.8036368250044212</v>
+        <v>7.7409615851130411</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3627252725438765</v>
+        <v>6.7015461066872604</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4152070358823785</v>
+        <v>7.050270150328771</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4724758707758347</v>
+        <v>6.9275594759902148</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.17507266548886499</v>
+        <v>8.1991343692785129E-2</v>
       </c>
       <c r="AB15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13050363150373781</v>
+        <v>6.2307692668961183E-2</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2053999255733567E-2</v>
+        <v>8.6931923160158533E-2</v>
       </c>
       <c r="AD15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3836981194676059E-2</v>
+        <v>0.16458650992061757</v>
       </c>
       <c r="AE15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>8.8783862891181703E-2</v>
+        <v>8.4060120915636263E-2</v>
       </c>
       <c r="AF15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>7.3410906933124312E-2</v>
+        <v>0.11175562239419805</v>
       </c>
       <c r="AH15" s="16">
         <f t="shared" si="17"/>
@@ -3832,315 +3832,315 @@
       </c>
       <c r="AJ15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>42.581075193123709</v>
+        <v>42.644549085147673</v>
       </c>
       <c r="AK15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>41.737606899599307</v>
+        <v>42.108103780322779</v>
       </c>
       <c r="AL15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.252969914476381</v>
+        <v>42.554378940401129</v>
       </c>
       <c r="AM15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>41.547991312487795</v>
+        <v>42.037085085192736</v>
       </c>
       <c r="AN15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.311991285465794</v>
+        <v>42.62635838940691</v>
       </c>
       <c r="AO15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.090825821942218</v>
+        <v>42.00808394157923</v>
       </c>
       <c r="AP15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.658826332544947</v>
+        <v>25.536955021392092</v>
       </c>
       <c r="AQ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>24.57047072819833</v>
+        <v>24.685884892062099</v>
       </c>
       <c r="AR15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.191564804058306</v>
+        <v>25.158806797902272</v>
       </c>
       <c r="AS15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>24.707067197729877</v>
+        <v>24.828351313459844</v>
       </c>
       <c r="AT15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.51489877677432</v>
+        <v>26.042460954590048</v>
       </c>
       <c r="AU15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.619988515566821</v>
+        <v>25.299023150381501</v>
       </c>
       <c r="AV15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.566687191645968</v>
+        <v>33.411374075030018</v>
       </c>
       <c r="AW15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.205474558694647</v>
+        <v>33.442520569969886</v>
       </c>
       <c r="AX15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.766128728778199</v>
+        <v>33.807583957299634</v>
       </c>
       <c r="AY15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.837276374486713</v>
+        <v>33.92506289039175</v>
       </c>
       <c r="AZ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.528405212094206</v>
+        <v>33.177499887686018</v>
       </c>
       <c r="BA15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.538421651422347</v>
+        <v>33.178554025904695</v>
       </c>
       <c r="BB15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>51.707351241642328</v>
+        <v>51.659538603776141</v>
       </c>
       <c r="BC15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.34737285181302</v>
+        <v>52.461939204665114</v>
       </c>
       <c r="BD15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.075958833732315</v>
+        <v>52.471105902995625</v>
       </c>
       <c r="BE15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.691852439288148</v>
+        <v>52.751388600481668</v>
       </c>
       <c r="BF15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.346676273889386</v>
+        <v>52.751101512495666</v>
       </c>
       <c r="BG15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>53.129495197137075</v>
+        <v>52.646543027409749</v>
       </c>
       <c r="BH15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>47.485325283052774</v>
+        <v>48.189091654070886</v>
       </c>
       <c r="BI15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>47.967935807942276</v>
+        <v>48.874353296163456</v>
       </c>
       <c r="BJ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.197672010947699</v>
+        <v>48.525726361226219</v>
       </c>
       <c r="BK15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.206736238429421</v>
+        <v>48.117923244609045</v>
       </c>
       <c r="BL15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.361945425215588</v>
+        <v>48.771357329244744</v>
       </c>
       <c r="BM15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.132766379201826</v>
+        <v>49.120319089123207</v>
       </c>
       <c r="BN15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.78587143326866926</v>
+        <v>0.4477510894998229</v>
       </c>
       <c r="BO15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5647527662483951</v>
+        <v>0.32914966477030699</v>
       </c>
       <c r="BP15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35210502544203937</v>
+        <v>0.41758467947647204</v>
       </c>
       <c r="BQ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.22748934377337815</v>
+        <v>0.67319731228875224</v>
       </c>
       <c r="BR15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42226890523408911</v>
+        <v>0.40030306119203052</v>
       </c>
       <c r="BS15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.34810476253331479</v>
+        <v>0.60063903021201615</v>
       </c>
       <c r="BT15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.517760630925039</v>
+        <v>32.397080210282716</v>
       </c>
       <c r="BU15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>31.695652729480962</v>
+        <v>32.14295461285657</v>
       </c>
       <c r="BV15" s="4">
         <f t="shared" ref="BV15:DI15" ca="1" si="21">BV8+RAND()</f>
-        <v>32.995201629062727</v>
+        <v>32.899768383015314</v>
       </c>
       <c r="BW15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>32.069792470273754</v>
+        <v>31.529897420147105</v>
       </c>
       <c r="BX15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>32.930105812656699</v>
+        <v>33.092731104918819</v>
       </c>
       <c r="BY15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>32.092464386342655</v>
+        <v>32.226582626371716</v>
       </c>
       <c r="BZ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.8789253677153398</v>
+        <v>0.29276899722227534</v>
       </c>
       <c r="CA15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.98274817016801053</v>
+        <v>1.4720683914913293</v>
       </c>
       <c r="CB15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.67969939639887467</v>
+        <v>1.0780378802180968</v>
       </c>
       <c r="CC15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.66129762318442686</v>
+        <v>1.1818090221197406</v>
       </c>
       <c r="CD15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.3056628241636417</v>
+        <v>0.7854238844891106</v>
       </c>
       <c r="CE15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.59417724269883887</v>
+        <v>1.1452087295571842</v>
       </c>
       <c r="CF15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.73455672774347169</v>
+        <v>0.32381081458438971</v>
       </c>
       <c r="CG15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.2508218001638793</v>
+        <v>1.0273805784795833</v>
       </c>
       <c r="CH15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>2.0004015303402554</v>
+        <v>1.4803212661490548</v>
       </c>
       <c r="CI15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.9242819966899134</v>
+        <v>1.6070596578313352</v>
       </c>
       <c r="CJ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.219334662742583</v>
+        <v>1.6451629735978717</v>
       </c>
       <c r="CK15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.0392060526133733</v>
+        <v>0.96593297564546754</v>
       </c>
       <c r="CL15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.1539367900854169</v>
+        <v>1.2179865420696088</v>
       </c>
       <c r="CM15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.94552730302225219</v>
+        <v>0.45492485928571208</v>
       </c>
       <c r="CN15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.86165561512985223</v>
+        <v>0.69339906076134605</v>
       </c>
       <c r="CO15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.23072318878275849</v>
+        <v>0.89200253423085529</v>
       </c>
       <c r="CP15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.0349522644553639</v>
+        <v>0.97410667053269284</v>
       </c>
       <c r="CQ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.49836886809903908</v>
+        <v>1.0450055607882085</v>
       </c>
       <c r="CR15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.92179626716937846</v>
+        <v>1.3081203057911566</v>
       </c>
       <c r="CS15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.99133561490255484</v>
+        <v>0.57234015835685825</v>
       </c>
       <c r="CT15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.84972395202332462</v>
+        <v>0.85462136170560909</v>
       </c>
       <c r="CU15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.27951132149684704</v>
+        <v>0.85073335925745963</v>
       </c>
       <c r="CV15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.85572377854553083</v>
+        <v>0.19580584582046912</v>
       </c>
       <c r="CW15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.74849128226849948</v>
+        <v>1.0572070902145065</v>
       </c>
       <c r="CX15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.51675065040993462</v>
+        <v>0.59197110123039476</v>
       </c>
       <c r="CY15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.90251790214020211</v>
+        <v>0.59326749965740633</v>
       </c>
       <c r="CZ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.57007238655556458</v>
+        <v>0.11863018507524727</v>
       </c>
       <c r="DA15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.56115474425269685</v>
+        <v>0.54577786674348783</v>
       </c>
       <c r="DB15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.16370499438533304</v>
+        <v>0.96832780440912303</v>
       </c>
       <c r="DC15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.23365608427895654</v>
+        <v>0.79463967303817618</v>
       </c>
       <c r="DD15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.28766986927054111</v>
+        <v>1.0663364264229722</v>
       </c>
       <c r="DE15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.5013747966681759</v>
+        <v>0.9885089092973437</v>
       </c>
       <c r="DF15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.90800066787970668</v>
+        <v>0.88061610217586139</v>
       </c>
       <c r="DG15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.61637437795836525</v>
+        <v>1.426630375355459</v>
       </c>
       <c r="DH15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.88065003664123898</v>
+        <v>0.57691376271035411</v>
       </c>
       <c r="DI15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.63386986980493532</v>
+        <v>1.2862591750409482</v>
       </c>
     </row>
     <row r="16" spans="1:119" x14ac:dyDescent="0.25">
@@ -4150,11 +4150,11 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" ref="B16" ca="1" si="23">O9+AA16-AJ16-U16</f>
-        <v>-10.388508323310297</v>
+        <v>-10.211900402200946</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" ref="C16" ca="1" si="24">P9+AB16-AK16-V16</f>
-        <v>-10.289788507257626</v>
+        <v>-10.323281428683689</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -4162,11 +4162,11 @@
       <c r="G16" s="6"/>
       <c r="U16" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>7.2120278300323193</v>
+        <v>7.3979840452109897</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>8.1930244502565159</v>
+        <v>8.0095514227650106</v>
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -4174,11 +4174,11 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.13212496109948929</v>
+        <v>0.10678017993781701</v>
       </c>
       <c r="AB16" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25721698138462201</v>
+        <v>0.1121588879466264</v>
       </c>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
@@ -4190,11 +4190,11 @@
       </c>
       <c r="AJ16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>47.548829937677091</v>
+        <v>47.160921020227391</v>
       </c>
       <c r="AK16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.314690143211052</v>
+        <v>46.386597998690625</v>
       </c>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
@@ -4202,11 +4202,11 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.297332403699848</v>
+        <v>26.162279635542767</v>
       </c>
       <c r="AQ16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.123273592838878</v>
+        <v>25.456048464666477</v>
       </c>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
@@ -4214,11 +4214,11 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.564153059073391</v>
+        <v>33.1689657610643</v>
       </c>
       <c r="AW16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.29564339008239</v>
+        <v>33.397494382296003</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -4226,11 +4226,11 @@
       <c r="BA16" s="4"/>
       <c r="BB16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>55.166302073480047</v>
+        <v>54.645723032317669</v>
       </c>
       <c r="BC16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>56.261531210118129</v>
+        <v>55.650952001826333</v>
       </c>
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
@@ -4238,11 +4238,11 @@
       <c r="BG16" s="4"/>
       <c r="BH16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>50.616636719899724</v>
+        <v>50.436590473799221</v>
       </c>
       <c r="BI16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>51.439314794176269</v>
+        <v>51.69599727001836</v>
       </c>
       <c r="BJ16" s="4"/>
       <c r="BK16" s="4"/>
@@ -4250,230 +4250,1045 @@
       <c r="BM16" s="4"/>
       <c r="BN16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55037598569891633</v>
+        <v>0.48078632070284949</v>
       </c>
       <c r="BO16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0108972091383763</v>
+        <v>0.53746010816043976</v>
       </c>
       <c r="BP16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.61787753769021758</v>
+        <v>0.10437866807962926</v>
       </c>
       <c r="BQ16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>4.6214195042019512E-2</v>
+        <v>0.90531209364083953</v>
       </c>
       <c r="BR16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.70789195893849721</v>
+        <v>0.67526235391826461</v>
       </c>
       <c r="BS16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16035971310406549</v>
+        <v>0.26309199304005848</v>
       </c>
       <c r="BT16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.509360233732167</v>
+        <v>33.560263680753756</v>
       </c>
       <c r="BU16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.316298043095394</v>
+        <v>33.465599887431488</v>
       </c>
       <c r="BV16" s="4">
         <f t="shared" ref="BV16:DI16" ca="1" si="25">BV9+RAND()</f>
-        <v>0.28970524350866333</v>
+        <v>0.7670491543729141</v>
       </c>
       <c r="BW16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.14110093795533585</v>
+        <v>4.1705729017651683E-2</v>
       </c>
       <c r="BX16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.3875158332857519</v>
+        <v>0.27835652388248711</v>
       </c>
       <c r="BY16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.89003248450848871</v>
+        <v>0.47474756598543577</v>
       </c>
       <c r="BZ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.78596539996143178</v>
+        <v>0.37346941089656305</v>
       </c>
       <c r="CA16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.1021327322693257</v>
+        <v>0.62636697937120644</v>
       </c>
       <c r="CB16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.1784751949117015</v>
+        <v>0.51907143181119175</v>
       </c>
       <c r="CC16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.955229013119552</v>
+        <v>5.2258274529534465E-2</v>
       </c>
       <c r="CD16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.40994614854439726</v>
+        <v>0.34632423383245003</v>
       </c>
       <c r="CE16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.48207747262247724</v>
+        <v>0.36415846977854605</v>
       </c>
       <c r="CF16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.56467529286170204</v>
+        <v>0.50402988112169511</v>
       </c>
       <c r="CG16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.7323063853301921</v>
+        <v>1.1202358171419382</v>
       </c>
       <c r="CH16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>7.6077656066481758E-2</v>
+        <v>0.88887862272917828</v>
       </c>
       <c r="CI16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.45858590076535799</v>
+        <v>0.44987746403387296</v>
       </c>
       <c r="CJ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.43327123014859692</v>
+        <v>0.92141321174398194</v>
       </c>
       <c r="CK16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.40358681422605547</v>
+        <v>0.48995759459574595</v>
       </c>
       <c r="CL16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.3355297187235284</v>
+        <v>0.85951734597758866</v>
       </c>
       <c r="CM16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.10105471930030917</v>
+        <v>0.61409541992408367</v>
       </c>
       <c r="CN16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.56320323284634388</v>
+        <v>2.8319919387219672E-2</v>
       </c>
       <c r="CO16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.72713043863763338</v>
+        <v>0.15578086561451276</v>
       </c>
       <c r="CP16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.24977776180509648</v>
+        <v>0.25716251807706569</v>
       </c>
       <c r="CQ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.42449253772051176</v>
+        <v>0.19644265679102613</v>
       </c>
       <c r="CR16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.3760337427763476</v>
+        <v>1.4983963568576604</v>
       </c>
       <c r="CS16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.41026385738084009</v>
+        <v>0.38230336527376146</v>
       </c>
       <c r="CT16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.69581760114118196</v>
+        <v>0.27929189187492265</v>
       </c>
       <c r="CU16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.32799164210327125</v>
+        <v>0.74968412289138542</v>
       </c>
       <c r="CV16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.4322166771328666</v>
+        <v>0.28001108673148289</v>
       </c>
       <c r="CW16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.96266620644392198</v>
+        <v>0.54166937253032621</v>
       </c>
       <c r="CX16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.21520572462203771</v>
+        <v>0.37099892393367201</v>
       </c>
       <c r="CY16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>8.8504278448316986E-2</v>
+        <v>0.14206623124921525</v>
       </c>
       <c r="CZ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.8967571026619171</v>
+        <v>6.0958774330410193E-2</v>
       </c>
       <c r="DA16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.70689831837367756</v>
+        <v>0.24562587233469957</v>
       </c>
       <c r="DB16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.65652745054484696</v>
+        <v>0.65811219483445826</v>
       </c>
       <c r="DC16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.1538839034085395</v>
+        <v>0.86851591850719811</v>
       </c>
       <c r="DD16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.36083027461435635</v>
+        <v>0.89453216036096883</v>
       </c>
       <c r="DE16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.1701196874874773</v>
+        <v>1.171237978822969</v>
       </c>
       <c r="DF16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.80619635789321831</v>
+        <v>0.38173693538122044</v>
       </c>
       <c r="DG16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.3859143612214031</v>
+        <v>0.48913134206094411</v>
       </c>
       <c r="DH16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>7.2206584088115422E-2</v>
+        <v>0.48905253347892708</v>
       </c>
       <c r="DI16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>7.6166080427335081E-2</v>
+        <v>0.69244208513690519</v>
       </c>
     </row>
-    <row r="19" spans="35:63" x14ac:dyDescent="0.25">
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-      <c r="AN19"/>
-      <c r="AO19"/>
-      <c r="AP19"/>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
-      <c r="BC19"/>
-      <c r="BD19" s="15"/>
-      <c r="BE19"/>
-      <c r="BF19"/>
-      <c r="BG19"/>
-      <c r="BH19"/>
-      <c r="BI19"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
+    <row r="18" spans="34:126" x14ac:dyDescent="0.25">
+      <c r="AH18">
+        <v>100</v>
+      </c>
+      <c r="AI18">
+        <v>7.7</v>
+      </c>
+      <c r="AJ18">
+        <v>7</v>
+      </c>
+      <c r="AK18">
+        <v>6.7</v>
+      </c>
+      <c r="AL18">
+        <v>6.9</v>
+      </c>
+      <c r="AM18">
+        <v>6.7</v>
+      </c>
+      <c r="AN18">
+        <v>6.8</v>
+      </c>
+      <c r="AO18">
+        <v>6.6</v>
+      </c>
+      <c r="AP18">
+        <v>23.784906725308598</v>
+      </c>
+      <c r="AQ18">
+        <v>22.9998115462963</v>
+      </c>
+      <c r="AR18">
+        <v>25.553535709876499</v>
+      </c>
+      <c r="AS18">
+        <v>23.338497712963001</v>
+      </c>
+      <c r="AT18">
+        <v>25.5651691419753</v>
+      </c>
+      <c r="AU18">
+        <v>23.310550368421101</v>
+      </c>
+      <c r="AV18">
+        <v>32.995276450617297</v>
+      </c>
+      <c r="AW18">
+        <v>32.981614216049401</v>
+      </c>
+      <c r="AX18">
+        <v>33.015500246913597</v>
+      </c>
+      <c r="AY18">
+        <v>32.985732842592597</v>
+      </c>
+      <c r="AZ18">
+        <v>33.013912416666699</v>
+      </c>
+      <c r="BA18">
+        <v>32.985560919504699</v>
+      </c>
+      <c r="BB18">
+        <v>42.541453216049398</v>
+      </c>
+      <c r="BC18">
+        <v>44.556411111111103</v>
+      </c>
+      <c r="BD18">
+        <v>43.8835156111111</v>
+      </c>
+      <c r="BE18">
+        <v>44.445387354938298</v>
+      </c>
+      <c r="BF18">
+        <v>44.328773021604903</v>
+      </c>
+      <c r="BG18">
+        <v>44.600339600619201</v>
+      </c>
+      <c r="BH18">
+        <v>38.576123339506204</v>
+      </c>
+      <c r="BI18">
+        <v>41.0557772314815</v>
+      </c>
+      <c r="BJ18">
+        <v>41.708798620370402</v>
+      </c>
+      <c r="BK18">
+        <v>42.023261895061701</v>
+      </c>
+      <c r="BL18">
+        <v>42.151610972222201</v>
+      </c>
+      <c r="BM18">
+        <v>42.314435315789503</v>
+      </c>
+      <c r="BN18">
+        <v>2.99763888888889E-2</v>
+      </c>
+      <c r="BO18">
+        <v>2.99736111111111E-2</v>
+      </c>
+      <c r="BP18">
+        <v>2.9974845679012301E-2</v>
+      </c>
+      <c r="BQ18">
+        <v>2.9971913580246898E-2</v>
+      </c>
+      <c r="BR18">
+        <v>2.9975308641975298E-2</v>
+      </c>
+      <c r="BS18">
+        <v>2.9974303405572701E-2</v>
+      </c>
+      <c r="BT18">
+        <v>23.808015354938298</v>
+      </c>
+      <c r="BU18">
+        <v>23.023764731481499</v>
+      </c>
+      <c r="BV18">
+        <v>25.580055311728401</v>
+      </c>
+      <c r="BW18">
+        <v>23.367701253086398</v>
+      </c>
+      <c r="BX18">
+        <v>25.596201416666698</v>
+      </c>
+      <c r="BY18">
+        <v>23.342125188854499</v>
+      </c>
+      <c r="BZ18">
+        <v>2.13032546399671</v>
+      </c>
+      <c r="CA18">
+        <v>0.43788300679522801</v>
+      </c>
+      <c r="CB18">
+        <v>0.56728024684615297</v>
+      </c>
+      <c r="CC18">
+        <v>0.41156235960737497</v>
+      </c>
+      <c r="CD18">
+        <v>0.44885964561421099</v>
+      </c>
+      <c r="CE18">
+        <v>0.47603360166076297</v>
+      </c>
+      <c r="CF18">
+        <v>1.9171795951044699</v>
+      </c>
+      <c r="CG18">
+        <v>0.80327271110982401</v>
+      </c>
+      <c r="CH18">
+        <v>0.86937332436671999</v>
+      </c>
+      <c r="CI18">
+        <v>0.77847268873907105</v>
+      </c>
+      <c r="CJ18">
+        <v>0.80565817416449304</v>
+      </c>
+      <c r="CK18">
+        <v>0.77173219838496598</v>
+      </c>
+      <c r="CL18">
+        <v>2.8299232420666298</v>
+      </c>
+      <c r="CM18">
+        <v>0.10419101297727699</v>
+      </c>
+      <c r="CN18">
+        <v>0.319250615363668</v>
+      </c>
+      <c r="CO18">
+        <v>0.22355539980160499</v>
+      </c>
+      <c r="CP18">
+        <v>0.147688817376564</v>
+      </c>
+      <c r="CQ18">
+        <v>0.16040389434475699</v>
+      </c>
+      <c r="CR18">
+        <v>1.25654268089135</v>
+      </c>
+      <c r="CS18">
+        <v>0.40750906127847297</v>
+      </c>
+      <c r="CT18">
+        <v>1.7793881718184398E-2</v>
+      </c>
+      <c r="CU18">
+        <v>0.185196266573497</v>
+      </c>
+      <c r="CV18">
+        <v>7.7203268814989207E-2</v>
+      </c>
+      <c r="CW18">
+        <v>0.140500134674476</v>
+      </c>
+      <c r="CX18" s="15">
+        <v>3.0712925830355699E-5</v>
+      </c>
+      <c r="CY18" s="15">
+        <v>3.1798155880882403E-5</v>
+      </c>
+      <c r="CZ18" s="15">
+        <v>3.1885938780628203E-5</v>
+      </c>
+      <c r="DA18" s="15">
+        <v>3.36003695577377E-5</v>
+      </c>
+      <c r="DB18" s="15">
+        <v>3.2712119951255202E-5</v>
+      </c>
+      <c r="DC18" s="15">
+        <v>3.1439925258595302E-5</v>
+      </c>
+      <c r="DD18">
+        <v>2.1307246332169099</v>
+      </c>
+      <c r="DE18">
+        <v>0.43813209360667499</v>
+      </c>
+      <c r="DF18">
+        <v>0.56617702372474699</v>
+      </c>
+      <c r="DG18">
+        <v>0.41219682736531799</v>
+      </c>
+      <c r="DH18">
+        <v>0.448354617639321</v>
+      </c>
+      <c r="DI18">
+        <v>0.47598024243274301</v>
+      </c>
+      <c r="DJ18">
+        <v>359</v>
+      </c>
+      <c r="DK18">
+        <v>359</v>
+      </c>
+      <c r="DL18">
+        <v>359</v>
+      </c>
+      <c r="DM18">
+        <v>359</v>
+      </c>
+      <c r="DN18">
+        <v>359</v>
+      </c>
+      <c r="DO18">
+        <v>358</v>
+      </c>
+      <c r="DP18" s="13">
+        <v>42635.392256944448</v>
+      </c>
+      <c r="DQ18" s="13">
+        <v>42635.433935185189</v>
+      </c>
+      <c r="DR18" s="13">
+        <v>42635.475613425922</v>
+      </c>
+      <c r="DS18" s="13">
+        <v>42635.51730324074</v>
+      </c>
+      <c r="DT18" s="13">
+        <v>42635.558981481481</v>
+      </c>
+      <c r="DU18" s="13">
+        <v>42635.600659722222</v>
+      </c>
+      <c r="DV18" s="13">
+        <v>42635.642222222225</v>
+      </c>
+    </row>
+    <row r="19" spans="34:126" x14ac:dyDescent="0.25">
+      <c r="AH19">
+        <v>200</v>
+      </c>
+      <c r="AI19">
+        <v>19.7</v>
+      </c>
+      <c r="AJ19">
+        <v>18.7</v>
+      </c>
+      <c r="AK19">
+        <v>18.2</v>
+      </c>
+      <c r="AL19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AM19">
+        <v>18.2</v>
+      </c>
+      <c r="AN19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AO19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AP19">
+        <v>24.956210163580199</v>
+      </c>
+      <c r="AQ19">
+        <v>23.006062672839501</v>
+      </c>
+      <c r="AR19">
+        <v>24.799584959876501</v>
+      </c>
+      <c r="AS19">
+        <v>22.509581197530899</v>
+      </c>
+      <c r="AT19">
+        <v>24.683877377708999</v>
+      </c>
+      <c r="AU19">
+        <v>22.340491861111101</v>
+      </c>
+      <c r="AV19">
+        <v>32.980885842592599</v>
+      </c>
+      <c r="AW19">
+        <v>32.987101305555598</v>
+      </c>
+      <c r="AX19">
+        <v>33.013132765432097</v>
+      </c>
+      <c r="AY19">
+        <v>32.986653401234598</v>
+      </c>
+      <c r="AZ19">
+        <v>33.018617551083601</v>
+      </c>
+      <c r="BA19">
+        <v>32.979137398148197</v>
+      </c>
+      <c r="BB19">
+        <v>55.836601620370402</v>
+      </c>
+      <c r="BC19">
+        <v>58.452148472222198</v>
+      </c>
+      <c r="BD19">
+        <v>58.743096604938302</v>
+      </c>
+      <c r="BE19">
+        <v>59.105512611111102</v>
+      </c>
+      <c r="BF19">
+        <v>58.921287003095998</v>
+      </c>
+      <c r="BG19">
+        <v>59.136432861111103</v>
+      </c>
+      <c r="BH19">
+        <v>53.080390037036999</v>
+      </c>
+      <c r="BI19">
+        <v>55.671530641975302</v>
+      </c>
+      <c r="BJ19">
+        <v>56.020592601851803</v>
+      </c>
+      <c r="BK19">
+        <v>56.088666472222101</v>
+      </c>
+      <c r="BL19">
+        <v>55.996589309597603</v>
+      </c>
+      <c r="BM19">
+        <v>55.942365262345703</v>
+      </c>
+      <c r="BN19">
+        <v>2.9973148148148099E-2</v>
+      </c>
+      <c r="BO19">
+        <v>2.99734567901234E-2</v>
+      </c>
+      <c r="BP19">
+        <v>2.9973148148148099E-2</v>
+      </c>
+      <c r="BQ19">
+        <v>2.9974691358024701E-2</v>
+      </c>
+      <c r="BR19">
+        <v>2.9973065015479899E-2</v>
+      </c>
+      <c r="BS19">
+        <v>2.9974382716049401E-2</v>
+      </c>
+      <c r="BT19">
+        <v>25.009471552469101</v>
+      </c>
+      <c r="BU19">
+        <v>23.059749518518501</v>
+      </c>
+      <c r="BV19">
+        <v>24.851650203703699</v>
+      </c>
+      <c r="BW19">
+        <v>22.5593452654321</v>
+      </c>
+      <c r="BX19">
+        <v>24.732624513931899</v>
+      </c>
+      <c r="BY19">
+        <v>22.388159194444398</v>
+      </c>
+      <c r="BZ19">
+        <v>2.6727822423802099</v>
+      </c>
+      <c r="CA19">
+        <v>0.36513823475358498</v>
+      </c>
+      <c r="CB19">
+        <v>0.45076793817611899</v>
+      </c>
+      <c r="CC19">
+        <v>0.384442946105024</v>
+      </c>
+      <c r="CD19">
+        <v>0.42964965411966799</v>
+      </c>
+      <c r="CE19">
+        <v>0.36594147888662498</v>
+      </c>
+      <c r="CF19">
+        <v>2.8113195858452902</v>
+      </c>
+      <c r="CG19">
+        <v>0.77521981338949797</v>
+      </c>
+      <c r="CH19">
+        <v>0.77766045172440901</v>
+      </c>
+      <c r="CI19">
+        <v>0.74209976098623898</v>
+      </c>
+      <c r="CJ19">
+        <v>0.79829347479613799</v>
+      </c>
+      <c r="CK19">
+        <v>0.74412304880943902</v>
+      </c>
+      <c r="CL19">
+        <v>2.1581415153307799</v>
+      </c>
+      <c r="CM19">
+        <v>0.24228007729267101</v>
+      </c>
+      <c r="CN19">
+        <v>4.32311839977534E-2</v>
+      </c>
+      <c r="CO19">
+        <v>0.144671078083565</v>
+      </c>
+      <c r="CP19">
+        <v>0.18346307106033699</v>
+      </c>
+      <c r="CQ19">
+        <v>0.23950451375103801</v>
+      </c>
+      <c r="CR19">
+        <v>1.48283771515087</v>
+      </c>
+      <c r="CS19">
+        <v>0.37710805332780201</v>
+      </c>
+      <c r="CT19">
+        <v>8.7256752960141903E-2</v>
+      </c>
+      <c r="CU19">
+        <v>9.8430325672969804E-2</v>
+      </c>
+      <c r="CV19">
+        <v>0.13359664873200999</v>
+      </c>
+      <c r="CW19">
+        <v>7.6805488922920301E-2</v>
+      </c>
+      <c r="CX19" s="15">
+        <v>3.2728968690131502E-5</v>
+      </c>
+      <c r="CY19" s="15">
+        <v>3.18665198148924E-5</v>
+      </c>
+      <c r="CZ19" s="15">
+        <v>4.03268812414918E-5</v>
+      </c>
+      <c r="DA19" s="15">
+        <v>3.1443343397468098E-5</v>
+      </c>
+      <c r="DB19" s="15">
+        <v>3.1627451197083602E-5</v>
+      </c>
+      <c r="DC19" s="15">
+        <v>3.6368065397391497E-5</v>
+      </c>
+      <c r="DD19">
+        <v>2.6728975942724</v>
+      </c>
+      <c r="DE19">
+        <v>0.36521065767226302</v>
+      </c>
+      <c r="DF19">
+        <v>0.45079554615282702</v>
+      </c>
+      <c r="DG19">
+        <v>0.38387333327164103</v>
+      </c>
+      <c r="DH19">
+        <v>0.43123933022093502</v>
+      </c>
+      <c r="DI19">
+        <v>0.36511481268246598</v>
+      </c>
+      <c r="DJ19">
+        <v>359</v>
+      </c>
+      <c r="DK19">
+        <v>359</v>
+      </c>
+      <c r="DL19">
+        <v>359</v>
+      </c>
+      <c r="DM19">
+        <v>359</v>
+      </c>
+      <c r="DN19">
+        <v>358</v>
+      </c>
+      <c r="DO19">
+        <v>359</v>
+      </c>
+      <c r="DP19" s="13">
+        <v>42635.825949074075</v>
+      </c>
+      <c r="DQ19" s="13">
+        <v>42635.867627314816</v>
+      </c>
+      <c r="DR19" s="13">
+        <v>42635.909305555557</v>
+      </c>
+      <c r="DS19" s="13">
+        <v>42635.950983796298</v>
+      </c>
+      <c r="DT19" s="13">
+        <v>42635.992662037039</v>
+      </c>
+      <c r="DU19" s="13">
+        <v>42636.034224537034</v>
+      </c>
+      <c r="DV19" s="13">
+        <v>42636.075902777775</v>
+      </c>
+    </row>
+    <row r="20" spans="34:126" x14ac:dyDescent="0.25">
+      <c r="AH20">
+        <v>300</v>
+      </c>
+      <c r="AI20">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AJ20">
+        <v>18.7</v>
+      </c>
+      <c r="AK20">
+        <v>18.2</v>
+      </c>
+      <c r="AL20">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AM20">
+        <v>18.2</v>
+      </c>
+      <c r="AN20">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AO20">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>0</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>0</v>
+      </c>
+      <c r="CA20">
+        <v>0</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>0</v>
+      </c>
+      <c r="CF20">
+        <v>0</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>0</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>0</v>
+      </c>
+      <c r="CK20">
+        <v>0</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <v>0</v>
+      </c>
+      <c r="CP20">
+        <v>0</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>0</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>0</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>359</v>
+      </c>
+      <c r="DK20">
+        <v>359</v>
+      </c>
+      <c r="DL20">
+        <v>359</v>
+      </c>
+      <c r="DM20">
+        <v>359</v>
+      </c>
+      <c r="DN20">
+        <v>358</v>
+      </c>
+      <c r="DO20">
+        <v>359</v>
+      </c>
+      <c r="DP20" s="13">
+        <v>42636.274687500001</v>
+      </c>
+      <c r="DQ20" s="13">
+        <v>42636.081805555557</v>
+      </c>
+      <c r="DR20" s="13">
+        <v>42636.081805555557</v>
+      </c>
+      <c r="DS20" s="13">
+        <v>42636.081805555557</v>
+      </c>
+      <c r="DT20" s="13">
+        <v>42636.081805555557</v>
+      </c>
+      <c r="DU20" s="13">
+        <v>42636.081805555557</v>
+      </c>
+      <c r="DV20" s="13">
+        <v>42636.081805555557</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="CL1:CQ1"/>
+    <mergeCell ref="CR1:CW1"/>
+    <mergeCell ref="CX1:DC1"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="DD1:DI1"/>
     <mergeCell ref="AI1:AO1"/>
@@ -4490,9 +5305,6 @@
     <mergeCell ref="BT1:BY1"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="CF1:CK1"/>
-    <mergeCell ref="CL1:CQ1"/>
-    <mergeCell ref="CR1:CW1"/>
-    <mergeCell ref="CX1:DC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/report/Conflat-LENR.xlsx
+++ b/report/Conflat-LENR.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="13860"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>NQ</t>
   </si>
@@ -120,6 +120,9 @@
   <si>
     <t>Q pulse Length</t>
   </si>
+  <si>
+    <t>/SRIdata/2016-09-19_day-04.csv : 06.csv</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -261,10 +263,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -740,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DV20"/>
+  <dimension ref="A1:DV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18:AU19"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,19 +767,20 @@
     <col min="32" max="32" width="4.75" style="7" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.75" style="7" customWidth="1"/>
     <col min="34" max="34" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="5.875" style="1" customWidth="1"/>
-    <col min="42" max="46" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="5.875" style="1" customWidth="1"/>
-    <col min="48" max="50" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="65" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="71" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="77" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="82" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="65" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="71" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="77" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="82" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="5.875" style="1" customWidth="1"/>
-    <col min="84" max="86" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="101" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="86" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="101" width="5.875" style="1" bestFit="1" customWidth="1"/>
     <col min="102" max="107" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="108" max="113" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="114" max="119" width="14.125" style="1" bestFit="1" customWidth="1"/>
@@ -787,11 +793,11 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="33" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="37" t="s">
@@ -826,118 +832,118 @@
       <c r="AD1" s="38"/>
       <c r="AE1" s="38"/>
       <c r="AF1" s="38"/>
-      <c r="AG1" s="31"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AG1" s="30"/>
+      <c r="AI1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35" t="s">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35" t="s">
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="35" t="s">
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35" t="s">
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35" t="s">
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35" t="s">
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35" t="s">
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="35"/>
-      <c r="CC1" s="35"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="35"/>
-      <c r="CF1" s="35" t="s">
+      <c r="CA1" s="34"/>
+      <c r="CB1" s="34"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="34"/>
+      <c r="CE1" s="34"/>
+      <c r="CF1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="CG1" s="35"/>
-      <c r="CH1" s="35"/>
-      <c r="CI1" s="35"/>
-      <c r="CJ1" s="35"/>
-      <c r="CK1" s="35"/>
-      <c r="CL1" s="35" t="s">
+      <c r="CG1" s="34"/>
+      <c r="CH1" s="34"/>
+      <c r="CI1" s="34"/>
+      <c r="CJ1" s="34"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="CM1" s="35"/>
-      <c r="CN1" s="35"/>
-      <c r="CO1" s="35"/>
-      <c r="CP1" s="35"/>
-      <c r="CQ1" s="35"/>
-      <c r="CR1" s="35" t="s">
+      <c r="CM1" s="34"/>
+      <c r="CN1" s="34"/>
+      <c r="CO1" s="34"/>
+      <c r="CP1" s="34"/>
+      <c r="CQ1" s="34"/>
+      <c r="CR1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="CS1" s="35"/>
-      <c r="CT1" s="35"/>
-      <c r="CU1" s="35"/>
-      <c r="CV1" s="35"/>
-      <c r="CW1" s="35"/>
-      <c r="CX1" s="35" t="s">
+      <c r="CS1" s="34"/>
+      <c r="CT1" s="34"/>
+      <c r="CU1" s="34"/>
+      <c r="CV1" s="34"/>
+      <c r="CW1" s="34"/>
+      <c r="CX1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="CY1" s="35"/>
-      <c r="CZ1" s="35"/>
-      <c r="DA1" s="35"/>
-      <c r="DB1" s="35"/>
-      <c r="DC1" s="35"/>
-      <c r="DD1" s="35" t="s">
+      <c r="CY1" s="34"/>
+      <c r="CZ1" s="34"/>
+      <c r="DA1" s="34"/>
+      <c r="DB1" s="34"/>
+      <c r="DC1" s="34"/>
+      <c r="DD1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="DE1" s="35"/>
-      <c r="DF1" s="35"/>
-      <c r="DG1" s="35"/>
-      <c r="DH1" s="35"/>
-      <c r="DI1" s="35"/>
+      <c r="DE1" s="34"/>
+      <c r="DF1" s="34"/>
+      <c r="DG1" s="34"/>
+      <c r="DH1" s="34"/>
+      <c r="DI1" s="34"/>
     </row>
     <row r="2" spans="1:119" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="19">
         <v>300</v>
       </c>
       <c r="C2" s="7">
@@ -1305,16 +1311,16 @@
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>2.42</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="8"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
@@ -1332,17 +1338,17 @@
       <c r="CK4" s="3"/>
     </row>
     <row r="5" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
@@ -1375,44 +1381,44 @@
       <c r="CK5" s="3"/>
     </row>
     <row r="6" spans="1:119" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>5.19</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>14.53</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="32">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="31">
         <f>AH6</f>
         <v>277</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <f>AV6-AP6-$B$4</f>
         <v>4.8065900341033982</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <f>AW6-AQ6-$C$4</f>
         <v>5.1293440092592011</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="20">
         <f>AX6-AR6-$B$4</f>
         <v>4.7410550308640973</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <f>AY6-AS6-$C$4</f>
         <v>5.1770175555554996</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <f>AZ6-AT6-$B$4</f>
         <v>4.8063008699690046</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <f>BA6-AU6-$C$4</f>
         <v>5.3306487037036963</v>
       </c>
@@ -1440,27 +1446,27 @@
         <f t="shared" si="3"/>
         <v>31.483130911115008</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="21">
         <f t="shared" ref="U6:Z8" si="4">BT6-AP6</f>
         <v>6.4229201210120976</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="21">
         <f t="shared" si="4"/>
         <v>6.396805533950598</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="21">
         <f t="shared" si="4"/>
         <v>6.4181253024691038</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="21">
         <f t="shared" si="4"/>
         <v>6.4077234660493012</v>
       </c>
-      <c r="Y6" s="22">
+      <c r="Y6" s="21">
         <f t="shared" si="4"/>
         <v>6.3661304953560034</v>
       </c>
-      <c r="Z6" s="22">
+      <c r="Z6" s="21">
         <f t="shared" si="4"/>
         <v>6.3421354413579998</v>
       </c>
@@ -1493,112 +1499,112 @@
         <v>277</v>
       </c>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="17">
+      <c r="AJ6" s="16">
         <v>32.799999999999997</v>
       </c>
-      <c r="AK6" s="17">
+      <c r="AK6" s="16">
         <v>32.5</v>
       </c>
-      <c r="AL6" s="17">
+      <c r="AL6" s="16">
         <v>32.9</v>
       </c>
-      <c r="AM6" s="17">
+      <c r="AM6" s="16">
         <v>32.5</v>
       </c>
-      <c r="AN6" s="17">
+      <c r="AN6" s="16">
         <v>32.9</v>
       </c>
-      <c r="AO6" s="17">
+      <c r="AO6" s="16">
         <v>32.5</v>
       </c>
-      <c r="AP6" s="18">
+      <c r="AP6" s="17">
         <v>25.9004854510451</v>
       </c>
-      <c r="AQ6" s="18">
+      <c r="AQ6" s="17">
         <v>25.438552589506202</v>
       </c>
-      <c r="AR6" s="18">
+      <c r="AR6" s="17">
         <v>25.9791627592593</v>
       </c>
-      <c r="AS6" s="18">
+      <c r="AS6" s="17">
         <v>25.385660774691399</v>
       </c>
-      <c r="AT6" s="18">
+      <c r="AT6" s="17">
         <v>25.924574606811198</v>
       </c>
-      <c r="AU6" s="18">
+      <c r="AU6" s="17">
         <v>25.225196098765402</v>
       </c>
-      <c r="AV6" s="17">
+      <c r="AV6" s="16">
         <v>33.007075485148498</v>
       </c>
-      <c r="AW6" s="17">
+      <c r="AW6" s="16">
         <v>32.987896598765403</v>
       </c>
-      <c r="AX6" s="17">
+      <c r="AX6" s="16">
         <v>33.020217790123397</v>
       </c>
-      <c r="AY6" s="17">
+      <c r="AY6" s="16">
         <v>32.982678330246898</v>
       </c>
-      <c r="AZ6" s="17">
+      <c r="AZ6" s="16">
         <v>33.030875476780203</v>
       </c>
-      <c r="BA6" s="17">
+      <c r="BA6" s="16">
         <v>32.975844802469098</v>
       </c>
-      <c r="BB6" s="18">
+      <c r="BB6" s="17">
         <v>48.183541979097903</v>
       </c>
-      <c r="BC6" s="18">
+      <c r="BC6" s="17">
         <v>47.924408398148103</v>
       </c>
-      <c r="BD6" s="18">
+      <c r="BD6" s="17">
         <v>47.801399182098798</v>
       </c>
-      <c r="BE6" s="18">
+      <c r="BE6" s="17">
         <v>47.850185873456802</v>
       </c>
-      <c r="BF6" s="18">
+      <c r="BF6" s="17">
         <v>47.693302213622303</v>
       </c>
-      <c r="BG6" s="18">
+      <c r="BG6" s="17">
         <v>47.694512592592602</v>
       </c>
-      <c r="BH6" s="17">
+      <c r="BH6" s="16">
         <v>44.668091526952601</v>
       </c>
-      <c r="BI6" s="17">
+      <c r="BI6" s="16">
         <v>44.533325922839502</v>
       </c>
-      <c r="BJ6" s="17">
+      <c r="BJ6" s="16">
         <v>44.475408601851797</v>
       </c>
-      <c r="BK6" s="17">
+      <c r="BK6" s="16">
         <v>44.423530493827201</v>
       </c>
-      <c r="BL6" s="17">
+      <c r="BL6" s="16">
         <v>44.227817876160998</v>
       </c>
-      <c r="BM6" s="17">
+      <c r="BM6" s="16">
         <v>44.291351151234601</v>
       </c>
-      <c r="BN6" s="18">
+      <c r="BN6" s="17">
         <v>2.9974697469747302E-2</v>
       </c>
-      <c r="BO6" s="18">
+      <c r="BO6" s="17">
         <v>2.9974537037037001E-2</v>
       </c>
-      <c r="BP6" s="18">
+      <c r="BP6" s="17">
         <v>2.9974691358024701E-2</v>
       </c>
-      <c r="BQ6" s="18">
+      <c r="BQ6" s="17">
         <v>2.9974845679012301E-2</v>
       </c>
-      <c r="BR6" s="18">
+      <c r="BR6" s="17">
         <v>2.9973529411764701E-2</v>
       </c>
-      <c r="BS6" s="18">
+      <c r="BS6" s="17">
         <v>2.99739197530864E-2</v>
       </c>
       <c r="BT6" s="4">
@@ -1619,22 +1625,22 @@
       <c r="BY6" s="4">
         <v>31.567331540123401</v>
       </c>
-      <c r="BZ6" s="18">
+      <c r="BZ6" s="17">
         <v>0.22766062163106501</v>
       </c>
-      <c r="CA6" s="18">
+      <c r="CA6" s="17">
         <v>0.57352254907297995</v>
       </c>
-      <c r="CB6" s="18">
+      <c r="CB6" s="17">
         <v>0.59617858642466504</v>
       </c>
-      <c r="CC6" s="18">
+      <c r="CC6" s="17">
         <v>0.57259020289763995</v>
       </c>
-      <c r="CD6" s="18">
+      <c r="CD6" s="17">
         <v>0.614750636350062</v>
       </c>
-      <c r="CE6" s="18">
+      <c r="CE6" s="17">
         <v>0.55378897401155303</v>
       </c>
       <c r="CF6" s="4">
@@ -1655,22 +1661,22 @@
       <c r="CK6" s="4">
         <v>0.97235375211882802</v>
       </c>
-      <c r="CL6" s="18">
+      <c r="CL6" s="17">
         <v>0.450164934457713</v>
       </c>
-      <c r="CM6" s="18">
+      <c r="CM6" s="17">
         <v>8.00352435313222E-2</v>
       </c>
-      <c r="CN6" s="18">
+      <c r="CN6" s="17">
         <v>0.100013763452447</v>
       </c>
-      <c r="CO6" s="18">
+      <c r="CO6" s="17">
         <v>9.0112665564195005E-2</v>
       </c>
-      <c r="CP6" s="18">
+      <c r="CP6" s="17">
         <v>0.105326645182883</v>
       </c>
-      <c r="CQ6" s="18">
+      <c r="CQ6" s="17">
         <v>7.2071070238740306E-2</v>
       </c>
       <c r="CR6" s="4">
@@ -1691,22 +1697,22 @@
       <c r="CW6" s="4">
         <v>7.5850275506325102E-2</v>
       </c>
-      <c r="CX6" s="18">
+      <c r="CX6" s="17">
         <v>3.1328361711313803E-5</v>
       </c>
-      <c r="CY6" s="18">
+      <c r="CY6" s="17">
         <v>3.2100881199993801E-5</v>
       </c>
-      <c r="CZ6" s="18">
+      <c r="CZ6" s="17">
         <v>3.03183230382861E-5</v>
       </c>
-      <c r="DA6" s="18">
+      <c r="DA6" s="17">
         <v>3.2079180415901303E-5</v>
       </c>
-      <c r="DB6" s="18">
+      <c r="DB6" s="17">
         <v>3.23288076304114E-5</v>
       </c>
-      <c r="DC6" s="18">
+      <c r="DC6" s="17">
         <v>3.2936061127017603E-5</v>
       </c>
       <c r="DD6" s="4">
@@ -1727,64 +1733,64 @@
       <c r="DI6" s="4">
         <v>0.56420344143128298</v>
       </c>
-      <c r="DJ6" s="19">
+      <c r="DJ6" s="18">
         <v>42617.702372685184</v>
       </c>
-      <c r="DK6" s="19">
+      <c r="DK6" s="18">
         <v>42617.744050925925</v>
       </c>
-      <c r="DL6" s="19">
+      <c r="DL6" s="18">
         <v>42617.785729166666</v>
       </c>
-      <c r="DM6" s="19">
+      <c r="DM6" s="18">
         <v>42617.827407407407</v>
       </c>
-      <c r="DN6" s="19">
+      <c r="DN6" s="18">
         <v>42617.868981481479</v>
       </c>
-      <c r="DO6" s="19">
+      <c r="DO6" s="18">
         <v>42617.91065972222</v>
       </c>
     </row>
     <row r="7" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>0.61</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="32">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="31">
         <f t="shared" ref="H7:H9" si="6">AH7</f>
         <v>302</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <f>AV7-AP7-$B$4</f>
         <v>5.2612966930693021</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <f>AW7-AQ7-$C$4</f>
         <v>5.9098996388888008</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="20">
         <f>AX7-AR7-$B$4</f>
         <v>5.4758059999999995</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <f>AY7-AS7-$C$4</f>
         <v>5.9430509876543045</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <f>AZ7-AT7-$B$4</f>
         <v>5.4528492407407017</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <f>BA7-AU7-$C$4</f>
         <v>5.931963453703597</v>
       </c>
@@ -1812,27 +1818,27 @@
         <f t="shared" si="3"/>
         <v>36.106763555531955</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <f t="shared" si="4"/>
         <v>6.6682125742572964</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="21">
         <f t="shared" si="4"/>
         <v>6.7142537993826998</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="21">
         <f t="shared" si="4"/>
         <v>6.6895869783950985</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="21">
         <f t="shared" si="4"/>
         <v>6.6406541604938027</v>
       </c>
-      <c r="Y7" s="22">
+      <c r="Y7" s="21">
         <f t="shared" si="4"/>
         <v>6.6417394783949995</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="21">
         <f t="shared" si="4"/>
         <v>6.6195881203702989</v>
       </c>
@@ -1865,112 +1871,112 @@
         <v>302</v>
       </c>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="17">
+      <c r="AJ7" s="16">
         <v>37.5</v>
       </c>
-      <c r="AK7" s="17">
+      <c r="AK7" s="16">
         <v>36.700000000000003</v>
       </c>
-      <c r="AL7" s="17">
+      <c r="AL7" s="16">
         <v>37.200000000000003</v>
       </c>
-      <c r="AM7" s="17">
+      <c r="AM7" s="16">
         <v>36.700000000000003</v>
       </c>
-      <c r="AN7" s="17">
+      <c r="AN7" s="16">
         <v>37.299999999999997</v>
       </c>
-      <c r="AO7" s="17">
+      <c r="AO7" s="16">
         <v>36.799999999999997</v>
       </c>
-      <c r="AP7" s="18">
+      <c r="AP7" s="17">
         <v>25.444871344334501</v>
       </c>
-      <c r="AQ7" s="18">
+      <c r="AQ7" s="17">
         <v>24.657573256172899</v>
       </c>
-      <c r="AR7" s="18">
+      <c r="AR7" s="17">
         <v>25.2484502530864</v>
       </c>
-      <c r="AS7" s="18">
+      <c r="AS7" s="17">
         <v>24.615415808641998</v>
       </c>
-      <c r="AT7" s="18">
+      <c r="AT7" s="17">
         <v>25.277343638888901</v>
       </c>
-      <c r="AU7" s="18">
+      <c r="AU7" s="17">
         <v>24.6261776790124</v>
       </c>
-      <c r="AV7" s="17">
+      <c r="AV7" s="16">
         <v>33.006168037403803</v>
       </c>
-      <c r="AW7" s="17">
+      <c r="AW7" s="16">
         <v>32.9874728950617</v>
       </c>
-      <c r="AX7" s="17">
+      <c r="AX7" s="16">
         <v>33.024256253086399</v>
       </c>
-      <c r="AY7" s="17">
+      <c r="AY7" s="16">
         <v>32.978466796296303</v>
       </c>
-      <c r="AZ7" s="17">
+      <c r="AZ7" s="16">
         <v>33.030192879629602</v>
       </c>
-      <c r="BA7" s="17">
+      <c r="BA7" s="16">
         <v>32.978141132715997</v>
       </c>
-      <c r="BB7" s="18">
+      <c r="BB7" s="17">
         <v>49.129796700770001</v>
       </c>
-      <c r="BC7" s="18">
+      <c r="BC7" s="17">
         <v>49.735341719135803</v>
       </c>
-      <c r="BD7" s="18">
+      <c r="BD7" s="17">
         <v>49.613498197530902</v>
       </c>
-      <c r="BE7" s="18">
+      <c r="BE7" s="17">
         <v>49.593941916666701</v>
       </c>
-      <c r="BF7" s="18">
+      <c r="BF7" s="17">
         <v>49.551229191357997</v>
       </c>
-      <c r="BG7" s="18">
+      <c r="BG7" s="17">
         <v>49.561813046296301</v>
       </c>
-      <c r="BH7" s="17">
+      <c r="BH7" s="16">
         <v>45.361266242024101</v>
       </c>
-      <c r="BI7" s="17">
+      <c r="BI7" s="16">
         <v>45.967196706790098</v>
       </c>
-      <c r="BJ7" s="17">
+      <c r="BJ7" s="16">
         <v>45.8196074938271</v>
       </c>
-      <c r="BK7" s="17">
+      <c r="BK7" s="16">
         <v>45.869607120370397</v>
       </c>
-      <c r="BL7" s="17">
+      <c r="BL7" s="16">
         <v>45.888584324074102</v>
       </c>
-      <c r="BM7" s="17">
+      <c r="BM7" s="16">
         <v>46.013790351851803</v>
       </c>
-      <c r="BN7" s="18">
+      <c r="BN7" s="17">
         <v>2.9974422442244599E-2</v>
       </c>
-      <c r="BO7" s="18">
+      <c r="BO7" s="17">
         <v>2.99766975308642E-2</v>
       </c>
-      <c r="BP7" s="18">
+      <c r="BP7" s="17">
         <v>2.9975925925925899E-2</v>
       </c>
-      <c r="BQ7" s="18">
+      <c r="BQ7" s="17">
         <v>2.99768518518518E-2</v>
       </c>
-      <c r="BR7" s="18">
+      <c r="BR7" s="17">
         <v>2.9976080246913599E-2</v>
       </c>
-      <c r="BS7" s="18">
+      <c r="BS7" s="17">
         <v>2.9975617283950599E-2</v>
       </c>
       <c r="BT7" s="4">
@@ -1991,22 +1997,22 @@
       <c r="BY7" s="4">
         <v>31.245765799382699</v>
       </c>
-      <c r="BZ7" s="18">
+      <c r="BZ7" s="17">
         <v>0.202237378004261</v>
       </c>
-      <c r="CA7" s="18">
+      <c r="CA7" s="17">
         <v>0.55996436168115604</v>
       </c>
-      <c r="CB7" s="18">
+      <c r="CB7" s="17">
         <v>0.59636110723971703</v>
       </c>
-      <c r="CC7" s="18">
+      <c r="CC7" s="17">
         <v>0.58548509385731895</v>
       </c>
-      <c r="CD7" s="18">
+      <c r="CD7" s="17">
         <v>0.59250011122982804</v>
       </c>
-      <c r="CE7" s="18">
+      <c r="CE7" s="17">
         <v>0.55780633197029095</v>
       </c>
       <c r="CF7" s="4">
@@ -2027,22 +2033,22 @@
       <c r="CK7" s="4">
         <v>0.98270121478886696</v>
       </c>
-      <c r="CL7" s="18">
+      <c r="CL7" s="17">
         <v>0.59930397548530501</v>
       </c>
-      <c r="CM7" s="18">
+      <c r="CM7" s="17">
         <v>8.2331067557817994E-2</v>
       </c>
-      <c r="CN7" s="18">
+      <c r="CN7" s="17">
         <v>0.11834353258725901</v>
       </c>
-      <c r="CO7" s="18">
+      <c r="CO7" s="17">
         <v>8.5225553407935903E-2</v>
       </c>
-      <c r="CP7" s="18">
+      <c r="CP7" s="17">
         <v>7.94142370636957E-2</v>
       </c>
-      <c r="CQ7" s="18">
+      <c r="CQ7" s="17">
         <v>4.8574548522695001E-2</v>
       </c>
       <c r="CR7" s="4">
@@ -2063,22 +2069,22 @@
       <c r="CW7" s="4">
         <v>8.9349784831710105E-2</v>
       </c>
-      <c r="CX7" s="18">
+      <c r="CX7" s="17">
         <v>3.1020105843409901E-5</v>
       </c>
-      <c r="CY7" s="18">
+      <c r="CY7" s="17">
         <v>3.2060180180455999E-5</v>
       </c>
-      <c r="CZ7" s="18">
+      <c r="CZ7" s="17">
         <v>3.4991266540924102E-5</v>
       </c>
-      <c r="DA7" s="18">
+      <c r="DA7" s="17">
         <v>2.8786654267959101E-5</v>
       </c>
-      <c r="DB7" s="18">
+      <c r="DB7" s="17">
         <v>3.0763270796251799E-5</v>
       </c>
-      <c r="DC7" s="18">
+      <c r="DC7" s="17">
         <v>3.0974762842475303E-5</v>
       </c>
       <c r="DD7" s="4">
@@ -2099,51 +2105,51 @@
       <c r="DI7" s="4">
         <v>0.58947519589537001</v>
       </c>
-      <c r="DJ7" s="19">
+      <c r="DJ7" s="18">
         <v>42618.03570601852</v>
       </c>
-      <c r="DK7" s="19">
+      <c r="DK7" s="18">
         <v>42618.077384259261</v>
       </c>
-      <c r="DL7" s="19">
+      <c r="DL7" s="18">
         <v>42618.119062500002</v>
       </c>
-      <c r="DM7" s="19">
+      <c r="DM7" s="18">
         <v>42618.160740740743</v>
       </c>
-      <c r="DN7" s="19">
+      <c r="DN7" s="18">
         <v>42618.202430555553</v>
       </c>
-      <c r="DO7" s="19">
+      <c r="DO7" s="18">
         <v>42618.244108796294</v>
       </c>
     </row>
     <row r="8" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <f t="shared" si="6"/>
         <v>327</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <f>AV8-AP8-$B$4</f>
         <v>5.7961352120878979</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <f>AW8-AQ8-$C$4</f>
         <v>6.3328020185185014</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <f>AX8-AR8-$B$4</f>
         <v>5.7513969907407985</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <f>AY8-AS8-$C$4</f>
         <v>6.2295736851851995</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <f>AZ8-AT8-$B$4</f>
         <v>5.4688391578947</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <f>BA8-AU8-$C$4</f>
         <v>5.7970784907407964</v>
       </c>
@@ -2171,27 +2177,27 @@
         <f t="shared" si="3"/>
         <v>39.911864770664089</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="21">
         <f t="shared" si="4"/>
         <v>6.972813239560498</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="21">
         <f t="shared" si="4"/>
         <v>7.0526559197531</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="21">
         <f t="shared" si="4"/>
         <v>7.0428166697531012</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="21">
         <f t="shared" si="4"/>
         <v>7.0807483456789981</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y8" s="21">
         <f t="shared" si="4"/>
         <v>7.1329430712073965</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="21">
         <f t="shared" si="4"/>
         <v>7.1785984506172973</v>
       </c>
@@ -2224,112 +2230,112 @@
         <v>327</v>
       </c>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="17">
+      <c r="AJ8" s="16">
         <v>41.9</v>
       </c>
-      <c r="AK8" s="17">
+      <c r="AK8" s="16">
         <v>41.4</v>
       </c>
-      <c r="AL8" s="17">
+      <c r="AL8" s="16">
         <v>41.8</v>
       </c>
-      <c r="AM8" s="17">
+      <c r="AM8" s="16">
         <v>41.2</v>
       </c>
-      <c r="AN8" s="17">
+      <c r="AN8" s="16">
         <v>41.7</v>
       </c>
-      <c r="AO8" s="17">
+      <c r="AO8" s="16">
         <v>41.3</v>
       </c>
-      <c r="AP8" s="18">
+      <c r="AP8" s="17">
         <v>24.911108837362601</v>
       </c>
-      <c r="AQ8" s="18">
+      <c r="AQ8" s="17">
         <v>24.223518462963</v>
       </c>
-      <c r="AR8" s="18">
+      <c r="AR8" s="17">
         <v>24.974374521604901</v>
       </c>
-      <c r="AS8" s="18">
+      <c r="AS8" s="17">
         <v>24.337779604938302</v>
       </c>
-      <c r="AT8" s="18">
+      <c r="AT8" s="17">
         <v>25.251140659442701</v>
       </c>
-      <c r="AU8" s="18">
+      <c r="AU8" s="17">
         <v>24.768414836419701</v>
       </c>
-      <c r="AV8" s="17">
+      <c r="AV8" s="16">
         <v>33.007244049450499</v>
       </c>
-      <c r="AW8" s="17">
+      <c r="AW8" s="16">
         <v>32.976320481481501</v>
       </c>
-      <c r="AX8" s="17">
+      <c r="AX8" s="16">
         <v>33.025771512345699</v>
       </c>
-      <c r="AY8" s="17">
+      <c r="AY8" s="16">
         <v>32.987353290123501</v>
       </c>
-      <c r="AZ8" s="17">
+      <c r="AZ8" s="16">
         <v>33.019979817337401</v>
       </c>
-      <c r="BA8" s="17">
+      <c r="BA8" s="16">
         <v>32.985493327160498</v>
       </c>
-      <c r="BB8" s="18">
+      <c r="BB8" s="17">
         <v>51.1748267351648</v>
       </c>
-      <c r="BC8" s="18">
+      <c r="BC8" s="17">
         <v>51.958077959876498</v>
       </c>
-      <c r="BD8" s="18">
+      <c r="BD8" s="17">
         <v>51.969401913580299</v>
       </c>
-      <c r="BE8" s="18">
+      <c r="BE8" s="17">
         <v>52.1252684475309</v>
       </c>
-      <c r="BF8" s="18">
+      <c r="BF8" s="17">
         <v>52.240976120743099</v>
       </c>
-      <c r="BG8" s="18">
+      <c r="BG8" s="17">
         <v>52.480777438271602</v>
       </c>
-      <c r="BH8" s="17">
+      <c r="BH8" s="16">
         <v>47.234970172527497</v>
       </c>
-      <c r="BI8" s="17">
+      <c r="BI8" s="16">
         <v>47.942815404321003</v>
       </c>
-      <c r="BJ8" s="17">
+      <c r="BJ8" s="16">
         <v>47.899709555555603</v>
       </c>
-      <c r="BK8" s="17">
+      <c r="BK8" s="16">
         <v>48.075868425925897</v>
       </c>
-      <c r="BL8" s="17">
+      <c r="BL8" s="16">
         <v>48.130198287925701</v>
       </c>
-      <c r="BM8" s="17">
+      <c r="BM8" s="16">
         <v>48.298215271605002</v>
       </c>
-      <c r="BN8" s="18">
+      <c r="BN8" s="17">
         <v>2.9976538461538801E-2</v>
       </c>
-      <c r="BO8" s="18">
+      <c r="BO8" s="17">
         <v>2.9975462962962902E-2</v>
       </c>
-      <c r="BP8" s="18">
+      <c r="BP8" s="17">
         <v>2.9974537037037001E-2</v>
       </c>
-      <c r="BQ8" s="18">
+      <c r="BQ8" s="17">
         <v>2.9972839506172799E-2</v>
       </c>
-      <c r="BR8" s="18">
+      <c r="BR8" s="17">
         <v>2.9973219814241499E-2</v>
       </c>
-      <c r="BS8" s="18">
+      <c r="BS8" s="17">
         <v>2.9975000000000002E-2</v>
       </c>
       <c r="BT8" s="4">
@@ -2350,22 +2356,22 @@
       <c r="BY8" s="4">
         <v>31.947013287036999</v>
       </c>
-      <c r="BZ8" s="18">
+      <c r="BZ8" s="17">
         <v>0.17567278930437299</v>
       </c>
-      <c r="CA8" s="18">
+      <c r="CA8" s="17">
         <v>0.554677909076702</v>
       </c>
-      <c r="CB8" s="18">
+      <c r="CB8" s="17">
         <v>0.59099430202126202</v>
       </c>
-      <c r="CC8" s="18">
+      <c r="CC8" s="17">
         <v>0.54355398284812695</v>
       </c>
-      <c r="CD8" s="18">
+      <c r="CD8" s="17">
         <v>0.56788805296034495</v>
       </c>
-      <c r="CE8" s="18">
+      <c r="CE8" s="17">
         <v>0.56726054366117196</v>
       </c>
       <c r="CF8" s="4">
@@ -2386,22 +2392,22 @@
       <c r="CK8" s="4">
         <v>0.93411075701385904</v>
       </c>
-      <c r="CL8" s="18">
+      <c r="CL8" s="17">
         <v>0.690912131924178</v>
       </c>
-      <c r="CM8" s="18">
+      <c r="CM8" s="17">
         <v>9.1123643144354005E-2</v>
       </c>
-      <c r="CN8" s="18">
+      <c r="CN8" s="17">
         <v>9.3807032523455305E-2</v>
       </c>
-      <c r="CO8" s="18">
+      <c r="CO8" s="17">
         <v>0.10847438547786099</v>
       </c>
-      <c r="CP8" s="18">
+      <c r="CP8" s="17">
         <v>4.9661780968559797E-2</v>
       </c>
-      <c r="CQ8" s="18">
+      <c r="CQ8" s="17">
         <v>0.13815948781061199</v>
       </c>
       <c r="CR8" s="4">
@@ -2422,22 +2428,22 @@
       <c r="CW8" s="4">
         <v>0.130009757683273</v>
       </c>
-      <c r="CX8" s="18">
+      <c r="CX8" s="17">
         <v>3.2547461527159303E-5</v>
       </c>
-      <c r="CY8" s="18">
+      <c r="CY8" s="17">
         <v>3.1431037045497703E-5</v>
       </c>
-      <c r="CZ8" s="18">
+      <c r="CZ8" s="17">
         <v>3.1655791515774901E-5</v>
       </c>
-      <c r="DA8" s="18">
+      <c r="DA8" s="17">
         <v>3.1171481363368602E-5</v>
       </c>
-      <c r="DB8" s="18">
+      <c r="DB8" s="17">
         <v>3.0519434187426603E-5</v>
       </c>
-      <c r="DC8" s="18">
+      <c r="DC8" s="17">
         <v>3.2314992548707899E-5</v>
       </c>
       <c r="DD8" s="4">
@@ -2458,43 +2464,43 @@
       <c r="DI8" s="4">
         <v>0.59560788963844202</v>
       </c>
-      <c r="DJ8" s="19">
+      <c r="DJ8" s="18">
         <v>42618.369085648148</v>
       </c>
-      <c r="DK8" s="19">
+      <c r="DK8" s="18">
         <v>42618.410763888889</v>
       </c>
-      <c r="DL8" s="19">
+      <c r="DL8" s="18">
         <v>42618.45244212963</v>
       </c>
-      <c r="DM8" s="19">
+      <c r="DM8" s="18">
         <v>42618.494131944448</v>
       </c>
-      <c r="DN8" s="19">
+      <c r="DN8" s="18">
         <v>42618.535694444443</v>
       </c>
-      <c r="DO8" s="19">
+      <c r="DO8" s="18">
         <v>42618.577384259261</v>
       </c>
     </row>
     <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <f t="shared" si="6"/>
         <v>352</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <f>AV9-AP9-$B$4</f>
         <v>5.0352602354235971</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <f>AW9-AQ9-$C$4</f>
         <v>5.4717381913581011</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="6">
         <f>I9+AJ9-U9-AA9</f>
         <v>44.24022448329962</v>
@@ -2507,18 +2513,18 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="22">
+      <c r="U9" s="21">
         <f>BT9-AP9</f>
         <v>7.6878751089109016</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="21">
         <f>BU9-AQ9</f>
         <v>7.8038547932099007</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
       <c r="AA9" s="6">
         <f>$B$6*BN9/60*$B$7*(BB9-BH9)</f>
         <v>7.1606432130729607E-3</v>
@@ -2531,66 +2537,66 @@
         <v>352</v>
       </c>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="17">
+      <c r="AJ9" s="16">
         <v>46.9</v>
       </c>
-      <c r="AK9" s="17">
+      <c r="AK9" s="16">
         <v>46.3</v>
       </c>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="18">
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="17">
         <v>25.6707872959296</v>
       </c>
-      <c r="AQ9" s="18">
+      <c r="AQ9" s="17">
         <v>25.088306290123398</v>
       </c>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="17">
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="16">
         <v>33.006047531353197</v>
       </c>
-      <c r="AW9" s="17">
+      <c r="AW9" s="16">
         <v>32.980044481481499</v>
       </c>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="18">
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="17">
         <v>54.535247243124402</v>
       </c>
-      <c r="BC9" s="18">
+      <c r="BC9" s="17">
         <v>55.343842574074102</v>
       </c>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="17">
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="16">
         <v>50.007822040703999</v>
       </c>
-      <c r="BI9" s="17">
+      <c r="BI9" s="16">
         <v>50.807388916666604</v>
       </c>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="18">
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="17">
         <v>2.9974697469747302E-2</v>
       </c>
-      <c r="BO9" s="18">
+      <c r="BO9" s="17">
         <v>2.9972067901234599E-2</v>
       </c>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18"/>
-      <c r="BS9" s="18"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17"/>
+      <c r="BS9" s="17"/>
       <c r="BT9" s="4">
         <v>33.358662404840501</v>
       </c>
@@ -2601,16 +2607,16 @@
       <c r="BW9" s="4"/>
       <c r="BX9" s="4"/>
       <c r="BY9" s="4"/>
-      <c r="BZ9" s="18">
+      <c r="BZ9" s="17">
         <v>0.21406480520589799</v>
       </c>
-      <c r="CA9" s="18">
+      <c r="CA9" s="17">
         <v>0.54696763442220198</v>
       </c>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18"/>
-      <c r="CE9" s="18"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17"/>
+      <c r="CE9" s="17"/>
       <c r="CF9" s="4">
         <v>0.25810077307210899</v>
       </c>
@@ -2621,16 +2627,16 @@
       <c r="CI9" s="4"/>
       <c r="CJ9" s="4"/>
       <c r="CK9" s="4"/>
-      <c r="CL9" s="18">
+      <c r="CL9" s="17">
         <v>0.79580136879184604</v>
       </c>
-      <c r="CM9" s="18">
+      <c r="CM9" s="17">
         <v>9.2420586802035895E-2</v>
       </c>
-      <c r="CN9" s="18"/>
-      <c r="CO9" s="18"/>
-      <c r="CP9" s="18"/>
-      <c r="CQ9" s="18"/>
+      <c r="CN9" s="17"/>
+      <c r="CO9" s="17"/>
+      <c r="CP9" s="17"/>
+      <c r="CQ9" s="17"/>
       <c r="CR9" s="4">
         <v>0.64025665779593199</v>
       </c>
@@ -2641,22 +2647,22 @@
       <c r="CU9" s="4"/>
       <c r="CV9" s="4"/>
       <c r="CW9" s="4"/>
-      <c r="CX9" s="18">
+      <c r="CX9" s="17">
         <v>3.30426319374104E-5</v>
       </c>
-      <c r="CY9" s="18">
+      <c r="CY9" s="17">
         <v>3.0672590360822999E-5</v>
       </c>
-      <c r="CZ9" s="18">
+      <c r="CZ9" s="17">
         <v>3.1223565111315499E-5</v>
       </c>
-      <c r="DA9" s="18">
+      <c r="DA9" s="17">
         <v>3.2199855629626898E-5</v>
       </c>
-      <c r="DB9" s="18">
+      <c r="DB9" s="17">
         <v>3.7930190074612202E-5</v>
       </c>
-      <c r="DC9" s="18">
+      <c r="DC9" s="17">
         <v>3.2515947740986598E-5</v>
       </c>
       <c r="DD9" s="4">
@@ -2669,16 +2675,16 @@
       <c r="DG9" s="4"/>
       <c r="DH9" s="4"/>
       <c r="DI9" s="4"/>
-      <c r="DJ9" s="19">
+      <c r="DJ9" s="18">
         <v>42618.702418981484</v>
       </c>
-      <c r="DK9" s="19">
+      <c r="DK9" s="18">
         <v>42618.744108796294</v>
       </c>
-      <c r="DL9" s="19"/>
-      <c r="DM9" s="19"/>
-      <c r="DN9" s="19"/>
-      <c r="DO9" s="19"/>
+      <c r="DL9" s="18"/>
+      <c r="DM9" s="18"/>
+      <c r="DN9" s="18"/>
+      <c r="DO9" s="18"/>
     </row>
     <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -2745,14 +2751,14 @@
     </row>
     <row r="11" spans="1:119" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2766,14 +2772,14 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="27" t="s">
+      <c r="U11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
       <c r="AA11" s="5" t="s">
         <v>33</v>
       </c>
@@ -2854,12 +2860,12 @@
     </row>
     <row r="12" spans="1:119" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2953,27 +2959,27 @@
       </c>
       <c r="B13" s="6">
         <f ca="1">O6+AA13-AJ13-U13</f>
-        <v>-8.5583010946971676</v>
+        <v>-8.3237400682670284</v>
       </c>
       <c r="C13" s="6">
         <f ca="1">P6+AB13-AK13-V13</f>
-        <v>-8.5872848996268267</v>
+        <v>-8.2309322034214816</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" ref="D13:G15" ca="1" si="7">Q6+AC13-AL13-W13</f>
-        <v>-8.7989310498324755</v>
+        <v>-8.3793712462317558</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-6.9638886388305785</v>
+        <v>-8.698301804140268</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.2191086019505306</v>
+        <v>-8.5529015809200075</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.6226951407657566</v>
+        <v>-7.420305698921549</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="3"/>
@@ -2990,51 +2996,51 @@
       <c r="T13" s="8"/>
       <c r="U13" s="6">
         <f ca="1">BT13-AP13</f>
-        <v>6.0547965369967116</v>
+        <v>6.6737842478452443</v>
       </c>
       <c r="V13" s="6">
         <f ca="1">BU13-AQ13</f>
-        <v>6.7603138312793583</v>
+        <v>6.7362107586355684</v>
       </c>
       <c r="W13" s="6">
         <f t="shared" ref="W13:Z15" ca="1" si="8">BV13-AR13</f>
-        <v>6.8457437204685441</v>
+        <v>6.3043885846912566</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.6892657639122604</v>
+        <v>7.2936042064001398</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4258419653221637</v>
+        <v>6.492959698870628</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5912248627411287</v>
+        <v>5.6507377286559333</v>
       </c>
       <c r="AA13" s="6">
         <f ca="1">$B$6*BN13/60*$B$7*(BB13-BH13)</f>
-        <v>0.10065002876450112</v>
+        <v>0.13850289872695903</v>
       </c>
       <c r="AB13" s="6">
         <f t="shared" ref="AB13:AF16" ca="1" si="9">$B$6*BO13/60*$B$7*(BC13-BI13)</f>
-        <v>2.1377491730024047E-2</v>
+        <v>4.7266074020418545E-3</v>
       </c>
       <c r="AC13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12427481923695494</v>
+        <v>0.10307015540071073</v>
       </c>
       <c r="AD13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4042246752494368E-2</v>
+        <v>0.15445024250961095</v>
       </c>
       <c r="AE13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17129910017363062</v>
+        <v>0.1796229568294789</v>
       </c>
       <c r="AF13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>7.1772669688806925E-2</v>
+        <v>0.13672115169820281</v>
       </c>
       <c r="AG13" s="14"/>
       <c r="AH13" s="9">
@@ -3044,1117 +3050,1117 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="4">
         <f ca="1">AJ6+RAND()</f>
-        <v>33.782264410698779</v>
+        <v>32.966568543382564</v>
       </c>
       <c r="AK13" s="4">
         <f t="shared" ref="AK13:BU16" ca="1" si="10">AK6+RAND()</f>
-        <v>33.075523677481655</v>
+        <v>32.726623169592116</v>
       </c>
       <c r="AL13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.295131441769598</v>
+        <v>33.395722110109922</v>
       </c>
       <c r="AM13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.632539535132992</v>
+        <v>32.823022253711919</v>
       </c>
       <c r="AN13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.299255263296338</v>
+        <v>33.5742543653732</v>
       </c>
       <c r="AO13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.586373858828445</v>
+        <v>33.389420033078828</v>
       </c>
       <c r="AP13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.678019062212229</v>
+        <v>26.604108747137442</v>
       </c>
       <c r="AQ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.516239624986188</v>
+        <v>25.587196748838156</v>
       </c>
       <c r="AR13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.325952560763948</v>
+        <v>26.673653346697538</v>
       </c>
       <c r="AS13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.282127678970806</v>
+        <v>25.433940337235143</v>
       </c>
       <c r="AT13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.727153104985796</v>
+        <v>26.76272759604592</v>
       </c>
       <c r="AU13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.909324718462841</v>
+        <v>26.08826636848335</v>
       </c>
       <c r="AV13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.202381920353957</v>
+        <v>33.72997841315123</v>
       </c>
       <c r="AW13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.012421534728176</v>
+        <v>33.721571185448752</v>
       </c>
       <c r="AX13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.594798818146835</v>
+        <v>33.526684687741664</v>
       </c>
       <c r="AY13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.477402827355156</v>
+        <v>33.018798176197045</v>
       </c>
       <c r="AZ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.740018448826568</v>
+        <v>33.352732914822184</v>
       </c>
       <c r="BA13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.17779476551533</v>
+        <v>33.489566501468097</v>
       </c>
       <c r="BB13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.600826121096333</v>
+        <v>48.528365253885717</v>
       </c>
       <c r="BC13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.161859203620402</v>
+        <v>48.454335480470931</v>
       </c>
       <c r="BD13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.411606683687353</v>
+        <v>48.703475181087477</v>
       </c>
       <c r="BE13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.647447626960641</v>
+        <v>48.535230583358626</v>
       </c>
       <c r="BF13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.136680451725283</v>
+        <v>48.371474843692546</v>
       </c>
       <c r="BG13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.301931905983032</v>
+        <v>47.806423045102591</v>
       </c>
       <c r="BH13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>45.366804424795404</v>
+        <v>45.64958734590919</v>
       </c>
       <c r="BI13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>45.533309999047809</v>
+        <v>45.49022302976303</v>
       </c>
       <c r="BJ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>44.661017506353566</v>
+        <v>45.231314395470697</v>
       </c>
       <c r="BK13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>44.578328291835525</v>
+        <v>44.928797738691131</v>
       </c>
       <c r="BL13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>44.333874846606562</v>
+        <v>44.656606022142022</v>
       </c>
       <c r="BM13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>44.797134575840801</v>
+        <v>44.673548383552415</v>
       </c>
       <c r="BN13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58982751976971848</v>
+        <v>0.91181085717869148</v>
       </c>
       <c r="BO13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15413266711208862</v>
+        <v>3.0221005692013019E-2</v>
       </c>
       <c r="BP13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62796827187582771</v>
+        <v>0.56258372006764656</v>
       </c>
       <c r="BQ13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43800253815598433</v>
+        <v>0.81164254216017906</v>
       </c>
       <c r="BR13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85369947393777612</v>
+        <v>0.91637327716475536</v>
       </c>
       <c r="BS13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38810590356073149</v>
+        <v>0.82707852663284143</v>
       </c>
       <c r="BT13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.732815599208941</v>
+        <v>33.277892994982686</v>
       </c>
       <c r="BU13" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.276553456265546</v>
+        <v>32.323407507473725</v>
       </c>
       <c r="BV13" s="4">
         <f t="shared" ref="BV13:DI13" ca="1" si="11">BV6+RAND()</f>
-        <v>33.171696281232492</v>
+        <v>32.978041931388795</v>
       </c>
       <c r="BW13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>31.971393442883066</v>
+        <v>32.727544543635283</v>
       </c>
       <c r="BX13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>33.152995070307959</v>
+        <v>33.255687294916548</v>
       </c>
       <c r="BY13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>32.50054958120397</v>
+        <v>31.739004097139283</v>
       </c>
       <c r="BZ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.58314798688327618</v>
+        <v>1.127734222945366</v>
       </c>
       <c r="CA13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.84788476827990578</v>
+        <v>1.5640029896919543</v>
       </c>
       <c r="CB13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3462812378970832</v>
+        <v>1.0527589216659603</v>
       </c>
       <c r="CC13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.59647116945059186</v>
+        <v>1.5110600300801171</v>
       </c>
       <c r="CD13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2108004839490039</v>
+        <v>1.5081982568098917</v>
       </c>
       <c r="CE13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.62174735606054565</v>
+        <v>1.0457201034637893</v>
       </c>
       <c r="CF13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.7123652304037984</v>
+        <v>0.29941156282378978</v>
       </c>
       <c r="CG13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5642813031352012</v>
+        <v>1.8496183125080643</v>
       </c>
       <c r="CH13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.9309069349085033</v>
+        <v>1.5031716326155891</v>
       </c>
       <c r="CI13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.2230004843324171</v>
+        <v>1.3775394025082182</v>
       </c>
       <c r="CJ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5096639951717832</v>
+        <v>1.9054882891816876</v>
       </c>
       <c r="CK13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5824595328105646</v>
+        <v>0.97272931757424597</v>
       </c>
       <c r="CL13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86999320754707143</v>
+        <v>0.91175956732300412</v>
       </c>
       <c r="CM13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.96504080226365108</v>
+        <v>0.75195884016179193</v>
       </c>
       <c r="CN13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.87724270495200862</v>
+        <v>0.46660198819536441</v>
       </c>
       <c r="CO13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89956692909982605</v>
+        <v>0.88126151241072326</v>
       </c>
       <c r="CP13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37713732342493494</v>
+        <v>1.0923778667889563</v>
       </c>
       <c r="CQ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.53202762542250071</v>
+        <v>0.88731457623939125</v>
       </c>
       <c r="CR13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28271264496257026</v>
+        <v>1.0535558945437467</v>
       </c>
       <c r="CS13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28317946750059442</v>
+        <v>1.0748877274747579</v>
       </c>
       <c r="CT13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.19905077812838373</v>
+        <v>0.24882601396566234</v>
       </c>
       <c r="CU13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.0005738464361209</v>
+        <v>0.46616714473702225</v>
       </c>
       <c r="CV13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.71142324054225103</v>
+        <v>0.45902157425582923</v>
       </c>
       <c r="CW13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.21053089137445186</v>
+        <v>0.11977139281455255</v>
       </c>
       <c r="CX13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44075875800810921</v>
+        <v>0.31522041832631592</v>
       </c>
       <c r="CY13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28086744959250176</v>
+        <v>0.16317676003069082</v>
       </c>
       <c r="CZ13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.80088324650549536</v>
+        <v>0.27270365547781555</v>
       </c>
       <c r="DA13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.59824497090335826</v>
+        <v>0.78623220241251379</v>
       </c>
       <c r="DB13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.9639965517291559E-2</v>
+        <v>0.5456463319609447</v>
       </c>
       <c r="DC13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1794646880650512E-2</v>
+        <v>0.13926639437834271</v>
       </c>
       <c r="DD13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.173951230758884</v>
+        <v>1.2072245052670807</v>
       </c>
       <c r="DE13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61861299941730363</v>
+        <v>0.68707240042061324</v>
       </c>
       <c r="DF13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>0.66359883433673739</v>
+        <v>1.0045002476148197</v>
       </c>
       <c r="DG13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4238672284391978</v>
+        <v>1.1383663139198443</v>
       </c>
       <c r="DH13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4618743504110046</v>
+        <v>0.82139167998975426</v>
       </c>
       <c r="DI13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5271960503288495</v>
+        <v>0.7747159959081622</v>
       </c>
     </row>
     <row r="14" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <f t="shared" ref="A14:A15" si="12">AH14</f>
         <v>302</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" ref="B14:C14" ca="1" si="13">O7+AA14-AJ14-U14</f>
-        <v>-8.1672947753993732</v>
+        <v>-8.5106498810233262</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>-8.0937624658671474</v>
+        <v>-8.1599836925038574</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.0837010037653982</v>
+        <v>-7.9570293896637168</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.5383971733074802</v>
+        <v>-8.3828208996873208</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.0802028009777054</v>
+        <v>-8.1231319745205504</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-7.7879845628280115</v>
+        <v>-7.7857264608587435</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" ref="U14:U16" ca="1" si="14">BT14-AP14</f>
-        <v>6.7956106850044158</v>
+        <v>6.9674231909855422</v>
       </c>
       <c r="V14" s="6">
         <f t="shared" ref="V14:V16" ca="1" si="15">BU14-AQ14</f>
-        <v>6.5488932820191614</v>
+        <v>6.6229005036792046</v>
       </c>
       <c r="W14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.3106846587269985</v>
+        <v>6.7129479352701154</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3957067112926609</v>
+        <v>7.0350712663559314</v>
       </c>
       <c r="Y14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.9376910260693698</v>
+        <v>6.8096962204448879</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4298736921165833</v>
+        <v>6.215424433947053</v>
       </c>
       <c r="AA14" s="6">
         <f t="shared" ref="AA14:AA16" ca="1" si="16">$B$6*BN14/60*$B$7*(BB14-BH14)</f>
-        <v>0.13083833005046361</v>
+        <v>4.657643459635389E-2</v>
       </c>
       <c r="AB14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>7.0073364022829127E-2</v>
+        <v>0.16391418857909026</v>
       </c>
       <c r="AC14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10100361822438744</v>
+        <v>7.524186731225178E-3</v>
       </c>
       <c r="AD14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8291126471157546E-2</v>
+        <v>3.4817856719211247E-2</v>
       </c>
       <c r="AE14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18650865551815246</v>
+        <v>4.3157216135234412E-2</v>
       </c>
       <c r="AF14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13113973619836805</v>
-      </c>
-      <c r="AH14" s="16">
+        <v>0.12291935950250622</v>
+      </c>
+      <c r="AH14" s="15">
         <f t="shared" ref="AH14:AH16" si="17">AH7</f>
         <v>302</v>
       </c>
       <c r="AJ14" s="4">
         <f t="shared" ref="AJ14:AY16" ca="1" si="18">AJ7+RAND()</f>
-        <v>37.589646229975848</v>
+        <v>37.676926934164563</v>
       </c>
       <c r="AK14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.504628235370355</v>
+        <v>37.590683064903281</v>
       </c>
       <c r="AL14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.854238264838187</v>
+        <v>37.231823942700224</v>
       </c>
       <c r="AM14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.21748752882803</v>
+        <v>37.379073430392651</v>
       </c>
       <c r="AN14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.434337031798009</v>
+        <v>37.461909571582417</v>
       </c>
       <c r="AO14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>37.596014162441755</v>
+        <v>37.79998494194615</v>
       </c>
       <c r="AP14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.548431209145388</v>
+        <v>25.95598172665246</v>
       </c>
       <c r="AQ14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.062318875797931</v>
+        <v>25.375953333008521</v>
       </c>
       <c r="AR14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.825040175772919</v>
+        <v>26.218799296626678</v>
       </c>
       <c r="AS14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>24.648766675029997</v>
+        <v>24.783086039352273</v>
       </c>
       <c r="AT14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>26.054831764880085</v>
+        <v>25.423492999860603</v>
       </c>
       <c r="AU14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>25.584551707679655</v>
+        <v>25.213627284191816</v>
       </c>
       <c r="AV14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.077978097185692</v>
+        <v>33.878053835259962</v>
       </c>
       <c r="AW14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.546708250550545</v>
+        <v>32.991632599160411</v>
       </c>
       <c r="AX14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.156480370121926</v>
+        <v>33.633557574475127</v>
       </c>
       <c r="AY14" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>33.623750366525556</v>
+        <v>33.169052062589323</v>
       </c>
       <c r="AZ14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.1621867750031</v>
+        <v>33.042856458046387</v>
       </c>
       <c r="BA14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.594879216592417</v>
+        <v>33.553098227336918</v>
       </c>
       <c r="BB14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.299099482281378</v>
+        <v>50.05537461118481</v>
       </c>
       <c r="BC14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.760428030682306</v>
+        <v>50.46147440882033</v>
       </c>
       <c r="BD14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.6433764846198</v>
+        <v>50.383175900477312</v>
       </c>
       <c r="BE14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.87401695771144</v>
+        <v>49.702446617119961</v>
       </c>
       <c r="BF14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>50.372193973582675</v>
+        <v>49.886319061080535</v>
       </c>
       <c r="BG14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>50.33334104782886</v>
+        <v>50.382970174928246</v>
       </c>
       <c r="BH14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.33940889925077</v>
+        <v>45.380647673140878</v>
       </c>
       <c r="BI14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.930835101283165</v>
+        <v>46.218792074222961</v>
       </c>
       <c r="BJ14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.076875920990695</v>
+        <v>46.755562495126156</v>
       </c>
       <c r="BK14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.752101812344087</v>
+        <v>45.924445680649065</v>
       </c>
       <c r="BL14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.619586103628471</v>
+        <v>46.722244953148717</v>
       </c>
       <c r="BM14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.995989018760795</v>
+        <v>46.094957210010634</v>
       </c>
       <c r="BN14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.83780459746326219</v>
+        <v>0.18882698125042233</v>
       </c>
       <c r="BO14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46933513059783649</v>
+        <v>0.73220061606096976</v>
       </c>
       <c r="BP14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53672112874358235</v>
+        <v>3.9309056912252498E-2</v>
       </c>
       <c r="BQ14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47527558463190683</v>
+        <v>0.17466023093769509</v>
       </c>
       <c r="BR14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.94193267795339541</v>
+        <v>0.25850017017659638</v>
       </c>
       <c r="BS14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.74470855701637562</v>
+        <v>0.54327316846953788</v>
       </c>
       <c r="BT14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.344041894149804</v>
+        <v>32.923404917638003</v>
       </c>
       <c r="BU14" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>31.611212157817093</v>
+        <v>31.998853836687726</v>
       </c>
       <c r="BV14" s="4">
         <f t="shared" ref="BV14:DI14" ca="1" si="19">BV7+RAND()</f>
-        <v>32.135724834499918</v>
+        <v>32.931747231896793</v>
       </c>
       <c r="BW14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>32.044473386322657</v>
+        <v>31.818157305708205</v>
       </c>
       <c r="BX14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>31.992522790949455</v>
+        <v>32.233189220305491</v>
       </c>
       <c r="BY14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>32.014425399796238</v>
+        <v>31.429051718138869</v>
       </c>
       <c r="BZ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.1394898781909861</v>
+        <v>1.1286117643535736</v>
       </c>
       <c r="CA14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.62141536126111918</v>
+        <v>0.59541825685882011</v>
       </c>
       <c r="CB14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.27638141954624</v>
+        <v>1.0648925599109689</v>
       </c>
       <c r="CC14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5512052578539475</v>
+        <v>0.82006366050223967</v>
       </c>
       <c r="CD14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.96891804827335581</v>
+        <v>0.65994122423701385</v>
       </c>
       <c r="CE14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.1509177777433535</v>
+        <v>1.1326910634089662</v>
       </c>
       <c r="CF14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.57160613798927973</v>
+        <v>0.43179784102934415</v>
       </c>
       <c r="CG14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3443646238655202</v>
+        <v>1.8704927670158837</v>
       </c>
       <c r="CH14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9417458769282478</v>
+        <v>1.0648442796062403</v>
       </c>
       <c r="CI14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.7746844623971318</v>
+        <v>1.1258500296258642</v>
       </c>
       <c r="CJ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9479227144670255</v>
+        <v>1.6614310304849473</v>
       </c>
       <c r="CK14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0266722837971618</v>
+        <v>1.6336928691141837</v>
       </c>
       <c r="CL14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4378667525818627</v>
+        <v>0.59983409079548455</v>
       </c>
       <c r="CM14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.51132553557960492</v>
+        <v>0.16852510560421247</v>
       </c>
       <c r="CN14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.79548893479467142</v>
+        <v>0.94474430864569825</v>
       </c>
       <c r="CO14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.84997876337073286</v>
+        <v>0.38819895588170295</v>
       </c>
       <c r="CP14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.45245153781930786</v>
+        <v>0.86245786747242581</v>
       </c>
       <c r="CQ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>8.6827653450201103E-2</v>
+        <v>0.15678462284914968</v>
       </c>
       <c r="CR14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.82230729982779649</v>
+        <v>1.2645632625215348</v>
       </c>
       <c r="CS14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.70559130884581855</v>
+        <v>0.17080859452138092</v>
       </c>
       <c r="CT14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.33711149420664144</v>
+        <v>0.74503657506999643</v>
       </c>
       <c r="CU14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.24270186901161134</v>
+        <v>0.83417141902197933</v>
       </c>
       <c r="CV14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.11743879618753568</v>
+        <v>0.11229326731285534</v>
       </c>
       <c r="CW14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.83652691268814694</v>
+        <v>0.3892283405670538</v>
       </c>
       <c r="CX14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.46781254979000236</v>
+        <v>0.40837760855047861</v>
       </c>
       <c r="CY14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.1853530411091984</v>
+        <v>0.81698337795972364</v>
       </c>
       <c r="CZ14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.44249775182346274</v>
+        <v>0.93633170682779998</v>
       </c>
       <c r="DA14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.18242661021176718</v>
+        <v>0.27294853928946949</v>
       </c>
       <c r="DB14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.81255927396566641</v>
+        <v>0.65955824917354156</v>
       </c>
       <c r="DC14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.43542614380846162</v>
+        <v>0.87388275071012833</v>
       </c>
       <c r="DD14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>0.89884120656073074</v>
+        <v>0.94219010185420027</v>
       </c>
       <c r="DE14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.2587086379712917</v>
+        <v>1.0795960421086188</v>
       </c>
       <c r="DF14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5931844595703697</v>
+        <v>0.83112556090970602</v>
       </c>
       <c r="DG14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5110783119422875</v>
+        <v>1.2394606864785216</v>
       </c>
       <c r="DH14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4008549694188188</v>
+        <v>0.76521704654640665</v>
       </c>
       <c r="DI14" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>1.1220446465485112</v>
+        <v>1.0880588050380893</v>
       </c>
     </row>
     <row r="15" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <f t="shared" si="12"/>
         <v>327</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" ref="B15:C15" ca="1" si="20">O8+AA15-AJ15-U15</f>
-        <v>-8.7055926764260825</v>
+        <v>-8.37963567998613</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>-8.8290704709977916</v>
+        <v>-8.0347368378342949</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-9.7062649330360955</v>
+        <v>-9.5232262127747624</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.2316235369272164</v>
+        <v>-8.5241804948560045</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-9.5631736791418547</v>
+        <v>-8.8547589605079331</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>-8.9120230245111571</v>
+        <v>-10.165996821353605</v>
       </c>
       <c r="U15" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>6.8601251888906241</v>
+        <v>6.7401960303679473</v>
       </c>
       <c r="V15" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>7.4570697207944718</v>
+        <v>6.7334622742404022</v>
       </c>
       <c r="W15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>7.7409615851130411</v>
+        <v>7.4013950884540556</v>
       </c>
       <c r="X15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7015461066872604</v>
+        <v>7.0298135859927342</v>
       </c>
       <c r="Y15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>7.050270150328771</v>
+        <v>7.2407422101984089</v>
       </c>
       <c r="Z15" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9275594759902148</v>
+        <v>8.0332488868465397</v>
       </c>
       <c r="AA15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1991343692785129E-2</v>
+        <v>0.10054195204525029</v>
       </c>
       <c r="AB15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2307692668961183E-2</v>
+        <v>0.14421906425393069</v>
       </c>
       <c r="AC15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>8.6931923160158533E-2</v>
+        <v>0.16438738327421587</v>
       </c>
       <c r="AD15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.16458650992061757</v>
+        <v>0.25783392754561496</v>
       </c>
       <c r="AE15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>8.4060120915636263E-2</v>
+        <v>7.0499861421701004E-2</v>
       </c>
       <c r="AF15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11175562239419805</v>
-      </c>
-      <c r="AH15" s="16">
+        <v>0.1760606682421435</v>
+      </c>
+      <c r="AH15" s="15">
         <f t="shared" si="17"/>
         <v>327</v>
       </c>
       <c r="AJ15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>42.644549085147673</v>
+        <v>42.457071855582861</v>
       </c>
       <c r="AK15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.108103780322779</v>
+        <v>42.119288965298324</v>
       </c>
       <c r="AL15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.554378940401129</v>
+        <v>42.788362176912841</v>
       </c>
       <c r="AM15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.037085085192736</v>
+        <v>42.094621981441044</v>
       </c>
       <c r="AN15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.62635838940691</v>
+        <v>41.713911351409415</v>
       </c>
       <c r="AO15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>42.00808394157923</v>
+        <v>42.220673373413298</v>
       </c>
       <c r="AP15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.536955021392092</v>
+        <v>25.727873247002442</v>
       </c>
       <c r="AQ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>24.685884892062099</v>
+        <v>24.768652788126051</v>
       </c>
       <c r="AR15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.158806797902272</v>
+        <v>25.583534004789168</v>
       </c>
       <c r="AS15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>24.828351313459844</v>
+        <v>25.069707374684</v>
       </c>
       <c r="AT15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.042460954590048</v>
+        <v>25.307871836788355</v>
       </c>
       <c r="AU15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.299023150381501</v>
+        <v>24.795535517928581</v>
       </c>
       <c r="AV15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.411374075030018</v>
+        <v>33.740897628303394</v>
       </c>
       <c r="AW15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.442520569969886</v>
+        <v>33.074397067806096</v>
       </c>
       <c r="AX15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.807583957299634</v>
+        <v>33.355878066795512</v>
       </c>
       <c r="AY15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.92506289039175</v>
+        <v>33.138086172436772</v>
       </c>
       <c r="AZ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.177499887686018</v>
+        <v>33.457706848955276</v>
       </c>
       <c r="BA15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.178554025904695</v>
+        <v>33.544584081020105</v>
       </c>
       <c r="BB15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>51.659538603776141</v>
+        <v>51.386861009288481</v>
       </c>
       <c r="BC15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.461939204665114</v>
+        <v>52.167698877642088</v>
       </c>
       <c r="BD15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.471105902995625</v>
+        <v>52.010120661472115</v>
       </c>
       <c r="BE15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.751388600481668</v>
+        <v>53.077424956887981</v>
       </c>
       <c r="BF15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.751101512495666</v>
+        <v>52.76705735044424</v>
       </c>
       <c r="BG15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>52.646543027409749</v>
+        <v>53.336241782871475</v>
       </c>
       <c r="BH15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.189091654070886</v>
+        <v>47.611873675661627</v>
       </c>
       <c r="BI15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.874353296163456</v>
+        <v>48.009405241193228</v>
       </c>
       <c r="BJ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.525726361226219</v>
+        <v>48.863435886254535</v>
       </c>
       <c r="BK15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.117923244609045</v>
+        <v>48.29372458018041</v>
       </c>
       <c r="BL15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>48.771357329244744</v>
+        <v>49.008408253931783</v>
       </c>
       <c r="BM15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>49.120319089123207</v>
+        <v>49.218951585389682</v>
       </c>
       <c r="BN15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4477510894998229</v>
+        <v>0.5047610925006053</v>
       </c>
       <c r="BO15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32914966477030699</v>
+        <v>0.65729688976517942</v>
       </c>
       <c r="BP15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.41758467947647204</v>
+        <v>0.99007775074731652</v>
       </c>
       <c r="BQ15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.67319731228875224</v>
+        <v>1.0214806674586614</v>
       </c>
       <c r="BR15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.40030306119203052</v>
+        <v>0.35547620781420375</v>
       </c>
       <c r="BS15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.60063903021201615</v>
+        <v>0.81041024965963315</v>
       </c>
       <c r="BT15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.397080210282716</v>
+        <v>32.46806927737039</v>
       </c>
       <c r="BU15" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>32.14295461285657</v>
+        <v>31.502115062366453</v>
       </c>
       <c r="BV15" s="4">
         <f t="shared" ref="BV15:DI15" ca="1" si="21">BV8+RAND()</f>
-        <v>32.899768383015314</v>
+        <v>32.984929093243224</v>
       </c>
       <c r="BW15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>31.529897420147105</v>
+        <v>32.099520960676735</v>
       </c>
       <c r="BX15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>33.092731104918819</v>
+        <v>32.548614046986764</v>
       </c>
       <c r="BY15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>32.226582626371716</v>
+        <v>32.828784404775121</v>
       </c>
       <c r="BZ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.29276899722227534</v>
+        <v>0.47401660349254193</v>
       </c>
       <c r="CA15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.4720683914913293</v>
+        <v>0.75762055174996212</v>
       </c>
       <c r="CB15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.0780378802180968</v>
+        <v>1.3844346376690817</v>
       </c>
       <c r="CC15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.1818090221197406</v>
+        <v>1.1959210095140822</v>
       </c>
       <c r="CD15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.7854238844891106</v>
+        <v>1.553552644089254</v>
       </c>
       <c r="CE15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.1452087295571842</v>
+        <v>0.82681940873172</v>
       </c>
       <c r="CF15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.32381081458438971</v>
+        <v>0.66994794552522863</v>
       </c>
       <c r="CG15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.0273805784795833</v>
+        <v>1.0806428901669956</v>
       </c>
       <c r="CH15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.4803212661490548</v>
+        <v>1.5766854223425679</v>
       </c>
       <c r="CI15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.6070596578313352</v>
+        <v>1.6020927452585469</v>
       </c>
       <c r="CJ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.6451629735978717</v>
+        <v>1.0687866689626699</v>
       </c>
       <c r="CK15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.96593297564546754</v>
+        <v>1.4014772755247771</v>
       </c>
       <c r="CL15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.2179865420696088</v>
+        <v>1.5143720379077465</v>
       </c>
       <c r="CM15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.45492485928571208</v>
+        <v>0.11640115466727313</v>
       </c>
       <c r="CN15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.69339906076134605</v>
+        <v>0.96706107125576068</v>
       </c>
       <c r="CO15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.89200253423085529</v>
+        <v>0.32268958989821334</v>
       </c>
       <c r="CP15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.97410667053269284</v>
+        <v>0.12671183079407514</v>
       </c>
       <c r="CQ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.0450055607882085</v>
+        <v>0.76829969704263856</v>
       </c>
       <c r="CR15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.3081203057911566</v>
+        <v>1.4495020422530827</v>
       </c>
       <c r="CS15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.57234015835685825</v>
+        <v>0.89730187136772832</v>
       </c>
       <c r="CT15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.85462136170560909</v>
+        <v>0.4979243613758127</v>
       </c>
       <c r="CU15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.85073335925745963</v>
+        <v>0.616826968793171</v>
       </c>
       <c r="CV15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.19580584582046912</v>
+        <v>0.54771829506572489</v>
       </c>
       <c r="CW15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.0572070902145065</v>
+        <v>0.87356781345041967</v>
       </c>
       <c r="CX15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.59197110123039476</v>
+        <v>0.84302085016819717</v>
       </c>
       <c r="CY15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.59326749965740633</v>
+        <v>0.14440378096327555</v>
       </c>
       <c r="CZ15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.11863018507524727</v>
+        <v>0.18840908140691659</v>
       </c>
       <c r="DA15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.54577786674348783</v>
+        <v>0.71349732446501779</v>
       </c>
       <c r="DB15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.96832780440912303</v>
+        <v>0.53401989856786081</v>
       </c>
       <c r="DC15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.79463967303817618</v>
+        <v>0.9582125066937327</v>
       </c>
       <c r="DD15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.0663364264229722</v>
+        <v>0.97266866656554374</v>
       </c>
       <c r="DE15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.9885089092973437</v>
+        <v>1.1071311583394086</v>
       </c>
       <c r="DF15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.88061610217586139</v>
+        <v>1.3712392665106181</v>
       </c>
       <c r="DG15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.426630375355459</v>
+        <v>0.82683706132576573</v>
       </c>
       <c r="DH15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>0.57691376271035411</v>
+        <v>0.61341478985570908</v>
       </c>
       <c r="DI15" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>1.2862591750409482</v>
+        <v>0.90315213293229524</v>
       </c>
     </row>
     <row r="16" spans="1:119" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <f t="shared" ref="A16" si="22">AH16</f>
         <v>352</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" ref="B16" ca="1" si="23">O9+AA16-AJ16-U16</f>
-        <v>-10.211900402200946</v>
+        <v>-9.8280285466162205</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" ref="C16" ca="1" si="24">P9+AB16-AK16-V16</f>
-        <v>-10.323281428683689</v>
+        <v>-10.0489308462415</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -4162,11 +4168,11 @@
       <c r="G16" s="6"/>
       <c r="U16" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>7.3979840452109897</v>
+        <v>7.3238859660944406</v>
       </c>
       <c r="V16" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>8.0095514227650106</v>
+        <v>7.7419577242868165</v>
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -4174,27 +4180,27 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.10678017993781701</v>
+        <v>0.24234950191846152</v>
       </c>
       <c r="AB16" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1121588879466264</v>
+        <v>0.16536113931805788</v>
       </c>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
-      <c r="AH16" s="16">
+      <c r="AH16" s="15">
         <f t="shared" si="17"/>
         <v>352</v>
       </c>
       <c r="AJ16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>47.160921020227391</v>
+        <v>46.986716565739862</v>
       </c>
       <c r="AK16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>46.386597998690625</v>
+        <v>46.433043366098062</v>
       </c>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
@@ -4202,11 +4208,11 @@
       <c r="AO16" s="4"/>
       <c r="AP16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>26.162279635542767</v>
+        <v>26.353717215132956</v>
       </c>
       <c r="AQ16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>25.456048464666477</v>
+        <v>25.996959356509283</v>
       </c>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
@@ -4214,11 +4220,11 @@
       <c r="AU16" s="4"/>
       <c r="AV16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.1689657610643</v>
+        <v>33.626546305625872</v>
       </c>
       <c r="AW16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.397494382296003</v>
+        <v>33.301674232323009</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -4226,11 +4232,11 @@
       <c r="BA16" s="4"/>
       <c r="BB16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>54.645723032317669</v>
+        <v>55.275624152977386</v>
       </c>
       <c r="BC16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>55.650952001826333</v>
+        <v>56.092215377023138</v>
       </c>
       <c r="BD16" s="4"/>
       <c r="BE16" s="4"/>
@@ -4238,11 +4244,11 @@
       <c r="BG16" s="4"/>
       <c r="BH16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>50.436590473799221</v>
+        <v>50.322512143828561</v>
       </c>
       <c r="BI16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>51.69599727001836</v>
+        <v>51.053361836198199</v>
       </c>
       <c r="BJ16" s="4"/>
       <c r="BK16" s="4"/>
@@ -4250,1042 +4256,2002 @@
       <c r="BM16" s="4"/>
       <c r="BN16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48078632070284949</v>
+        <v>0.92729525999840179</v>
       </c>
       <c r="BO16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53746010816043976</v>
+        <v>0.62195043805770567</v>
       </c>
       <c r="BP16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10437866807962926</v>
+        <v>4.9670274896306044E-2</v>
       </c>
       <c r="BQ16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.90531209364083953</v>
+        <v>0.35743830578006242</v>
       </c>
       <c r="BR16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.67526235391826461</v>
+        <v>0.69903434268829312</v>
       </c>
       <c r="BS16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26309199304005848</v>
+        <v>0.73428391223898415</v>
       </c>
       <c r="BT16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.560263680753756</v>
+        <v>33.677603181227397</v>
       </c>
       <c r="BU16" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>33.465599887431488</v>
+        <v>33.738917080796099</v>
       </c>
       <c r="BV16" s="4">
         <f t="shared" ref="BV16:DI16" ca="1" si="25">BV9+RAND()</f>
-        <v>0.7670491543729141</v>
+        <v>0.26138598914261313</v>
       </c>
       <c r="BW16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>4.1705729017651683E-2</v>
+        <v>0.10098354500982787</v>
       </c>
       <c r="BX16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.27835652388248711</v>
+        <v>0.86643345070550204</v>
       </c>
       <c r="BY16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.47474756598543577</v>
+        <v>8.0475534977617613E-2</v>
       </c>
       <c r="BZ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.37346941089656305</v>
+        <v>1.002669239162618</v>
       </c>
       <c r="CA16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.62636697937120644</v>
+        <v>0.77315480309869822</v>
       </c>
       <c r="CB16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.51907143181119175</v>
+        <v>0.828363476523722</v>
       </c>
       <c r="CC16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>5.2258274529534465E-2</v>
+        <v>0.15573098375411942</v>
       </c>
       <c r="CD16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.34632423383245003</v>
+        <v>0.85840065085745731</v>
       </c>
       <c r="CE16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.36415846977854605</v>
+        <v>8.5146163168714928E-2</v>
       </c>
       <c r="CF16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.50402988112169511</v>
+        <v>0.94494594677336685</v>
       </c>
       <c r="CG16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.1202358171419382</v>
+        <v>1.3553081187372964</v>
       </c>
       <c r="CH16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.88887862272917828</v>
+        <v>3.4588917825684296E-2</v>
       </c>
       <c r="CI16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.44987746403387296</v>
+        <v>0.73552549065784678</v>
       </c>
       <c r="CJ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.92141321174398194</v>
+        <v>0.35273724476340496</v>
       </c>
       <c r="CK16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.48995759459574595</v>
+        <v>1.9502648320182225E-2</v>
       </c>
       <c r="CL16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.85951734597758866</v>
+        <v>1.6664361171732223</v>
       </c>
       <c r="CM16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.61409541992408367</v>
+        <v>0.56790768263663516</v>
       </c>
       <c r="CN16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>2.8319919387219672E-2</v>
+        <v>3.2988455542559247E-2</v>
       </c>
       <c r="CO16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.15578086561451276</v>
+        <v>0.23876718794855556</v>
       </c>
       <c r="CP16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.25716251807706569</v>
+        <v>0.21617015864229205</v>
       </c>
       <c r="CQ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.19644265679102613</v>
+        <v>0.7847219547279557</v>
       </c>
       <c r="CR16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.4983963568576604</v>
+        <v>0.88151415495311136</v>
       </c>
       <c r="CS16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.38230336527376146</v>
+        <v>0.40142440565554066</v>
       </c>
       <c r="CT16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.27929189187492265</v>
+        <v>3.3334869158666347E-2</v>
       </c>
       <c r="CU16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.74968412289138542</v>
+        <v>0.83850006909562236</v>
       </c>
       <c r="CV16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.28001108673148289</v>
+        <v>0.74654851714715209</v>
       </c>
       <c r="CW16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.54166937253032621</v>
+        <v>0.77269847725569585</v>
       </c>
       <c r="CX16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.37099892393367201</v>
+        <v>0.85711917258170156</v>
       </c>
       <c r="CY16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.14206623124921525</v>
+        <v>0.15507520003987729</v>
       </c>
       <c r="CZ16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>6.0958774330410193E-2</v>
+        <v>0.87011567967523717</v>
       </c>
       <c r="DA16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.24562587233469957</v>
+        <v>2.8831068509573614E-2</v>
       </c>
       <c r="DB16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.65811219483445826</v>
+        <v>0.48848409168295692</v>
       </c>
       <c r="DC16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.86851591850719811</v>
+        <v>0.55031867342963914</v>
       </c>
       <c r="DD16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.89453216036096883</v>
+        <v>1.1881157494491585</v>
       </c>
       <c r="DE16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>1.171237978822969</v>
+        <v>1.4675151876468371</v>
       </c>
       <c r="DF16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.38173693538122044</v>
+        <v>0.50126455024651073</v>
       </c>
       <c r="DG16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.48913134206094411</v>
+        <v>0.261224919122791</v>
       </c>
       <c r="DH16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.48905253347892708</v>
+        <v>0.989384203267479</v>
       </c>
       <c r="DI16" s="4">
         <f t="shared" ca="1" si="25"/>
-        <v>0.69244208513690519</v>
+        <v>0.13251663935400593</v>
       </c>
     </row>
-    <row r="18" spans="34:126" x14ac:dyDescent="0.25">
-      <c r="AH18">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AH17" s="33"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+      <c r="BR17" s="4"/>
+      <c r="BS17" s="4"/>
+      <c r="BT17" s="4"/>
+      <c r="BU17" s="4"/>
+      <c r="BV17" s="4"/>
+      <c r="BW17" s="4"/>
+      <c r="BX17" s="4"/>
+      <c r="BY17" s="4"/>
+      <c r="BZ17" s="4"/>
+      <c r="CA17" s="4"/>
+      <c r="CB17" s="4"/>
+      <c r="CC17" s="4"/>
+      <c r="CD17" s="4"/>
+      <c r="CE17" s="4"/>
+      <c r="CF17" s="4"/>
+      <c r="CG17" s="4"/>
+      <c r="CH17" s="4"/>
+      <c r="CI17" s="4"/>
+      <c r="CJ17" s="4"/>
+      <c r="CK17" s="4"/>
+      <c r="CL17" s="4"/>
+      <c r="CM17" s="4"/>
+      <c r="CN17" s="4"/>
+      <c r="CO17" s="4"/>
+      <c r="CP17" s="4"/>
+      <c r="CQ17" s="4"/>
+      <c r="CR17" s="4"/>
+      <c r="CS17" s="4"/>
+      <c r="CT17" s="4"/>
+      <c r="CU17" s="4"/>
+      <c r="CV17" s="4"/>
+      <c r="CW17" s="4"/>
+      <c r="CX17" s="4"/>
+      <c r="CY17" s="4"/>
+      <c r="CZ17" s="4"/>
+      <c r="DA17" s="4"/>
+      <c r="DB17" s="4"/>
+      <c r="DC17" s="4"/>
+      <c r="DD17" s="4"/>
+      <c r="DE17" s="4"/>
+      <c r="DF17" s="4"/>
+      <c r="DG17" s="4"/>
+      <c r="DH17" s="4"/>
+      <c r="DI17" s="4"/>
+    </row>
+    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BS18" s="4"/>
+      <c r="BT18" s="4"/>
+      <c r="BU18" s="4"/>
+      <c r="BV18" s="4"/>
+      <c r="BW18" s="4"/>
+      <c r="BX18" s="4"/>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="4"/>
+      <c r="CA18" s="4"/>
+      <c r="CB18" s="4"/>
+      <c r="CC18" s="4"/>
+      <c r="CD18" s="4"/>
+      <c r="CE18" s="4"/>
+      <c r="CF18" s="4"/>
+      <c r="CG18" s="4"/>
+      <c r="CH18" s="4"/>
+      <c r="CI18" s="4"/>
+      <c r="CJ18" s="4"/>
+      <c r="CK18" s="4"/>
+      <c r="CL18" s="4"/>
+      <c r="CM18" s="4"/>
+      <c r="CN18" s="4"/>
+      <c r="CO18" s="4"/>
+      <c r="CP18" s="4"/>
+      <c r="CQ18" s="4"/>
+      <c r="CR18" s="4"/>
+      <c r="CS18" s="4"/>
+      <c r="CT18" s="4"/>
+      <c r="CU18" s="4"/>
+      <c r="CV18" s="4"/>
+      <c r="CW18" s="4"/>
+      <c r="CX18" s="4"/>
+      <c r="CY18" s="4"/>
+      <c r="CZ18" s="4"/>
+      <c r="DA18" s="4"/>
+      <c r="DB18" s="4"/>
+      <c r="DC18" s="4"/>
+      <c r="DD18" s="4"/>
+      <c r="DE18" s="4"/>
+      <c r="DF18" s="4"/>
+      <c r="DG18" s="4"/>
+      <c r="DH18" s="4"/>
+      <c r="DI18" s="4"/>
+    </row>
+    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="AI19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="AH20">
         <v>100</v>
       </c>
-      <c r="AI18">
+      <c r="AI20" s="4">
         <v>7.7</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ20" s="4">
         <v>7</v>
       </c>
-      <c r="AK18">
+      <c r="AK20" s="4">
         <v>6.7</v>
       </c>
-      <c r="AL18">
+      <c r="AL20" s="4">
         <v>6.9</v>
       </c>
-      <c r="AM18">
+      <c r="AM20" s="4">
         <v>6.7</v>
       </c>
-      <c r="AN18">
+      <c r="AN20" s="4">
         <v>6.8</v>
       </c>
-      <c r="AO18">
+      <c r="AO20" s="4">
         <v>6.6</v>
       </c>
-      <c r="AP18">
+      <c r="AP20" s="4">
         <v>23.784906725308598</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ20" s="4">
         <v>22.9998115462963</v>
       </c>
-      <c r="AR18">
+      <c r="AR20" s="4">
         <v>25.553535709876499</v>
       </c>
-      <c r="AS18">
+      <c r="AS20" s="4">
         <v>23.338497712963001</v>
       </c>
-      <c r="AT18">
+      <c r="AT20" s="4">
         <v>25.5651691419753</v>
       </c>
-      <c r="AU18">
+      <c r="AU20" s="4">
         <v>23.310550368421101</v>
       </c>
-      <c r="AV18">
+      <c r="AV20" s="4">
         <v>32.995276450617297</v>
       </c>
-      <c r="AW18">
+      <c r="AW20" s="4">
         <v>32.981614216049401</v>
       </c>
-      <c r="AX18">
+      <c r="AX20" s="4">
         <v>33.015500246913597</v>
       </c>
-      <c r="AY18">
+      <c r="AY20" s="4">
         <v>32.985732842592597</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ20" s="4">
         <v>33.013912416666699</v>
       </c>
-      <c r="BA18">
+      <c r="BA20" s="4">
         <v>32.985560919504699</v>
       </c>
-      <c r="BB18">
+      <c r="BB20" s="4">
         <v>42.541453216049398</v>
       </c>
-      <c r="BC18">
+      <c r="BC20" s="4">
         <v>44.556411111111103</v>
       </c>
-      <c r="BD18">
+      <c r="BD20" s="4">
         <v>43.8835156111111</v>
       </c>
-      <c r="BE18">
+      <c r="BE20" s="4">
         <v>44.445387354938298</v>
       </c>
-      <c r="BF18">
+      <c r="BF20" s="4">
         <v>44.328773021604903</v>
       </c>
-      <c r="BG18">
+      <c r="BG20" s="4">
         <v>44.600339600619201</v>
       </c>
-      <c r="BH18">
+      <c r="BH20" s="4">
         <v>38.576123339506204</v>
       </c>
-      <c r="BI18">
+      <c r="BI20" s="4">
         <v>41.0557772314815</v>
       </c>
-      <c r="BJ18">
+      <c r="BJ20" s="4">
         <v>41.708798620370402</v>
       </c>
-      <c r="BK18">
+      <c r="BK20" s="4">
         <v>42.023261895061701</v>
       </c>
-      <c r="BL18">
+      <c r="BL20" s="4">
         <v>42.151610972222201</v>
       </c>
-      <c r="BM18">
+      <c r="BM20" s="4">
         <v>42.314435315789503</v>
       </c>
-      <c r="BN18">
+      <c r="BN20" s="4">
         <v>2.99763888888889E-2</v>
       </c>
-      <c r="BO18">
+      <c r="BO20" s="4">
         <v>2.99736111111111E-2</v>
       </c>
-      <c r="BP18">
+      <c r="BP20" s="4">
         <v>2.9974845679012301E-2</v>
       </c>
-      <c r="BQ18">
+      <c r="BQ20" s="4">
         <v>2.9971913580246898E-2</v>
       </c>
-      <c r="BR18">
+      <c r="BR20" s="4">
         <v>2.9975308641975298E-2</v>
       </c>
-      <c r="BS18">
+      <c r="BS20" s="4">
         <v>2.9974303405572701E-2</v>
       </c>
-      <c r="BT18">
+      <c r="BT20" s="4">
         <v>23.808015354938298</v>
       </c>
-      <c r="BU18">
+      <c r="BU20" s="4">
         <v>23.023764731481499</v>
       </c>
-      <c r="BV18">
+      <c r="BV20" s="4">
         <v>25.580055311728401</v>
       </c>
-      <c r="BW18">
+      <c r="BW20" s="4">
         <v>23.367701253086398</v>
       </c>
-      <c r="BX18">
+      <c r="BX20" s="4">
         <v>25.596201416666698</v>
       </c>
-      <c r="BY18">
+      <c r="BY20" s="4">
         <v>23.342125188854499</v>
       </c>
-      <c r="BZ18">
+      <c r="BZ20" s="4">
         <v>2.13032546399671</v>
       </c>
-      <c r="CA18">
+      <c r="CA20" s="4">
         <v>0.43788300679522801</v>
       </c>
-      <c r="CB18">
+      <c r="CB20" s="4">
         <v>0.56728024684615297</v>
       </c>
-      <c r="CC18">
+      <c r="CC20" s="4">
         <v>0.41156235960737497</v>
       </c>
-      <c r="CD18">
+      <c r="CD20" s="4">
         <v>0.44885964561421099</v>
       </c>
-      <c r="CE18">
+      <c r="CE20" s="4">
         <v>0.47603360166076297</v>
       </c>
-      <c r="CF18">
+      <c r="CF20" s="4">
         <v>1.9171795951044699</v>
       </c>
-      <c r="CG18">
+      <c r="CG20" s="4">
         <v>0.80327271110982401</v>
       </c>
-      <c r="CH18">
+      <c r="CH20" s="4">
         <v>0.86937332436671999</v>
       </c>
-      <c r="CI18">
+      <c r="CI20" s="4">
         <v>0.77847268873907105</v>
       </c>
-      <c r="CJ18">
+      <c r="CJ20" s="4">
         <v>0.80565817416449304</v>
       </c>
-      <c r="CK18">
+      <c r="CK20" s="4">
         <v>0.77173219838496598</v>
       </c>
-      <c r="CL18">
+      <c r="CL20" s="4">
         <v>2.8299232420666298</v>
       </c>
-      <c r="CM18">
+      <c r="CM20" s="4">
         <v>0.10419101297727699</v>
       </c>
-      <c r="CN18">
+      <c r="CN20" s="4">
         <v>0.319250615363668</v>
       </c>
-      <c r="CO18">
+      <c r="CO20" s="4">
         <v>0.22355539980160499</v>
       </c>
-      <c r="CP18">
+      <c r="CP20" s="4">
         <v>0.147688817376564</v>
       </c>
-      <c r="CQ18">
+      <c r="CQ20" s="4">
         <v>0.16040389434475699</v>
       </c>
-      <c r="CR18">
+      <c r="CR20" s="4">
         <v>1.25654268089135</v>
       </c>
-      <c r="CS18">
+      <c r="CS20" s="4">
         <v>0.40750906127847297</v>
       </c>
-      <c r="CT18">
+      <c r="CT20" s="4">
         <v>1.7793881718184398E-2</v>
       </c>
-      <c r="CU18">
+      <c r="CU20" s="4">
         <v>0.185196266573497</v>
       </c>
-      <c r="CV18">
+      <c r="CV20" s="4">
         <v>7.7203268814989207E-2</v>
       </c>
-      <c r="CW18">
+      <c r="CW20" s="4">
         <v>0.140500134674476</v>
       </c>
-      <c r="CX18" s="15">
+      <c r="CX20" s="4">
         <v>3.0712925830355699E-5</v>
       </c>
-      <c r="CY18" s="15">
+      <c r="CY20" s="4">
         <v>3.1798155880882403E-5</v>
       </c>
-      <c r="CZ18" s="15">
+      <c r="CZ20" s="4">
         <v>3.1885938780628203E-5</v>
       </c>
-      <c r="DA18" s="15">
+      <c r="DA20" s="4">
         <v>3.36003695577377E-5</v>
       </c>
-      <c r="DB18" s="15">
+      <c r="DB20" s="4">
         <v>3.2712119951255202E-5</v>
       </c>
-      <c r="DC18" s="15">
+      <c r="DC20" s="4">
         <v>3.1439925258595302E-5</v>
       </c>
-      <c r="DD18">
+      <c r="DD20" s="4">
         <v>2.1307246332169099</v>
       </c>
-      <c r="DE18">
+      <c r="DE20" s="4">
         <v>0.43813209360667499</v>
       </c>
-      <c r="DF18">
+      <c r="DF20" s="4">
         <v>0.56617702372474699</v>
       </c>
-      <c r="DG18">
+      <c r="DG20" s="4">
         <v>0.41219682736531799</v>
       </c>
-      <c r="DH18">
+      <c r="DH20" s="4">
         <v>0.448354617639321</v>
       </c>
-      <c r="DI18">
+      <c r="DI20" s="4">
         <v>0.47598024243274301</v>
       </c>
-      <c r="DJ18">
-        <v>359</v>
-      </c>
-      <c r="DK18">
-        <v>359</v>
-      </c>
-      <c r="DL18">
-        <v>359</v>
-      </c>
-      <c r="DM18">
-        <v>359</v>
-      </c>
-      <c r="DN18">
-        <v>359</v>
-      </c>
-      <c r="DO18">
-        <v>358</v>
-      </c>
-      <c r="DP18" s="13">
+      <c r="DJ20" s="13">
         <v>42635.392256944448</v>
       </c>
-      <c r="DQ18" s="13">
+      <c r="DK20" s="13">
         <v>42635.433935185189</v>
       </c>
-      <c r="DR18" s="13">
+      <c r="DL20" s="13">
         <v>42635.475613425922</v>
       </c>
-      <c r="DS18" s="13">
+      <c r="DM20" s="13">
         <v>42635.51730324074</v>
       </c>
-      <c r="DT18" s="13">
+      <c r="DN20" s="13">
         <v>42635.558981481481</v>
       </c>
-      <c r="DU18" s="13">
+      <c r="DO20" s="13">
         <v>42635.600659722222</v>
       </c>
-      <c r="DV18" s="13">
+      <c r="DP20" s="13">
         <v>42635.642222222225</v>
       </c>
+      <c r="DQ20" s="13"/>
+      <c r="DR20" s="13"/>
+      <c r="DS20" s="13"/>
+      <c r="DT20" s="13"/>
+      <c r="DU20" s="13"/>
+      <c r="DV20" s="13"/>
     </row>
-    <row r="19" spans="34:126" x14ac:dyDescent="0.25">
-      <c r="AH19">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="AH21">
         <v>200</v>
       </c>
-      <c r="AI19">
+      <c r="AI21" s="4">
         <v>19.7</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ21" s="4">
         <v>18.7</v>
       </c>
-      <c r="AK19">
+      <c r="AK21" s="4">
         <v>18.2</v>
       </c>
-      <c r="AL19">
+      <c r="AL21" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="AM19">
+      <c r="AM21" s="4">
         <v>18.2</v>
       </c>
-      <c r="AN19">
+      <c r="AN21" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="AO19">
+      <c r="AO21" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="AP19">
+      <c r="AP21" s="4">
         <v>24.956210163580199</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ21" s="4">
         <v>23.006062672839501</v>
       </c>
-      <c r="AR19">
+      <c r="AR21" s="4">
         <v>24.799584959876501</v>
       </c>
-      <c r="AS19">
+      <c r="AS21" s="4">
         <v>22.509581197530899</v>
       </c>
-      <c r="AT19">
+      <c r="AT21" s="4">
         <v>24.683877377708999</v>
       </c>
-      <c r="AU19">
+      <c r="AU21" s="4">
         <v>22.340491861111101</v>
       </c>
-      <c r="AV19">
+      <c r="AV21" s="4">
         <v>32.980885842592599</v>
       </c>
-      <c r="AW19">
+      <c r="AW21" s="4">
         <v>32.987101305555598</v>
       </c>
-      <c r="AX19">
+      <c r="AX21" s="4">
         <v>33.013132765432097</v>
       </c>
-      <c r="AY19">
+      <c r="AY21" s="4">
         <v>32.986653401234598</v>
       </c>
-      <c r="AZ19">
+      <c r="AZ21" s="4">
         <v>33.018617551083601</v>
       </c>
-      <c r="BA19">
+      <c r="BA21" s="4">
         <v>32.979137398148197</v>
       </c>
-      <c r="BB19">
+      <c r="BB21" s="4">
         <v>55.836601620370402</v>
       </c>
-      <c r="BC19">
+      <c r="BC21" s="4">
         <v>58.452148472222198</v>
       </c>
-      <c r="BD19">
+      <c r="BD21" s="4">
         <v>58.743096604938302</v>
       </c>
-      <c r="BE19">
+      <c r="BE21" s="4">
         <v>59.105512611111102</v>
       </c>
-      <c r="BF19">
+      <c r="BF21" s="4">
         <v>58.921287003095998</v>
       </c>
-      <c r="BG19">
+      <c r="BG21" s="4">
         <v>59.136432861111103</v>
       </c>
-      <c r="BH19">
+      <c r="BH21" s="4">
         <v>53.080390037036999</v>
       </c>
-      <c r="BI19">
+      <c r="BI21" s="4">
         <v>55.671530641975302</v>
       </c>
-      <c r="BJ19">
+      <c r="BJ21" s="4">
         <v>56.020592601851803</v>
       </c>
-      <c r="BK19">
+      <c r="BK21" s="4">
         <v>56.088666472222101</v>
       </c>
-      <c r="BL19">
+      <c r="BL21" s="4">
         <v>55.996589309597603</v>
       </c>
-      <c r="BM19">
+      <c r="BM21" s="4">
         <v>55.942365262345703</v>
       </c>
-      <c r="BN19">
+      <c r="BN21" s="4">
         <v>2.9973148148148099E-2</v>
       </c>
-      <c r="BO19">
+      <c r="BO21" s="4">
         <v>2.99734567901234E-2</v>
       </c>
-      <c r="BP19">
+      <c r="BP21" s="4">
         <v>2.9973148148148099E-2</v>
       </c>
-      <c r="BQ19">
+      <c r="BQ21" s="4">
         <v>2.9974691358024701E-2</v>
       </c>
-      <c r="BR19">
+      <c r="BR21" s="4">
         <v>2.9973065015479899E-2</v>
       </c>
-      <c r="BS19">
+      <c r="BS21" s="4">
         <v>2.9974382716049401E-2</v>
       </c>
-      <c r="BT19">
+      <c r="BT21" s="4">
         <v>25.009471552469101</v>
       </c>
-      <c r="BU19">
+      <c r="BU21" s="4">
         <v>23.059749518518501</v>
       </c>
-      <c r="BV19">
+      <c r="BV21" s="4">
         <v>24.851650203703699</v>
       </c>
-      <c r="BW19">
+      <c r="BW21" s="4">
         <v>22.5593452654321</v>
       </c>
-      <c r="BX19">
+      <c r="BX21" s="4">
         <v>24.732624513931899</v>
       </c>
-      <c r="BY19">
+      <c r="BY21" s="4">
         <v>22.388159194444398</v>
       </c>
-      <c r="BZ19">
+      <c r="BZ21" s="4">
         <v>2.6727822423802099</v>
       </c>
-      <c r="CA19">
+      <c r="CA21" s="4">
         <v>0.36513823475358498</v>
       </c>
-      <c r="CB19">
+      <c r="CB21" s="4">
         <v>0.45076793817611899</v>
       </c>
-      <c r="CC19">
+      <c r="CC21" s="4">
         <v>0.384442946105024</v>
       </c>
-      <c r="CD19">
+      <c r="CD21" s="4">
         <v>0.42964965411966799</v>
       </c>
-      <c r="CE19">
+      <c r="CE21" s="4">
         <v>0.36594147888662498</v>
       </c>
-      <c r="CF19">
+      <c r="CF21" s="4">
         <v>2.8113195858452902</v>
       </c>
-      <c r="CG19">
+      <c r="CG21" s="4">
         <v>0.77521981338949797</v>
       </c>
-      <c r="CH19">
+      <c r="CH21" s="4">
         <v>0.77766045172440901</v>
       </c>
-      <c r="CI19">
+      <c r="CI21" s="4">
         <v>0.74209976098623898</v>
       </c>
-      <c r="CJ19">
+      <c r="CJ21" s="4">
         <v>0.79829347479613799</v>
       </c>
-      <c r="CK19">
+      <c r="CK21" s="4">
         <v>0.74412304880943902</v>
       </c>
-      <c r="CL19">
+      <c r="CL21" s="4">
         <v>2.1581415153307799</v>
       </c>
-      <c r="CM19">
+      <c r="CM21" s="4">
         <v>0.24228007729267101</v>
       </c>
-      <c r="CN19">
+      <c r="CN21" s="4">
         <v>4.32311839977534E-2</v>
       </c>
-      <c r="CO19">
+      <c r="CO21" s="4">
         <v>0.144671078083565</v>
       </c>
-      <c r="CP19">
+      <c r="CP21" s="4">
         <v>0.18346307106033699</v>
       </c>
-      <c r="CQ19">
+      <c r="CQ21" s="4">
         <v>0.23950451375103801</v>
       </c>
-      <c r="CR19">
+      <c r="CR21" s="4">
         <v>1.48283771515087</v>
       </c>
-      <c r="CS19">
+      <c r="CS21" s="4">
         <v>0.37710805332780201</v>
       </c>
-      <c r="CT19">
+      <c r="CT21" s="4">
         <v>8.7256752960141903E-2</v>
       </c>
-      <c r="CU19">
+      <c r="CU21" s="4">
         <v>9.8430325672969804E-2</v>
       </c>
-      <c r="CV19">
+      <c r="CV21" s="4">
         <v>0.13359664873200999</v>
       </c>
-      <c r="CW19">
+      <c r="CW21" s="4">
         <v>7.6805488922920301E-2</v>
       </c>
-      <c r="CX19" s="15">
+      <c r="CX21" s="4">
         <v>3.2728968690131502E-5</v>
       </c>
-      <c r="CY19" s="15">
+      <c r="CY21" s="4">
         <v>3.18665198148924E-5</v>
       </c>
-      <c r="CZ19" s="15">
+      <c r="CZ21" s="4">
         <v>4.03268812414918E-5</v>
       </c>
-      <c r="DA19" s="15">
+      <c r="DA21" s="4">
         <v>3.1443343397468098E-5</v>
       </c>
-      <c r="DB19" s="15">
+      <c r="DB21" s="4">
         <v>3.1627451197083602E-5</v>
       </c>
-      <c r="DC19" s="15">
+      <c r="DC21" s="4">
         <v>3.6368065397391497E-5</v>
       </c>
-      <c r="DD19">
+      <c r="DD21" s="4">
         <v>2.6728975942724</v>
       </c>
-      <c r="DE19">
+      <c r="DE21" s="4">
         <v>0.36521065767226302</v>
       </c>
-      <c r="DF19">
+      <c r="DF21" s="4">
         <v>0.45079554615282702</v>
       </c>
-      <c r="DG19">
+      <c r="DG21" s="4">
         <v>0.38387333327164103</v>
       </c>
-      <c r="DH19">
+      <c r="DH21" s="4">
         <v>0.43123933022093502</v>
       </c>
-      <c r="DI19">
+      <c r="DI21" s="4">
         <v>0.36511481268246598</v>
       </c>
-      <c r="DJ19">
-        <v>359</v>
-      </c>
-      <c r="DK19">
-        <v>359</v>
-      </c>
-      <c r="DL19">
-        <v>359</v>
-      </c>
-      <c r="DM19">
-        <v>359</v>
-      </c>
-      <c r="DN19">
-        <v>358</v>
-      </c>
-      <c r="DO19">
-        <v>359</v>
-      </c>
-      <c r="DP19" s="13">
+      <c r="DJ21" s="13">
         <v>42635.825949074075</v>
       </c>
-      <c r="DQ19" s="13">
+      <c r="DK21" s="13">
         <v>42635.867627314816</v>
       </c>
-      <c r="DR19" s="13">
+      <c r="DL21" s="13">
         <v>42635.909305555557</v>
       </c>
-      <c r="DS19" s="13">
+      <c r="DM21" s="13">
         <v>42635.950983796298</v>
       </c>
-      <c r="DT19" s="13">
+      <c r="DN21" s="13">
         <v>42635.992662037039</v>
       </c>
-      <c r="DU19" s="13">
+      <c r="DO21" s="13">
         <v>42636.034224537034</v>
       </c>
-      <c r="DV19" s="13">
+      <c r="DP21" s="13">
         <v>42636.075902777775</v>
       </c>
+      <c r="DQ21" s="13"/>
+      <c r="DR21" s="13"/>
+      <c r="DS21" s="13"/>
+      <c r="DT21" s="13"/>
+      <c r="DU21" s="13"/>
+      <c r="DV21" s="13"/>
     </row>
-    <row r="20" spans="34:126" x14ac:dyDescent="0.25">
-      <c r="AH20">
+    <row r="22" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="AH22">
         <v>300</v>
       </c>
-      <c r="AI20">
+      <c r="AI22" s="4">
         <v>34.799999999999997</v>
       </c>
-      <c r="AJ20">
-        <v>18.7</v>
-      </c>
-      <c r="AK20">
-        <v>18.2</v>
-      </c>
-      <c r="AL20">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AM20">
-        <v>18.2</v>
-      </c>
-      <c r="AN20">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AO20">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="AP20">
+      <c r="AJ22" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>33</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>24.106479489164101</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>22.070109317901199</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>24.490009734567899</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>22.1145054691358</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>24.6840886512346</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>22.3113621141975</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>32.983446953560403</v>
+      </c>
+      <c r="AW22" s="4">
+        <v>32.979741222222202</v>
+      </c>
+      <c r="AX22" s="4">
+        <v>33.018704996913598</v>
+      </c>
+      <c r="AY22" s="4">
+        <v>32.982214503086396</v>
+      </c>
+      <c r="AZ22" s="4">
+        <v>33.018799824074101</v>
+      </c>
+      <c r="BA22" s="4">
+        <v>32.987323885802503</v>
+      </c>
+      <c r="BB22" s="4">
+        <v>72.920721244582097</v>
+      </c>
+      <c r="BC22" s="4">
+        <v>76.701657231481406</v>
+      </c>
+      <c r="BD22" s="4">
+        <v>77.129366219135804</v>
+      </c>
+      <c r="BE22" s="4">
+        <v>77.434612956790204</v>
+      </c>
+      <c r="BF22" s="4">
+        <v>77.188978830246896</v>
+      </c>
+      <c r="BG22" s="4">
+        <v>77.255055577160505</v>
+      </c>
+      <c r="BH22" s="4">
+        <v>69.783981411764699</v>
+      </c>
+      <c r="BI22" s="4">
+        <v>72.845062935185197</v>
+      </c>
+      <c r="BJ22" s="4">
+        <v>73.672722753086404</v>
+      </c>
+      <c r="BK22" s="4">
+        <v>73.905511141975296</v>
+      </c>
+      <c r="BL22" s="4">
+        <v>74.038990830246902</v>
+      </c>
+      <c r="BM22" s="4">
+        <v>74.166473030864196</v>
+      </c>
+      <c r="BN22" s="4">
+        <v>2.9975541795665601E-2</v>
+      </c>
+      <c r="BO22" s="4">
+        <v>2.9975154320987601E-2</v>
+      </c>
+      <c r="BP22" s="4">
+        <v>2.9975925925925899E-2</v>
+      </c>
+      <c r="BQ22" s="4">
+        <v>2.99737654320987E-2</v>
+      </c>
+      <c r="BR22" s="4">
+        <v>2.9974691358024701E-2</v>
+      </c>
+      <c r="BS22" s="4">
+        <v>2.9974691358024701E-2</v>
+      </c>
+      <c r="BT22" s="4">
+        <v>24.178383294117701</v>
+      </c>
+      <c r="BU22" s="4">
+        <v>22.147818987654301</v>
+      </c>
+      <c r="BV22" s="4">
+        <v>24.568887089506202</v>
+      </c>
+      <c r="BW22" s="4">
+        <v>22.194442086419802</v>
+      </c>
+      <c r="BX22" s="4">
+        <v>24.763500416666702</v>
+      </c>
+      <c r="BY22" s="4">
+        <v>22.391212941357999</v>
+      </c>
+      <c r="BZ22" s="4">
+        <v>1.6080142481740001</v>
+      </c>
+      <c r="CA22" s="4">
+        <v>0.40249401878518498</v>
+      </c>
+      <c r="CB22" s="4">
+        <v>0.44092653468229898</v>
+      </c>
+      <c r="CC22" s="4">
+        <v>0.377250131864587</v>
+      </c>
+      <c r="CD22" s="4">
+        <v>0.39547211323787301</v>
+      </c>
+      <c r="CE22" s="4">
+        <v>0.36543246683068098</v>
+      </c>
+      <c r="CF22" s="4">
+        <v>1.4206816919890799</v>
+      </c>
+      <c r="CG22" s="4">
+        <v>0.76066235910824598</v>
+      </c>
+      <c r="CH22" s="4">
+        <v>0.84498660469810705</v>
+      </c>
+      <c r="CI22" s="4">
+        <v>0.79650188060421201</v>
+      </c>
+      <c r="CJ22" s="4">
+        <v>0.85321209148999899</v>
+      </c>
+      <c r="CK22" s="4">
+        <v>0.78050110630761604</v>
+      </c>
+      <c r="CL22" s="4">
+        <v>2.2701667656798601</v>
+      </c>
+      <c r="CM22" s="4">
+        <v>0.45571059465867603</v>
+      </c>
+      <c r="CN22" s="4">
+        <v>8.8590694430666694E-2</v>
+      </c>
+      <c r="CO22" s="4">
+        <v>0.128377167939912</v>
+      </c>
+      <c r="CP22" s="4">
+        <v>0.21194478774217199</v>
+      </c>
+      <c r="CQ22" s="4">
+        <v>0.12377201572919599</v>
+      </c>
+      <c r="CR22" s="4">
+        <v>1.50458131611131</v>
+      </c>
+      <c r="CS22" s="4">
+        <v>0.50268578121734198</v>
+      </c>
+      <c r="CT22" s="4">
+        <v>3.5468862048299202E-2</v>
+      </c>
+      <c r="CU22" s="4">
+        <v>0.124052305087909</v>
+      </c>
+      <c r="CV22" s="4">
+        <v>4.9880518957931302E-2</v>
+      </c>
+      <c r="CW22" s="4">
+        <v>9.0788012606070195E-2</v>
+      </c>
+      <c r="CX22" s="4">
+        <v>2.9360371305278899E-5</v>
+      </c>
+      <c r="CY22" s="4">
+        <v>3.1431037045497703E-5</v>
+      </c>
+      <c r="CZ22" s="4">
+        <v>3.3337975535616002E-5</v>
+      </c>
+      <c r="DA22" s="4">
+        <v>3.1218918309491198E-5</v>
+      </c>
+      <c r="DB22" s="4">
+        <v>2.86644316893428E-5</v>
+      </c>
+      <c r="DC22" s="4">
+        <v>3.23185839680475E-5</v>
+      </c>
+      <c r="DD22" s="4">
+        <v>1.6079602100338699</v>
+      </c>
+      <c r="DE22" s="4">
+        <v>0.40309799084186199</v>
+      </c>
+      <c r="DF22" s="4">
+        <v>0.44044887691606299</v>
+      </c>
+      <c r="DG22" s="4">
+        <v>0.37740887048486799</v>
+      </c>
+      <c r="DH22" s="4">
+        <v>0.39597655633906098</v>
+      </c>
+      <c r="DI22" s="4">
+        <v>0.36599199103337798</v>
+      </c>
+      <c r="DJ22" s="13">
+        <v>42636.274687500001</v>
+      </c>
+      <c r="DK22" s="13">
+        <v>42636.316296296296</v>
+      </c>
+      <c r="DL22" s="13">
+        <v>42636.357974537037</v>
+      </c>
+      <c r="DM22" s="13">
+        <v>42636.399652777778</v>
+      </c>
+      <c r="DN22" s="13">
+        <v>42636.441331018519</v>
+      </c>
+      <c r="DO22" s="13">
+        <v>42636.483020833337</v>
+      </c>
+      <c r="DP22" s="13">
+        <v>42636.524699074071</v>
+      </c>
+      <c r="DQ22" s="13"/>
+      <c r="DR22" s="13"/>
+      <c r="DS22" s="13"/>
+      <c r="DT22" s="13"/>
+      <c r="DU22" s="13"/>
+      <c r="DV22" s="13"/>
+    </row>
+    <row r="23" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="AH23">
+        <v>400</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>54.1</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>24.415597308641999</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>22.598642052469199</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>24.865060283950601</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>22.556580759259301</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>24.964451049230799</v>
+      </c>
+      <c r="AU23" s="4">
         <v>0</v>
       </c>
-      <c r="AQ20">
+      <c r="AV23" s="4">
+        <v>32.9825073364198</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>32.9878003425926</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>33.016064222222198</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>32.986949080246902</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>33.0169199969231</v>
+      </c>
+      <c r="BA23" s="4">
         <v>0</v>
       </c>
-      <c r="AR20">
+      <c r="BB23" s="4">
+        <v>92.9553045555556</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>94.320530398148193</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>94.2644087222222</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>94.408923552469204</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>94.312842083076902</v>
+      </c>
+      <c r="BG23" s="4">
         <v>0</v>
       </c>
-      <c r="AS20">
+      <c r="BH23" s="4">
+        <v>90.867138734567803</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>93.125431651234607</v>
+      </c>
+      <c r="BJ23" s="4">
+        <v>93.3459893796296</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>93.502491305555395</v>
+      </c>
+      <c r="BL23" s="4">
+        <v>93.505024076922993</v>
+      </c>
+      <c r="BM23" s="4">
         <v>0</v>
       </c>
-      <c r="AT20">
+      <c r="BN23" s="4">
+        <v>2.9974228395061701E-2</v>
+      </c>
+      <c r="BO23" s="4">
+        <v>2.9972839506172799E-2</v>
+      </c>
+      <c r="BP23" s="4">
+        <v>2.9976543209876499E-2</v>
+      </c>
+      <c r="BQ23" s="4">
+        <v>2.99766975308642E-2</v>
+      </c>
+      <c r="BR23" s="4">
+        <v>2.99756923076923E-2</v>
+      </c>
+      <c r="BS23" s="4">
         <v>0</v>
       </c>
-      <c r="AU20">
+      <c r="BT23" s="4">
+        <v>24.5205153950617</v>
+      </c>
+      <c r="BU23" s="4">
+        <v>22.704142521605</v>
+      </c>
+      <c r="BV23" s="4">
+        <v>24.972593422839498</v>
+      </c>
+      <c r="BW23" s="4">
+        <v>22.665486972222201</v>
+      </c>
+      <c r="BX23" s="4">
+        <v>25.0748863230769</v>
+      </c>
+      <c r="BY23" s="4">
         <v>0</v>
       </c>
-      <c r="AV20">
+      <c r="BZ23" s="4">
+        <v>2.9949991535331102</v>
+      </c>
+      <c r="CA23" s="4">
+        <v>0.41467438533143097</v>
+      </c>
+      <c r="CB23" s="4">
+        <v>0.39205175632456402</v>
+      </c>
+      <c r="CC23" s="4">
+        <v>0.37704275544129401</v>
+      </c>
+      <c r="CD23" s="4">
+        <v>0.38659746419746199</v>
+      </c>
+      <c r="CE23" s="4">
         <v>0</v>
       </c>
-      <c r="AW20">
+      <c r="CF23" s="4">
+        <v>3.39390784087374</v>
+      </c>
+      <c r="CG23" s="4">
+        <v>0.75957404970129505</v>
+      </c>
+      <c r="CH23" s="4">
+        <v>0.749480634048179</v>
+      </c>
+      <c r="CI23" s="4">
+        <v>0.73321322171951997</v>
+      </c>
+      <c r="CJ23" s="4">
+        <v>0.77735112258436501</v>
+      </c>
+      <c r="CK23" s="4">
         <v>0</v>
       </c>
-      <c r="AX20">
+      <c r="CL23" s="4">
+        <v>2.2424160567339801</v>
+      </c>
+      <c r="CM23" s="4">
+        <v>6.0621976737791898E-2</v>
+      </c>
+      <c r="CN23" s="4">
+        <v>8.5638161580938205E-2</v>
+      </c>
+      <c r="CO23" s="4">
+        <v>0.153861523530991</v>
+      </c>
+      <c r="CP23" s="4">
+        <v>0.19737723084397299</v>
+      </c>
+      <c r="CQ23" s="4">
         <v>0</v>
       </c>
-      <c r="AY20">
+      <c r="CR23" s="4">
+        <v>1.7097523223262601</v>
+      </c>
+      <c r="CS23" s="4">
+        <v>0.16401552883269499</v>
+      </c>
+      <c r="CT23" s="4">
+        <v>4.4935156940289697E-2</v>
+      </c>
+      <c r="CU23" s="4">
+        <v>0.110425972975444</v>
+      </c>
+      <c r="CV23" s="4">
+        <v>7.7171988942349307E-2</v>
+      </c>
+      <c r="CW23" s="4">
         <v>0</v>
       </c>
-      <c r="AZ20">
+      <c r="CX23" s="4">
+        <v>3.55615516454457E-5</v>
+      </c>
+      <c r="CY23" s="4">
+        <v>3.0444707632709901E-5</v>
+      </c>
+      <c r="CZ23" s="4">
+        <v>3.17875082768564E-5</v>
+      </c>
+      <c r="DA23" s="4">
+        <v>3.3263622556438201E-5</v>
+      </c>
+      <c r="DB23" s="4">
+        <v>3.1649531253441901E-5</v>
+      </c>
+      <c r="DC23" s="4">
         <v>0</v>
       </c>
-      <c r="BA20">
+      <c r="DD23" s="4">
+        <v>2.9952874498017601</v>
+      </c>
+      <c r="DE23" s="4">
+        <v>0.41425156884848002</v>
+      </c>
+      <c r="DF23" s="4">
+        <v>0.39172239492320199</v>
+      </c>
+      <c r="DG23" s="4">
+        <v>0.37738801123902199</v>
+      </c>
+      <c r="DH23" s="4">
+        <v>0.386047133955917</v>
+      </c>
+      <c r="DI23" s="4">
         <v>0</v>
       </c>
-      <c r="BB20">
+      <c r="DJ23" s="13">
+        <v>42636.702175925922</v>
+      </c>
+      <c r="DK23" s="13">
+        <v>42636.743854166663</v>
+      </c>
+      <c r="DL23" s="13">
+        <v>42636.785532407404</v>
+      </c>
+      <c r="DM23" s="13">
+        <v>42636.827210648145</v>
+      </c>
+      <c r="DN23" s="13">
+        <v>42636.868900462963</v>
+      </c>
+      <c r="DO23" s="13">
+        <v>42636.910694444443</v>
+      </c>
+      <c r="DP23" s="13">
+        <v>42636.529444444444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="AH24">
+        <v>500</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>79.2</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>77.7</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="AP24" s="4">
+        <v>24.1213632941176</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>21.826071015432099</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>24.2667225555555</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>21.9109120925926</v>
+      </c>
+      <c r="AT24" s="4">
+        <v>24.320270077160501</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>21.9380681265432</v>
+      </c>
+      <c r="AV24" s="4">
+        <v>32.986474507739999</v>
+      </c>
+      <c r="AW24" s="4">
+        <v>32.986729688271602</v>
+      </c>
+      <c r="AX24" s="4">
+        <v>33.0147867314815</v>
+      </c>
+      <c r="AY24" s="4">
+        <v>32.988169080246898</v>
+      </c>
+      <c r="AZ24" s="4">
+        <v>33.017160299382702</v>
+      </c>
+      <c r="BA24" s="4">
+        <v>32.980296231481503</v>
+      </c>
+      <c r="BB24" s="4">
+        <v>111.655369965944</v>
+      </c>
+      <c r="BC24" s="4">
+        <v>114.170192074074</v>
+      </c>
+      <c r="BD24" s="4">
+        <v>114.14087562963</v>
+      </c>
+      <c r="BE24" s="4">
+        <v>114.08469686728399</v>
+      </c>
+      <c r="BF24" s="4">
+        <v>113.855046811728</v>
+      </c>
+      <c r="BG24" s="4">
+        <v>113.98759609259299</v>
+      </c>
+      <c r="BH24" s="4">
+        <v>112.925093789474</v>
+      </c>
+      <c r="BI24" s="4">
+        <v>115.541647888889</v>
+      </c>
+      <c r="BJ24" s="4">
+        <v>115.945716472222</v>
+      </c>
+      <c r="BK24" s="4">
+        <v>115.956210435185</v>
+      </c>
+      <c r="BL24" s="4">
+        <v>115.886692308642</v>
+      </c>
+      <c r="BM24" s="4">
+        <v>115.906648484568</v>
+      </c>
+      <c r="BN24" s="4">
+        <v>2.9973219814241499E-2</v>
+      </c>
+      <c r="BO24" s="4">
+        <v>2.9974382716049401E-2</v>
+      </c>
+      <c r="BP24" s="4">
+        <v>2.99766975308642E-2</v>
+      </c>
+      <c r="BQ24" s="4">
+        <v>2.9974228395061701E-2</v>
+      </c>
+      <c r="BR24" s="4">
+        <v>2.9974074074074101E-2</v>
+      </c>
+      <c r="BS24" s="4">
+        <v>2.99736111111111E-2</v>
+      </c>
+      <c r="BT24" s="4">
+        <v>24.2449082321981</v>
+      </c>
+      <c r="BU24" s="4">
+        <v>21.950105660493801</v>
+      </c>
+      <c r="BV24" s="4">
+        <v>24.3893289691358</v>
+      </c>
+      <c r="BW24" s="4">
+        <v>22.032940515432099</v>
+      </c>
+      <c r="BX24" s="4">
+        <v>24.441666521604901</v>
+      </c>
+      <c r="BY24" s="4">
+        <v>22.059739929012402</v>
+      </c>
+      <c r="BZ24" s="4">
+        <v>1.91885841114077</v>
+      </c>
+      <c r="CA24" s="4">
+        <v>0.336049547504569</v>
+      </c>
+      <c r="CB24" s="4">
+        <v>0.35286682403059699</v>
+      </c>
+      <c r="CC24" s="4">
+        <v>0.35141510718761398</v>
+      </c>
+      <c r="CD24" s="4">
+        <v>0.382346088182347</v>
+      </c>
+      <c r="CE24" s="4">
+        <v>0.37858894249754099</v>
+      </c>
+      <c r="CF24" s="4">
+        <v>1.7403096745662601</v>
+      </c>
+      <c r="CG24" s="4">
+        <v>0.76230563578155397</v>
+      </c>
+      <c r="CH24" s="4">
+        <v>0.76824539563745498</v>
+      </c>
+      <c r="CI24" s="4">
+        <v>0.72930943020987704</v>
+      </c>
+      <c r="CJ24" s="4">
+        <v>0.75183185871563196</v>
+      </c>
+      <c r="CK24" s="4">
+        <v>0.71427708531076695</v>
+      </c>
+      <c r="CL24" s="4">
+        <v>1.9911211303190399</v>
+      </c>
+      <c r="CM24" s="4">
+        <v>0.28237953141980399</v>
+      </c>
+      <c r="CN24" s="4">
+        <v>0.20994506301565399</v>
+      </c>
+      <c r="CO24" s="4">
+        <v>0.13210126976327499</v>
+      </c>
+      <c r="CP24" s="4">
+        <v>0.19234183350744</v>
+      </c>
+      <c r="CQ24" s="4">
+        <v>0.14289768458659999</v>
+      </c>
+      <c r="CR24" s="4">
+        <v>1.66541456521866</v>
+      </c>
+      <c r="CS24" s="4">
+        <v>0.33663582747339299</v>
+      </c>
+      <c r="CT24" s="4">
+        <v>5.54574632264076E-2</v>
+      </c>
+      <c r="CU24" s="4">
+        <v>7.6848943460473398E-2</v>
+      </c>
+      <c r="CV24" s="4">
+        <v>0.11757191693649401</v>
+      </c>
+      <c r="CW24" s="4">
+        <v>0.12050729234471901</v>
+      </c>
+      <c r="CX24" s="4">
+        <v>3.0939748162690298E-5</v>
+      </c>
+      <c r="CY24" s="4">
+        <v>3.2936061127017501E-5</v>
+      </c>
+      <c r="CZ24" s="4">
+        <v>2.8608703356993299E-5</v>
+      </c>
+      <c r="DA24" s="4">
+        <v>3.2498541738109402E-5</v>
+      </c>
+      <c r="DB24" s="4">
+        <v>3.0769558125058298E-5</v>
+      </c>
+      <c r="DC24" s="4">
+        <v>3.2917555492624098E-5</v>
+      </c>
+      <c r="DD24" s="4">
+        <v>1.91871108479934</v>
+      </c>
+      <c r="DE24" s="4">
+        <v>0.33633663667222602</v>
+      </c>
+      <c r="DF24" s="4">
+        <v>0.35272619993319299</v>
+      </c>
+      <c r="DG24" s="4">
+        <v>0.35140997545521402</v>
+      </c>
+      <c r="DH24" s="4">
+        <v>0.38223866232084602</v>
+      </c>
+      <c r="DI24" s="4">
+        <v>0.37850705050071298</v>
+      </c>
+      <c r="DJ24" s="13">
+        <v>42637.09951388889</v>
+      </c>
+      <c r="DK24" s="13">
+        <v>42637.141076388885</v>
+      </c>
+      <c r="DL24" s="13">
+        <v>42637.182766203703</v>
+      </c>
+      <c r="DM24" s="13">
+        <v>42637.224444444444</v>
+      </c>
+      <c r="DN24" s="13">
+        <v>42637.266122685185</v>
+      </c>
+      <c r="DO24" s="13">
+        <v>42637.307800925926</v>
+      </c>
+      <c r="DP24" s="13">
+        <v>42637.34952546296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="AH25">
+        <v>600</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>110.4</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>110.3</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>109.9</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>109.7</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>109.9</v>
+      </c>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>24.418150191919199</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>22.6584018322148</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>24.489601006172901</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>22.046662635802502</v>
+      </c>
+      <c r="AT25" s="4">
+        <v>24.595712513846198</v>
+      </c>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4">
+        <v>32.977973919191903</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>32.977889534675597</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>33.025403558641997</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>32.979617095678996</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>33.017782993846197</v>
+      </c>
+      <c r="BA25" s="4">
         <v>0</v>
       </c>
-      <c r="BC20">
+      <c r="BB25" s="4">
+        <v>132.6563175</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>136.14467593512299</v>
+      </c>
+      <c r="BD25" s="4">
+        <v>136.96177178703701</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>137.25882056481501</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>137.023602304615</v>
+      </c>
+      <c r="BG25" s="4">
         <v>0</v>
       </c>
-      <c r="BD20">
+      <c r="BH25" s="4">
+        <v>137.02619965656601</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>140.66754251454199</v>
+      </c>
+      <c r="BJ25" s="4">
+        <v>141.663439145062</v>
+      </c>
+      <c r="BK25" s="4">
+        <v>141.99271803703701</v>
+      </c>
+      <c r="BL25" s="4">
+        <v>142.068463455385</v>
+      </c>
+      <c r="BM25" s="4">
         <v>0</v>
       </c>
-      <c r="BE20">
+      <c r="BN25" s="4">
+        <v>2.9971969696969698E-2</v>
+      </c>
+      <c r="BO25" s="4">
+        <v>2.9973937360178799E-2</v>
+      </c>
+      <c r="BP25" s="4">
+        <v>2.99733024691358E-2</v>
+      </c>
+      <c r="BQ25" s="4">
+        <v>2.9972839506172799E-2</v>
+      </c>
+      <c r="BR25" s="4">
+        <v>2.99756923076923E-2</v>
+      </c>
+      <c r="BS25" s="4">
         <v>0</v>
       </c>
-      <c r="BF20">
+      <c r="BT25" s="4">
+        <v>24.569193318181799</v>
+      </c>
+      <c r="BU25" s="4">
+        <v>22.814153559284101</v>
+      </c>
+      <c r="BV25" s="4">
+        <v>24.646938512345699</v>
+      </c>
+      <c r="BW25" s="4">
+        <v>22.205795373456802</v>
+      </c>
+      <c r="BX25" s="4">
+        <v>24.754699095384598</v>
+      </c>
+      <c r="BY25" s="4">
         <v>0</v>
       </c>
-      <c r="BG20">
+      <c r="BZ25" s="4">
+        <v>2.21978282316203</v>
+      </c>
+      <c r="CA25" s="4">
+        <v>1.2928822009357801</v>
+      </c>
+      <c r="CB25" s="4">
+        <v>0.36133619649468002</v>
+      </c>
+      <c r="CC25" s="4">
+        <v>0.32173554969550899</v>
+      </c>
+      <c r="CD25" s="4">
+        <v>0.35494441692601397</v>
+      </c>
+      <c r="CE25" s="4">
         <v>0</v>
       </c>
-      <c r="BH20">
+      <c r="CF25" s="4">
+        <v>2.07466521758113</v>
+      </c>
+      <c r="CG25" s="4">
+        <v>0.98114646981020104</v>
+      </c>
+      <c r="CH25" s="4">
+        <v>0.78554408191517</v>
+      </c>
+      <c r="CI25" s="4">
+        <v>0.74748202084428905</v>
+      </c>
+      <c r="CJ25" s="4">
+        <v>0.85862258431863603</v>
+      </c>
+      <c r="CK25" s="4">
         <v>0</v>
       </c>
-      <c r="BI20">
+      <c r="CL25" s="4">
+        <v>1.87996564796776</v>
+      </c>
+      <c r="CM25" s="4">
+        <v>0.62602602081440495</v>
+      </c>
+      <c r="CN25" s="4">
+        <v>9.1463793420767506E-2</v>
+      </c>
+      <c r="CO25" s="4">
+        <v>0.188732566725341</v>
+      </c>
+      <c r="CP25" s="4">
+        <v>0.20040152169707401</v>
+      </c>
+      <c r="CQ25" s="4">
         <v>0</v>
       </c>
-      <c r="BJ20">
+      <c r="CR25" s="4">
+        <v>1.55516201741143</v>
+      </c>
+      <c r="CS25" s="4">
+        <v>0.72116095829763804</v>
+      </c>
+      <c r="CT25" s="4">
+        <v>3.4168561623870698E-2</v>
+      </c>
+      <c r="CU25" s="4">
+        <v>0.13136051359491499</v>
+      </c>
+      <c r="CV25" s="4">
+        <v>5.85365629459009E-2</v>
+      </c>
+      <c r="CW25" s="4">
         <v>0</v>
       </c>
-      <c r="BK20">
+      <c r="CX25" s="4">
+        <v>3.0338993810845199E-5</v>
+      </c>
+      <c r="CY25" s="4">
+        <v>3.1119632984410301E-5</v>
+      </c>
+      <c r="CZ25" s="4">
+        <v>3.1179237431287698E-5</v>
+      </c>
+      <c r="DA25" s="4">
+        <v>3.3128432444226098E-5</v>
+      </c>
+      <c r="DB25" s="4">
+        <v>3.1195281426144401E-5</v>
+      </c>
+      <c r="DC25" s="4">
         <v>0</v>
       </c>
-      <c r="BL20">
+      <c r="DD25" s="4">
+        <v>2.21995679454901</v>
+      </c>
+      <c r="DE25" s="4">
+        <v>1.2918480438156199</v>
+      </c>
+      <c r="DF25" s="4">
+        <v>0.36109459591153698</v>
+      </c>
+      <c r="DG25" s="4">
+        <v>0.321222293756243</v>
+      </c>
+      <c r="DH25" s="4">
+        <v>0.35509696013339798</v>
+      </c>
+      <c r="DI25" s="4">
         <v>0</v>
       </c>
-      <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>0</v>
-      </c>
-      <c r="BO20">
-        <v>0</v>
-      </c>
-      <c r="BP20">
-        <v>0</v>
-      </c>
-      <c r="BQ20">
-        <v>0</v>
-      </c>
-      <c r="BR20">
-        <v>0</v>
-      </c>
-      <c r="BS20">
-        <v>0</v>
-      </c>
-      <c r="BT20">
-        <v>0</v>
-      </c>
-      <c r="BU20">
-        <v>0</v>
-      </c>
-      <c r="BV20">
-        <v>0</v>
-      </c>
-      <c r="BW20">
-        <v>0</v>
-      </c>
-      <c r="BX20">
-        <v>0</v>
-      </c>
-      <c r="BY20">
-        <v>0</v>
-      </c>
-      <c r="BZ20">
-        <v>0</v>
-      </c>
-      <c r="CA20">
-        <v>0</v>
-      </c>
-      <c r="CB20">
-        <v>0</v>
-      </c>
-      <c r="CC20">
-        <v>0</v>
-      </c>
-      <c r="CD20">
-        <v>0</v>
-      </c>
-      <c r="CE20">
-        <v>0</v>
-      </c>
-      <c r="CF20">
-        <v>0</v>
-      </c>
-      <c r="CG20">
-        <v>0</v>
-      </c>
-      <c r="CH20">
-        <v>0</v>
-      </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
-      <c r="CJ20">
-        <v>0</v>
-      </c>
-      <c r="CK20">
-        <v>0</v>
-      </c>
-      <c r="CL20">
-        <v>0</v>
-      </c>
-      <c r="CM20">
-        <v>0</v>
-      </c>
-      <c r="CN20">
-        <v>0</v>
-      </c>
-      <c r="CO20">
-        <v>0</v>
-      </c>
-      <c r="CP20">
-        <v>0</v>
-      </c>
-      <c r="CQ20">
-        <v>0</v>
-      </c>
-      <c r="CR20">
-        <v>0</v>
-      </c>
-      <c r="CS20">
-        <v>0</v>
-      </c>
-      <c r="CT20">
-        <v>0</v>
-      </c>
-      <c r="CU20">
-        <v>0</v>
-      </c>
-      <c r="CV20">
-        <v>0</v>
-      </c>
-      <c r="CW20">
-        <v>0</v>
-      </c>
-      <c r="CX20">
-        <v>0</v>
-      </c>
-      <c r="CY20">
-        <v>0</v>
-      </c>
-      <c r="CZ20">
-        <v>0</v>
-      </c>
-      <c r="DA20">
-        <v>0</v>
-      </c>
-      <c r="DB20">
-        <v>0</v>
-      </c>
-      <c r="DC20">
-        <v>0</v>
-      </c>
-      <c r="DD20">
-        <v>0</v>
-      </c>
-      <c r="DE20">
-        <v>0</v>
-      </c>
-      <c r="DF20">
-        <v>0</v>
-      </c>
-      <c r="DG20">
-        <v>0</v>
-      </c>
-      <c r="DH20">
-        <v>0</v>
-      </c>
-      <c r="DI20">
-        <v>0</v>
-      </c>
-      <c r="DJ20">
-        <v>359</v>
-      </c>
-      <c r="DK20">
-        <v>359</v>
-      </c>
-      <c r="DL20">
-        <v>359</v>
-      </c>
-      <c r="DM20">
-        <v>359</v>
-      </c>
-      <c r="DN20">
-        <v>358</v>
-      </c>
-      <c r="DO20">
-        <v>359</v>
-      </c>
-      <c r="DP20" s="13">
-        <v>42636.274687500001</v>
-      </c>
-      <c r="DQ20" s="13">
-        <v>42636.081805555557</v>
-      </c>
-      <c r="DR20" s="13">
-        <v>42636.081805555557</v>
-      </c>
-      <c r="DS20" s="13">
-        <v>42636.081805555557</v>
-      </c>
-      <c r="DT20" s="13">
-        <v>42636.081805555557</v>
-      </c>
-      <c r="DU20" s="13">
-        <v>42636.081805555557</v>
-      </c>
-      <c r="DV20" s="13">
-        <v>42636.081805555557</v>
+      <c r="DJ25" s="13">
+        <v>42637.556643518517</v>
+      </c>
+      <c r="DK25" s="13">
+        <v>42637.556296296294</v>
+      </c>
+      <c r="DL25" s="13">
+        <v>42637.614189814813</v>
+      </c>
+      <c r="DM25" s="13">
+        <v>42637.655868055554</v>
+      </c>
+      <c r="DN25" s="13">
+        <v>42637.697546296295</v>
+      </c>
+      <c r="DO25" s="13">
+        <v>42637.739340277774</v>
+      </c>
+      <c r="DP25" s="13">
+        <v>42637.358090277776</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BT1:BY1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="CF1:CK1"/>
     <mergeCell ref="CL1:CQ1"/>
     <mergeCell ref="CR1:CW1"/>
     <mergeCell ref="CX1:DC1"/>
@@ -5302,9 +6268,6 @@
     <mergeCell ref="BB1:BG1"/>
     <mergeCell ref="BH1:BM1"/>
     <mergeCell ref="BN1:BS1"/>
-    <mergeCell ref="BT1:BY1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="CF1:CK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/report/Conflat-LENR.xlsx
+++ b/report/Conflat-LENR.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="-75" windowWidth="24390" windowHeight="13860" activeTab="1"/>
+    <workbookView xWindow="3930" yWindow="-225" windowWidth="12930" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SRI-LENR9042016-9232016" sheetId="7" r:id="rId1"/>
-    <sheet name="SRI-LENR9282016-10102016" sheetId="8" r:id="rId2"/>
+    <sheet name="SRI-9042016-9232016" sheetId="7" r:id="rId1"/>
+    <sheet name="SRI-9282016" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -128,10 +128,10 @@
     <t>Data</t>
   </si>
   <si>
-    <t>\2016-09-19_day-10after.csv-15.csv</t>
+    <t>He (9/27/2016-10/04/2016)</t>
   </si>
   <si>
-    <t>He (9/27/2016-10/04/2016)</t>
+    <t>\SRI-IPB2\2016-09-30_SRI_v171-core27b\2016-09-19_day-10after.csv-15.csv</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -327,8 +327,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -337,6 +335,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DO30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,147 +990,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:113" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="71" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="69" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69" t="s">
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AD1" s="70" t="s">
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AD1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70" t="s">
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70" t="s">
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70" t="s">
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70" t="s">
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69"/>
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70" t="s">
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69"/>
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="70"/>
-      <c r="BS1" s="70" t="s">
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BS1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="BT1" s="70"/>
-      <c r="BU1" s="70"/>
-      <c r="BV1" s="70"/>
-      <c r="BW1" s="70"/>
-      <c r="BX1" s="70"/>
-      <c r="BY1" s="70" t="s">
+      <c r="BT1" s="69"/>
+      <c r="BU1" s="69"/>
+      <c r="BV1" s="69"/>
+      <c r="BW1" s="69"/>
+      <c r="BX1" s="69"/>
+      <c r="BY1" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="BZ1" s="70"/>
-      <c r="CA1" s="70"/>
-      <c r="CB1" s="70"/>
-      <c r="CC1" s="70"/>
-      <c r="CD1" s="70"/>
-      <c r="CE1" s="70" t="s">
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69"/>
+      <c r="CB1" s="69"/>
+      <c r="CC1" s="69"/>
+      <c r="CD1" s="69"/>
+      <c r="CE1" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="CF1" s="70"/>
-      <c r="CG1" s="70"/>
-      <c r="CH1" s="70"/>
-      <c r="CI1" s="70"/>
-      <c r="CJ1" s="70"/>
-      <c r="CK1" s="70" t="s">
+      <c r="CF1" s="69"/>
+      <c r="CG1" s="69"/>
+      <c r="CH1" s="69"/>
+      <c r="CI1" s="69"/>
+      <c r="CJ1" s="69"/>
+      <c r="CK1" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="CL1" s="70"/>
-      <c r="CM1" s="70"/>
-      <c r="CN1" s="70"/>
-      <c r="CO1" s="70"/>
-      <c r="CP1" s="70"/>
-      <c r="CQ1" s="70" t="s">
+      <c r="CL1" s="69"/>
+      <c r="CM1" s="69"/>
+      <c r="CN1" s="69"/>
+      <c r="CO1" s="69"/>
+      <c r="CP1" s="69"/>
+      <c r="CQ1" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="CR1" s="70"/>
-      <c r="CS1" s="70"/>
-      <c r="CT1" s="70"/>
-      <c r="CU1" s="70"/>
-      <c r="CV1" s="70"/>
-      <c r="CW1" s="70" t="s">
+      <c r="CR1" s="69"/>
+      <c r="CS1" s="69"/>
+      <c r="CT1" s="69"/>
+      <c r="CU1" s="69"/>
+      <c r="CV1" s="69"/>
+      <c r="CW1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="CX1" s="70"/>
-      <c r="CY1" s="70"/>
-      <c r="CZ1" s="70"/>
-      <c r="DA1" s="70"/>
-      <c r="DB1" s="70"/>
+      <c r="CX1" s="69"/>
+      <c r="CY1" s="69"/>
+      <c r="CZ1" s="69"/>
+      <c r="DA1" s="69"/>
+      <c r="DB1" s="69"/>
     </row>
     <row r="2" spans="1:113" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7044,13 +7043,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BP6" sqref="BP6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14:AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="28" width="5.625" style="7" customWidth="1"/>
     <col min="29" max="35" width="5.625" style="1" customWidth="1"/>
     <col min="36" max="36" width="5.625" style="50" customWidth="1"/>
@@ -7059,125 +7058,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="71" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="69" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69" t="s">
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AL1" s="70" t="s">
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AL1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70" t="s">
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70" t="s">
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="69"/>
+      <c r="BB1" s="69"/>
+      <c r="BC1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70" t="s">
+      <c r="BD1" s="69"/>
+      <c r="BE1" s="69"/>
+      <c r="BF1" s="69"/>
+      <c r="BG1" s="69"/>
+      <c r="BH1" s="69"/>
+      <c r="BI1" s="69"/>
+      <c r="BJ1" s="69"/>
+      <c r="BK1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
-      <c r="BR1" s="70"/>
-      <c r="BS1" s="70" t="s">
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="69"/>
+      <c r="BP1" s="69"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BS1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BT1" s="70"/>
-      <c r="BU1" s="70"/>
-      <c r="BV1" s="70"/>
-      <c r="BW1" s="70"/>
-      <c r="BX1" s="70"/>
-      <c r="BY1" s="70"/>
-      <c r="BZ1" s="70"/>
-      <c r="CA1" s="70" t="s">
+      <c r="BT1" s="69"/>
+      <c r="BU1" s="69"/>
+      <c r="BV1" s="69"/>
+      <c r="BW1" s="69"/>
+      <c r="BX1" s="69"/>
+      <c r="BY1" s="69"/>
+      <c r="BZ1" s="69"/>
+      <c r="CA1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="CB1" s="70"/>
-      <c r="CC1" s="70"/>
-      <c r="CD1" s="70"/>
-      <c r="CE1" s="70"/>
-      <c r="CF1" s="70"/>
-      <c r="CG1" s="70"/>
-      <c r="CH1" s="70"/>
-      <c r="CI1" s="70" t="s">
+      <c r="CB1" s="69"/>
+      <c r="CC1" s="69"/>
+      <c r="CD1" s="69"/>
+      <c r="CE1" s="69"/>
+      <c r="CF1" s="69"/>
+      <c r="CG1" s="69"/>
+      <c r="CH1" s="69"/>
+      <c r="CI1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="CJ1" s="70"/>
-      <c r="CK1" s="70"/>
-      <c r="CL1" s="70"/>
-      <c r="CM1" s="70"/>
-      <c r="CN1" s="70"/>
-      <c r="CO1" s="70"/>
-      <c r="CP1" s="70"/>
+      <c r="CJ1" s="69"/>
+      <c r="CK1" s="69"/>
+      <c r="CL1" s="69"/>
+      <c r="CM1" s="69"/>
+      <c r="CN1" s="69"/>
+      <c r="CO1" s="69"/>
+      <c r="CP1" s="69"/>
     </row>
     <row r="2" spans="1:94" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7462,13 +7461,7 @@
         <v>24</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>100</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>300</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:94" x14ac:dyDescent="0.25">
@@ -7518,7 +7511,7 @@
         <v>36</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3"/>
@@ -7552,63 +7545,63 @@
         <v>5.1673267796611002</v>
       </c>
       <c r="F6" s="21">
-        <f t="shared" ref="F6:L10" si="0">BD6-AV6-$B$4</f>
-        <v>6.4361207457626977</v>
+        <f>BD6-AV6-$C$4</f>
+        <v>6.3161207457626976</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" si="0"/>
-        <v>5.8199024745761969</v>
+        <f>BE6-AW6-$C$4</f>
+        <v>5.6999024745761968</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" si="0"/>
+        <f>BF6-AX6-$B$4</f>
         <v>5.2221209491526013</v>
       </c>
       <c r="I6" s="21">
-        <f t="shared" si="0"/>
-        <v>5.576411508474604</v>
+        <f>BG6-AY6-$C$4</f>
+        <v>5.4564115084746039</v>
       </c>
       <c r="J6" s="21">
-        <f t="shared" si="0"/>
-        <v>6.0298047457626973</v>
+        <f>BH6-AZ6-$C$4</f>
+        <v>5.9098047457626972</v>
       </c>
       <c r="K6" s="21">
-        <f t="shared" si="0"/>
-        <v>6.2085421694914986</v>
+        <f>BI6-BA6-$C$4</f>
+        <v>6.0885421694914985</v>
       </c>
       <c r="L6" s="21">
-        <f t="shared" si="0"/>
+        <f>BJ6-BB6-$B$4</f>
         <v>5.0342622203389</v>
       </c>
-      <c r="M6" s="66">
+      <c r="M6" s="64">
         <f>E6+AM6-U6-AC6</f>
         <v>10.652589127676764</v>
       </c>
-      <c r="N6" s="66">
-        <f t="shared" ref="N6:T10" si="1">F6+AN6-V6-AD6</f>
-        <v>11.774771590467457</v>
-      </c>
-      <c r="O6" s="66">
-        <f t="shared" si="1"/>
-        <v>11.476758661694385</v>
-      </c>
-      <c r="P6" s="66">
-        <f t="shared" si="1"/>
+      <c r="N6" s="64">
+        <f t="shared" ref="N6:T10" si="0">F6+AN6-V6-AD6</f>
+        <v>11.654771590467458</v>
+      </c>
+      <c r="O6" s="64">
+        <f t="shared" si="0"/>
+        <v>11.356758661694384</v>
+      </c>
+      <c r="P6" s="64">
+        <f t="shared" si="0"/>
         <v>11.090168953566732</v>
       </c>
-      <c r="Q6" s="66">
-        <f t="shared" si="1"/>
-        <v>11.386467914949824</v>
-      </c>
-      <c r="R6" s="66">
-        <f t="shared" si="1"/>
-        <v>11.621735293668589</v>
-      </c>
-      <c r="S6" s="66">
-        <f t="shared" si="1"/>
-        <v>11.571083180658473</v>
-      </c>
-      <c r="T6" s="66">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="64">
+        <f t="shared" si="0"/>
+        <v>11.266467914949825</v>
+      </c>
+      <c r="R6" s="64">
+        <f t="shared" si="0"/>
+        <v>11.501735293668588</v>
+      </c>
+      <c r="S6" s="64">
+        <f t="shared" si="0"/>
+        <v>11.451083180658472</v>
+      </c>
+      <c r="T6" s="64">
+        <f t="shared" si="0"/>
         <v>10.731837191352557</v>
       </c>
       <c r="U6" s="22">
@@ -7616,31 +7609,31 @@
         <v>1.8786213898305988</v>
       </c>
       <c r="V6" s="22">
-        <f t="shared" ref="V6:AB10" si="2">CJ6-AV6</f>
+        <f t="shared" ref="V6:AB10" si="1">CJ6-AV6</f>
         <v>1.7609545084745015</v>
       </c>
       <c r="W6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6139332033897986</v>
       </c>
       <c r="X6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5349114576270999</v>
       </c>
       <c r="Y6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4910397966102025</v>
       </c>
       <c r="Z6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5855188813558989</v>
       </c>
       <c r="AA6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7004498983050027</v>
       </c>
       <c r="AB6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6754250169491023</v>
       </c>
       <c r="AC6" s="6">
@@ -7648,205 +7641,205 @@
         <v>3.9128723232177308E-3</v>
       </c>
       <c r="AD6" s="6">
-        <f t="shared" ref="AD6:AJ10" si="3">$B$6*CB6/60*$B$7*ABS(BL6-BT6)</f>
+        <f t="shared" ref="AD6:AJ10" si="2">$B$6*CB6/60*$B$7*ABS(BL6-BT6)</f>
         <v>3.7844773292180865E-3</v>
       </c>
       <c r="AE6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7868806784625442E-3</v>
       </c>
       <c r="AF6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.8201989757102456E-3</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.9885426772959445E-3</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.9065029415902789E-3</v>
       </c>
       <c r="AI6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.1107854432827621E-3</v>
       </c>
       <c r="AJ6" s="59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.2711984779117608E-3</v>
       </c>
       <c r="AK6" s="58">
         <v>100</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="56">
         <v>7.96949152542373</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="56">
         <v>7.3677966101694796</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="56">
         <v>7.1033898305084797</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="56">
         <v>7.2745762711864499</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="56">
         <v>7.4067796610169401</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="56">
         <v>7.3050847457627199</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="56">
         <v>7.1813559322033802</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="56">
         <v>7.0661016949152602</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="56">
         <v>7.37627118644067</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="56">
         <v>25.519827627118602</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="56">
         <v>24.295505694915299</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="56">
         <v>24.912420610169502</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="56">
         <v>25.454134491525402</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="56">
         <v>25.103494610169498</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="56">
         <v>24.6938231016949</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="56">
         <v>24.471836118644099</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="56">
         <v>25.646267050847499</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="56">
         <v>32.987154406779702</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="56">
         <v>33.031626440677996</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="56">
         <v>33.032323084745698</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="56">
         <v>32.976255440678003</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="56">
         <v>32.979906118644102</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="56">
         <v>33.023627847457597</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="56">
         <v>32.980378288135597</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="56">
         <v>32.980529271186398</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="56">
         <v>34.1729784237288</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="56">
         <v>34.292838745762701</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="56">
         <v>33.855020440677997</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="56">
         <v>33.421231237288097</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="56">
         <v>33.531821864406801</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="56">
         <v>34.089803983050899</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="56">
         <v>34.8506950677966</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="56">
         <v>34.236976220339002</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" s="56">
         <v>36.647864525423699</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" s="56">
         <v>36.686152135593197</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="56">
         <v>36.249127457627097</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" s="56">
         <v>35.835304305084698</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" s="56">
         <v>36.054569355932202</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" s="56">
         <v>36.559537491525397</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" s="56">
         <v>36.817069186440698</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" s="56">
         <v>36.303496627118598</v>
       </c>
-      <c r="CA6" s="61">
+      <c r="CA6" s="65">
         <v>2.9963636363636401E-2</v>
       </c>
-      <c r="CB6" s="61">
+      <c r="CB6" s="65">
         <v>2.99681818181818E-2</v>
       </c>
-      <c r="CC6" s="61">
+      <c r="CC6" s="65">
         <v>2.99772727272727E-2</v>
       </c>
-      <c r="CD6" s="61">
+      <c r="CD6" s="65">
         <v>2.9990909090909099E-2</v>
       </c>
-      <c r="CE6" s="61">
+      <c r="CE6" s="65">
         <v>2.9963636363636401E-2</v>
       </c>
-      <c r="CF6" s="61">
+      <c r="CF6" s="65">
         <v>2.99772727272727E-2</v>
       </c>
-      <c r="CG6" s="61">
+      <c r="CG6" s="65">
         <v>2.99818181818182E-2</v>
       </c>
-      <c r="CH6" s="61">
+      <c r="CH6" s="65">
         <v>0.03</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" s="56">
         <v>27.398449016949201</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" s="56">
         <v>26.056460203389801</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" s="56">
         <v>26.5263538135593</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" s="56">
         <v>26.989045949152501</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" s="56">
         <v>26.594534406779701</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" s="56">
         <v>26.279341983050799</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" s="56">
         <v>26.172286016949101</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" s="56">
         <v>27.321692067796601</v>
       </c>
     </row>
@@ -7865,99 +7858,99 @@
         <v>150</v>
       </c>
       <c r="E7" s="21">
-        <f t="shared" ref="E7:E10" si="4">BC7-AU7-$B$4</f>
+        <f t="shared" ref="E7:E10" si="3">BC7-AU7-$B$4</f>
         <v>5.3696762727271983</v>
       </c>
       <c r="F7" s="21">
-        <f t="shared" si="0"/>
-        <v>6.6758081818181987</v>
+        <f t="shared" ref="F7:F13" si="4">BD7-AV7-$C$4</f>
+        <v>6.5558081818181986</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="0"/>
-        <v>5.8500424545454992</v>
+        <f t="shared" ref="G7:G13" si="5">BE7-AW7-$C$4</f>
+        <v>5.7300424545454991</v>
       </c>
       <c r="H7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H7:L10" si="6">BF7-AX7-$B$4</f>
         <v>5.4510848181818021</v>
       </c>
       <c r="I7" s="21">
-        <f t="shared" si="0"/>
-        <v>5.9823681818181997</v>
+        <f t="shared" ref="I7:I13" si="7">BG7-AY7-$C$4</f>
+        <v>5.8623681818181996</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>6.6195644545455012</v>
       </c>
       <c r="K7" s="21">
-        <f t="shared" si="0"/>
-        <v>6.4858677272727023</v>
+        <f t="shared" ref="K7:K13" si="8">BI7-BA7-$C$4</f>
+        <v>6.3658677272727022</v>
       </c>
       <c r="L7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4.6657591818182036</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="64">
         <f>E7+AM7-U7-AC7</f>
         <v>16.360052876491402</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="64">
+        <f t="shared" si="0"/>
+        <v>17.376696476796148</v>
+      </c>
+      <c r="O7" s="64">
+        <f t="shared" si="0"/>
+        <v>16.812504747715007</v>
+      </c>
+      <c r="P7" s="64">
+        <f t="shared" si="0"/>
+        <v>16.798812935834174</v>
+      </c>
+      <c r="Q7" s="64">
+        <f t="shared" si="0"/>
+        <v>17.237298877621459</v>
+      </c>
+      <c r="R7" s="64">
+        <f t="shared" si="0"/>
+        <v>17.535669258838805</v>
+      </c>
+      <c r="S7" s="64">
+        <f t="shared" si="0"/>
+        <v>16.948822199349749</v>
+      </c>
+      <c r="T7" s="64">
+        <f t="shared" si="0"/>
+        <v>15.608871991915784</v>
+      </c>
+      <c r="U7" s="22">
+        <f t="shared" ref="U7:U10" si="9">CI7-AU7</f>
+        <v>2.3053170909089999</v>
+      </c>
+      <c r="V7" s="22">
         <f t="shared" si="1"/>
-        <v>17.496696476796146</v>
-      </c>
-      <c r="O7" s="66">
+        <v>2.1655781818182014</v>
+      </c>
+      <c r="W7" s="22">
         <f t="shared" si="1"/>
-        <v>16.932504747715008</v>
-      </c>
-      <c r="P7" s="66">
+        <v>2.0222282727273004</v>
+      </c>
+      <c r="X7" s="22">
         <f t="shared" si="1"/>
-        <v>16.798812935834174</v>
-      </c>
-      <c r="Q7" s="66">
+        <v>1.9479938181818</v>
+      </c>
+      <c r="Y7" s="22">
         <f t="shared" si="1"/>
-        <v>17.357298877621457</v>
-      </c>
-      <c r="R7" s="66">
+        <v>1.8207777272728016</v>
+      </c>
+      <c r="Z7" s="22">
         <f t="shared" si="1"/>
-        <v>17.535669258838805</v>
-      </c>
-      <c r="S7" s="66">
+        <v>2.079826909090901</v>
+      </c>
+      <c r="AA7" s="22">
         <f t="shared" si="1"/>
-        <v>17.06882219934975</v>
-      </c>
-      <c r="T7" s="66">
+        <v>2.304735545454502</v>
+      </c>
+      <c r="AB7" s="22">
         <f t="shared" si="1"/>
-        <v>15.608871991915784</v>
-      </c>
-      <c r="U7" s="22">
-        <f t="shared" ref="U7:U10" si="5">CI7-AU7</f>
-        <v>2.3053170909089999</v>
-      </c>
-      <c r="V7" s="22">
-        <f t="shared" si="2"/>
-        <v>2.1655781818182014</v>
-      </c>
-      <c r="W7" s="22">
-        <f t="shared" si="2"/>
-        <v>2.0222282727273004</v>
-      </c>
-      <c r="X7" s="22">
-        <f t="shared" si="2"/>
-        <v>1.9479938181818</v>
-      </c>
-      <c r="Y7" s="22">
-        <f t="shared" si="2"/>
-        <v>1.8207777272728016</v>
-      </c>
-      <c r="Z7" s="22">
-        <f t="shared" si="2"/>
-        <v>2.079826909090901</v>
-      </c>
-      <c r="AA7" s="22">
-        <f t="shared" si="2"/>
-        <v>2.304735545454502</v>
-      </c>
-      <c r="AB7" s="22">
-        <f t="shared" si="2"/>
         <v>2.2713040000000007</v>
       </c>
       <c r="AC7" s="6">
@@ -7965,205 +7958,205 @@
         <v>4.3063053267978664E-3</v>
       </c>
       <c r="AD7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.4426141129508831E-3</v>
       </c>
       <c r="AE7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.4003431940910975E-3</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2780641658275165E-3</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.2915769239398596E-3</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.0682866157947485E-3</v>
       </c>
       <c r="AI7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.219073377552068E-3</v>
       </c>
       <c r="AJ7" s="59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7650080842188318E-3</v>
       </c>
       <c r="AK7" s="58">
         <v>150</v>
       </c>
-      <c r="AL7" s="4">
+      <c r="AL7" s="56">
         <v>14.1</v>
       </c>
-      <c r="AM7" s="17">
+      <c r="AM7" s="56">
         <v>13.3</v>
       </c>
-      <c r="AN7" s="17">
+      <c r="AN7" s="56">
         <v>12.990909090909099</v>
       </c>
-      <c r="AO7" s="17">
+      <c r="AO7" s="56">
         <v>13.1090909090909</v>
       </c>
-      <c r="AP7" s="17">
+      <c r="AP7" s="56">
         <v>13.3</v>
       </c>
-      <c r="AQ7" s="17">
+      <c r="AQ7" s="56">
         <v>13.2</v>
       </c>
-      <c r="AR7" s="17">
+      <c r="AR7" s="56">
         <v>13</v>
       </c>
-      <c r="AS7" s="17">
+      <c r="AS7" s="56">
         <v>12.8909090909091</v>
       </c>
-      <c r="AT7" s="17">
+      <c r="AT7" s="56">
         <v>13.218181818181799</v>
       </c>
-      <c r="AU7" s="18">
+      <c r="AU7" s="56">
         <v>25.328970454545502</v>
       </c>
-      <c r="AV7" s="18">
+      <c r="AV7" s="56">
         <v>24.2369609090909</v>
       </c>
-      <c r="AW7" s="18">
+      <c r="AW7" s="56">
         <v>24.890766636363601</v>
       </c>
-      <c r="AX7" s="18">
+      <c r="AX7" s="56">
         <v>25.034750272727301</v>
       </c>
-      <c r="AY7" s="18">
+      <c r="AY7" s="56">
         <v>24.650071636363599</v>
       </c>
-      <c r="AZ7" s="18">
+      <c r="AZ7" s="56">
         <v>24.2618636363636</v>
       </c>
-      <c r="BA7" s="18">
+      <c r="BA7" s="56">
         <v>24.094816999999999</v>
       </c>
-      <c r="BB7" s="18">
+      <c r="BB7" s="56">
         <v>25.872352818181799</v>
       </c>
-      <c r="BC7" s="17">
+      <c r="BC7" s="56">
         <v>32.9986467272727</v>
       </c>
-      <c r="BD7" s="17">
+      <c r="BD7" s="56">
         <v>33.212769090909099</v>
       </c>
-      <c r="BE7" s="17">
+      <c r="BE7" s="56">
         <v>33.0408090909091</v>
       </c>
-      <c r="BF7" s="17">
+      <c r="BF7" s="56">
         <v>32.785835090909103</v>
       </c>
-      <c r="BG7" s="17">
+      <c r="BG7" s="56">
         <v>32.932439818181798</v>
       </c>
-      <c r="BH7" s="17">
+      <c r="BH7" s="56">
         <v>33.181428090909101</v>
       </c>
-      <c r="BI7" s="17">
+      <c r="BI7" s="56">
         <v>32.880684727272701</v>
       </c>
-      <c r="BJ7" s="17">
+      <c r="BJ7" s="56">
         <v>32.838112000000002</v>
       </c>
-      <c r="BK7" s="18">
+      <c r="BK7" s="56">
         <v>37.307399727272703</v>
       </c>
-      <c r="BL7" s="18">
+      <c r="BL7" s="56">
         <v>37.528754999999997</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BM7" s="56">
         <v>37.077877999999998</v>
       </c>
-      <c r="BN7" s="18">
+      <c r="BN7" s="56">
         <v>36.763829454545501</v>
       </c>
-      <c r="BO7" s="18">
+      <c r="BO7" s="56">
         <v>36.983568818181801</v>
       </c>
-      <c r="BP7" s="18">
+      <c r="BP7" s="56">
         <v>37.810941</v>
       </c>
-      <c r="BQ7" s="18">
+      <c r="BQ7" s="56">
         <v>38.560186909090902</v>
       </c>
-      <c r="BR7" s="18">
+      <c r="BR7" s="56">
         <v>37.764191181818198</v>
       </c>
-      <c r="BS7" s="62">
+      <c r="BS7" s="65">
         <v>40.031131636363597</v>
       </c>
-      <c r="BT7" s="62">
+      <c r="BT7" s="65">
         <v>40.338275818181799</v>
       </c>
-      <c r="BU7" s="62">
+      <c r="BU7" s="65">
         <v>39.858979272727296</v>
       </c>
-      <c r="BV7" s="62">
+      <c r="BV7" s="65">
         <v>39.469288454545499</v>
       </c>
-      <c r="BW7" s="62">
+      <c r="BW7" s="65">
         <v>39.6967502727273</v>
       </c>
-      <c r="BX7" s="62">
+      <c r="BX7" s="65">
         <v>40.385297999999999</v>
       </c>
-      <c r="BY7" s="62">
+      <c r="BY7" s="65">
         <v>40.595011454545499</v>
       </c>
-      <c r="BZ7" s="62">
+      <c r="BZ7" s="65">
         <v>40.142306545454502</v>
       </c>
-      <c r="CA7" s="61">
+      <c r="CA7" s="65">
         <v>2.9963636363636401E-2</v>
       </c>
-      <c r="CB7" s="61">
+      <c r="CB7" s="65">
         <v>2.99681818181818E-2</v>
       </c>
-      <c r="CC7" s="61">
+      <c r="CC7" s="65">
         <v>2.9986363636363599E-2</v>
       </c>
-      <c r="CD7" s="61">
+      <c r="CD7" s="65">
         <v>2.99681818181818E-2</v>
       </c>
-      <c r="CE7" s="61">
+      <c r="CE7" s="65">
         <v>2.99772727272727E-2</v>
       </c>
-      <c r="CF7" s="61">
+      <c r="CF7" s="65">
         <v>2.9950000000000001E-2</v>
       </c>
-      <c r="CG7" s="61">
+      <c r="CG7" s="65">
         <v>2.99818181818182E-2</v>
       </c>
-      <c r="CH7" s="61">
+      <c r="CH7" s="65">
         <v>3.0004545454545499E-2</v>
       </c>
-      <c r="CI7" s="17">
+      <c r="CI7" s="56">
         <v>27.634287545454502</v>
       </c>
-      <c r="CJ7" s="17">
+      <c r="CJ7" s="56">
         <v>26.402539090909102</v>
       </c>
-      <c r="CK7" s="17">
+      <c r="CK7" s="56">
         <v>26.912994909090902</v>
       </c>
-      <c r="CL7" s="17">
+      <c r="CL7" s="56">
         <v>26.982744090909101</v>
       </c>
-      <c r="CM7" s="17">
+      <c r="CM7" s="56">
         <v>26.4708493636364</v>
       </c>
-      <c r="CN7" s="17">
+      <c r="CN7" s="56">
         <v>26.341690545454501</v>
       </c>
-      <c r="CO7" s="17">
+      <c r="CO7" s="56">
         <v>26.399552545454501</v>
       </c>
-      <c r="CP7" s="17">
+      <c r="CP7" s="56">
         <v>28.1436568181818</v>
       </c>
     </row>
@@ -8172,309 +8165,309 @@
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="29">
-        <f t="shared" ref="D8:D10" si="6">AK8</f>
+        <f t="shared" ref="D8:D10" si="10">AK8</f>
         <v>200</v>
       </c>
       <c r="E8" s="21">
+        <f t="shared" si="3"/>
+        <v>5.7993457272728017</v>
+      </c>
+      <c r="F8" s="21">
         <f t="shared" si="4"/>
-        <v>5.7993457272728017</v>
-      </c>
-      <c r="F8" s="21">
+        <v>7.1474543636362977</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="5"/>
+        <v>6.3702733636362989</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="6"/>
+        <v>5.5769023636362975</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="7"/>
+        <v>6.3893065454545042</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="6"/>
+        <v>6.9622141818181982</v>
+      </c>
+      <c r="K8" s="21">
+        <f t="shared" si="8"/>
+        <v>7.1668690909091008</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="6"/>
+        <v>5.9223517272727024</v>
+      </c>
+      <c r="M8" s="64">
+        <f t="shared" ref="M8:M10" si="11">E8+AM8-U8-AC8</f>
+        <v>22.802256949362999</v>
+      </c>
+      <c r="N8" s="64">
         <f t="shared" si="0"/>
-        <v>7.2674543636362978</v>
-      </c>
-      <c r="G8" s="21">
+        <v>23.88387777791289</v>
+      </c>
+      <c r="O8" s="64">
         <f t="shared" si="0"/>
-        <v>6.490273363636299</v>
-      </c>
-      <c r="H8" s="21">
+        <v>23.374504511622462</v>
+      </c>
+      <c r="P8" s="64">
         <f t="shared" si="0"/>
-        <v>5.5769023636362975</v>
-      </c>
-      <c r="I8" s="21">
+        <v>22.894899466509077</v>
+      </c>
+      <c r="Q8" s="64">
         <f t="shared" si="0"/>
-        <v>6.5093065454545043</v>
-      </c>
-      <c r="J8" s="21">
+        <v>23.576537531139394</v>
+      </c>
+      <c r="R8" s="64">
         <f t="shared" si="0"/>
-        <v>6.9622141818181982</v>
-      </c>
-      <c r="K8" s="21">
+        <v>24.079199309364846</v>
+      </c>
+      <c r="S8" s="64">
         <f t="shared" si="0"/>
-        <v>7.286869090909101</v>
-      </c>
-      <c r="L8" s="21">
+        <v>24.136537530574987</v>
+      </c>
+      <c r="T8" s="64">
         <f t="shared" si="0"/>
-        <v>5.9223517272727024</v>
-      </c>
-      <c r="M8" s="66">
-        <f t="shared" ref="M8:M10" si="7">E8+AM8-U8-AC8</f>
-        <v>22.802256949362999</v>
-      </c>
-      <c r="N8" s="66">
+        <v>23.209333107198901</v>
+      </c>
+      <c r="U8" s="22">
+        <f t="shared" si="9"/>
+        <v>2.7652038181819023</v>
+      </c>
+      <c r="V8" s="22">
         <f t="shared" si="1"/>
-        <v>24.003877777912887</v>
-      </c>
-      <c r="O8" s="66">
+        <v>2.6679078181817992</v>
+      </c>
+      <c r="W8" s="22">
         <f t="shared" si="1"/>
-        <v>23.494504511622459</v>
-      </c>
-      <c r="P8" s="66">
+        <v>2.581704000000002</v>
+      </c>
+      <c r="X8" s="22">
         <f t="shared" si="1"/>
-        <v>22.894899466509077</v>
-      </c>
-      <c r="Q8" s="66">
+        <v>2.4497509999999991</v>
+      </c>
+      <c r="Y8" s="22">
         <f t="shared" si="1"/>
-        <v>23.696537531139395</v>
-      </c>
-      <c r="R8" s="66">
+        <v>2.3985983636363031</v>
+      </c>
+      <c r="Z8" s="22">
         <f t="shared" si="1"/>
-        <v>24.079199309364846</v>
-      </c>
-      <c r="S8" s="66">
+        <v>2.3508060909090993</v>
+      </c>
+      <c r="AA8" s="22">
         <f t="shared" si="1"/>
-        <v>24.256537530574985</v>
-      </c>
-      <c r="T8" s="66">
+        <v>2.4343919090908983</v>
+      </c>
+      <c r="AB8" s="22">
         <f t="shared" si="1"/>
-        <v>23.209333107198901</v>
-      </c>
-      <c r="U8" s="22">
-        <f t="shared" si="5"/>
-        <v>2.7652038181819023</v>
-      </c>
-      <c r="V8" s="22">
+        <v>2.5170291818181987</v>
+      </c>
+      <c r="AC8" s="6">
+        <f t="shared" ref="AC8:AC10" si="12">$B$6*CA8/60*$B$7*ABS(BK8-BS8)</f>
+        <v>4.6122324551977111E-3</v>
+      </c>
+      <c r="AD8" s="6">
         <f t="shared" si="2"/>
-        <v>2.6679078181817992</v>
-      </c>
-      <c r="W8" s="22">
+        <v>4.7596766325091033E-3</v>
+      </c>
+      <c r="AE8" s="6">
         <f t="shared" si="2"/>
-        <v>2.581704000000002</v>
-      </c>
-      <c r="X8" s="22">
+        <v>4.9739429229392375E-3</v>
+      </c>
+      <c r="AF8" s="6">
         <f t="shared" si="2"/>
-        <v>2.4497509999999991</v>
-      </c>
-      <c r="Y8" s="22">
+        <v>4.979169854516902E-3</v>
+      </c>
+      <c r="AG8" s="6">
         <f t="shared" si="2"/>
-        <v>2.3985983636363031</v>
-      </c>
-      <c r="Z8" s="22">
+        <v>5.0797415879068634E-3</v>
+      </c>
+      <c r="AH8" s="6">
         <f t="shared" si="2"/>
-        <v>2.3508060909090993</v>
-      </c>
-      <c r="AA8" s="22">
+        <v>4.9360542715530305E-3</v>
+      </c>
+      <c r="AI8" s="6">
         <f t="shared" si="2"/>
-        <v>2.4343919090908983</v>
-      </c>
-      <c r="AB8" s="22">
+        <v>5.0305603341163335E-3</v>
+      </c>
+      <c r="AJ8" s="59">
         <f t="shared" si="2"/>
-        <v>2.5170291818181987</v>
-      </c>
-      <c r="AC8" s="6">
-        <f t="shared" ref="AC8:AC10" si="8">$B$6*CA8/60*$B$7*ABS(BK8-BS8)</f>
-        <v>4.6122324551977111E-3</v>
-      </c>
-      <c r="AD8" s="6">
-        <f t="shared" si="3"/>
-        <v>4.7596766325091033E-3</v>
-      </c>
-      <c r="AE8" s="6">
-        <f t="shared" si="3"/>
-        <v>4.9739429229392375E-3</v>
-      </c>
-      <c r="AF8" s="6">
-        <f t="shared" si="3"/>
-        <v>4.979169854516902E-3</v>
-      </c>
-      <c r="AG8" s="6">
-        <f t="shared" si="3"/>
-        <v>5.0797415879068634E-3</v>
-      </c>
-      <c r="AH8" s="6">
-        <f t="shared" si="3"/>
-        <v>4.9360542715530305E-3</v>
-      </c>
-      <c r="AI8" s="6">
-        <f t="shared" si="3"/>
-        <v>5.0305603341163335E-3</v>
-      </c>
-      <c r="AJ8" s="59">
-        <f t="shared" si="3"/>
         <v>5.0803473465033952E-3</v>
       </c>
       <c r="AK8" s="58">
         <v>200</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="56">
         <v>20.645454545454498</v>
       </c>
-      <c r="AM8" s="17">
+      <c r="AM8" s="56">
         <v>19.772727272727298</v>
       </c>
-      <c r="AN8" s="17">
+      <c r="AN8" s="56">
         <v>19.409090909090899</v>
       </c>
-      <c r="AO8" s="17">
+      <c r="AO8" s="56">
         <v>19.590909090909101</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AP8" s="56">
         <v>19.772727272727298</v>
       </c>
-      <c r="AQ8" s="17">
+      <c r="AQ8" s="56">
         <v>19.590909090909101</v>
       </c>
-      <c r="AR8" s="17">
+      <c r="AR8" s="56">
         <v>19.472727272727301</v>
       </c>
-      <c r="AS8" s="17">
+      <c r="AS8" s="56">
         <v>19.409090909090899</v>
       </c>
-      <c r="AT8" s="17">
+      <c r="AT8" s="56">
         <v>19.809090909090902</v>
       </c>
-      <c r="AU8" s="18">
+      <c r="AU8" s="56">
         <v>24.922550636363599</v>
       </c>
-      <c r="AV8" s="18">
+      <c r="AV8" s="56">
         <v>23.6482511818182</v>
       </c>
-      <c r="AW8" s="18">
+      <c r="AW8" s="56">
         <v>24.2143683636364</v>
       </c>
-      <c r="AX8" s="18">
+      <c r="AX8" s="56">
         <v>24.915798272727301</v>
       </c>
-      <c r="AY8" s="18">
+      <c r="AY8" s="56">
         <v>24.153505363636398</v>
       </c>
-      <c r="AZ8" s="18">
+      <c r="AZ8" s="56">
         <v>23.597017636363599</v>
       </c>
-      <c r="BA8" s="18">
+      <c r="BA8" s="56">
         <v>23.241274909090901</v>
       </c>
-      <c r="BB8" s="18">
+      <c r="BB8" s="56">
         <v>24.814875909090901</v>
       </c>
-      <c r="BC8" s="17">
+      <c r="BC8" s="56">
         <v>33.021896363636401</v>
       </c>
-      <c r="BD8" s="17">
+      <c r="BD8" s="56">
         <v>33.215705545454497</v>
       </c>
-      <c r="BE8" s="17">
+      <c r="BE8" s="56">
         <v>33.004641727272698</v>
       </c>
-      <c r="BF8" s="17">
+      <c r="BF8" s="56">
         <v>32.792700636363598</v>
       </c>
-      <c r="BG8" s="17">
+      <c r="BG8" s="56">
         <v>32.962811909090902</v>
       </c>
-      <c r="BH8" s="17">
+      <c r="BH8" s="56">
         <v>32.859231818181797</v>
       </c>
-      <c r="BI8" s="17">
+      <c r="BI8" s="56">
         <v>32.828144000000002</v>
       </c>
-      <c r="BJ8" s="17">
+      <c r="BJ8" s="56">
         <v>33.037227636363603</v>
       </c>
-      <c r="BK8" s="18">
+      <c r="BK8" s="56">
         <v>41.148794363636398</v>
       </c>
-      <c r="BL8" s="18">
+      <c r="BL8" s="56">
         <v>41.339423090909101</v>
       </c>
-      <c r="BM8" s="18">
+      <c r="BM8" s="56">
         <v>40.834023727272701</v>
       </c>
-      <c r="BN8" s="18">
+      <c r="BN8" s="56">
         <v>40.501472181818201</v>
       </c>
-      <c r="BO8" s="18">
+      <c r="BO8" s="56">
         <v>40.512454363636401</v>
       </c>
-      <c r="BP8" s="18">
+      <c r="BP8" s="56">
         <v>40.635348</v>
       </c>
-      <c r="BQ8" s="18">
+      <c r="BQ8" s="56">
         <v>40.718603727272701</v>
       </c>
-      <c r="BR8" s="18">
+      <c r="BR8" s="56">
         <v>40.479633636363602</v>
       </c>
-      <c r="BS8" s="62">
+      <c r="BS8" s="65">
         <v>44.066910090909097</v>
       </c>
-      <c r="BT8" s="62">
+      <c r="BT8" s="65">
         <v>44.350368454545503</v>
       </c>
-      <c r="BU8" s="62">
+      <c r="BU8" s="65">
         <v>43.9786043636364</v>
       </c>
-      <c r="BV8" s="62">
+      <c r="BV8" s="65">
         <v>43.649834727272697</v>
       </c>
-      <c r="BW8" s="62">
+      <c r="BW8" s="65">
         <v>43.723435181818203</v>
       </c>
-      <c r="BX8" s="62">
+      <c r="BX8" s="65">
         <v>43.756448272727297</v>
       </c>
-      <c r="BY8" s="62">
+      <c r="BY8" s="65">
         <v>43.899460818181801</v>
       </c>
-      <c r="BZ8" s="62">
+      <c r="BZ8" s="65">
         <v>43.690997363636399</v>
       </c>
-      <c r="CA8" s="61">
+      <c r="CA8" s="65">
         <v>2.9954545454545501E-2</v>
       </c>
-      <c r="CB8" s="61">
+      <c r="CB8" s="65">
         <v>2.9959090909090901E-2</v>
       </c>
-      <c r="CC8" s="61">
+      <c r="CC8" s="65">
         <v>2.99772727272727E-2</v>
       </c>
-      <c r="CD8" s="61">
+      <c r="CD8" s="65">
         <v>2.99727272727273E-2</v>
       </c>
-      <c r="CE8" s="61">
+      <c r="CE8" s="65">
         <v>2.99818181818182E-2</v>
       </c>
-      <c r="CF8" s="61">
+      <c r="CF8" s="65">
         <v>2.99727272727273E-2</v>
       </c>
-      <c r="CG8" s="61">
+      <c r="CG8" s="65">
         <v>2.99727272727273E-2</v>
       </c>
-      <c r="CH8" s="61">
+      <c r="CH8" s="65">
         <v>2.99818181818182E-2</v>
       </c>
-      <c r="CI8" s="17">
+      <c r="CI8" s="56">
         <v>27.687754454545502</v>
       </c>
-      <c r="CJ8" s="17">
+      <c r="CJ8" s="56">
         <v>26.316158999999999</v>
       </c>
-      <c r="CK8" s="17">
+      <c r="CK8" s="56">
         <v>26.796072363636402</v>
       </c>
-      <c r="CL8" s="17">
+      <c r="CL8" s="56">
         <v>27.3655492727273</v>
       </c>
-      <c r="CM8" s="17">
+      <c r="CM8" s="56">
         <v>26.552103727272701</v>
       </c>
-      <c r="CN8" s="17">
+      <c r="CN8" s="56">
         <v>25.947823727272699</v>
       </c>
-      <c r="CO8" s="17">
+      <c r="CO8" s="56">
         <v>25.675666818181799</v>
       </c>
-      <c r="CP8" s="17">
+      <c r="CP8" s="56">
         <v>27.3319050909091</v>
       </c>
     </row>
@@ -8483,309 +8476,309 @@
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="29">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="3"/>
+        <v>6.4254176363637017</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="4"/>
+        <v>7.426462727272698</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="5"/>
+        <v>6.5929791818180998</v>
+      </c>
+      <c r="H9" s="21">
         <f t="shared" si="6"/>
-        <v>250</v>
-      </c>
-      <c r="E9" s="21">
-        <f t="shared" si="4"/>
-        <v>6.4254176363637017</v>
-      </c>
-      <c r="F9" s="21">
+        <v>6.4497204545455</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="7"/>
+        <v>7.042010545454497</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="6"/>
+        <v>7.4213520909090969</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" si="8"/>
+        <v>7.8935456363635961</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="6"/>
+        <v>6.3211112727273013</v>
+      </c>
+      <c r="M9" s="64">
+        <f t="shared" si="11"/>
+        <v>30.42664482906099</v>
+      </c>
+      <c r="N9" s="64">
         <f t="shared" si="0"/>
-        <v>7.5464627272726981</v>
-      </c>
-      <c r="G9" s="21">
+        <v>31.049807702500999</v>
+      </c>
+      <c r="O9" s="64">
         <f t="shared" si="0"/>
-        <v>6.7129791818180999</v>
-      </c>
-      <c r="H9" s="21">
+        <v>30.596614098330978</v>
+      </c>
+      <c r="P9" s="64">
         <f t="shared" si="0"/>
-        <v>6.4497204545455</v>
-      </c>
-      <c r="I9" s="21">
+        <v>30.621706714398922</v>
+      </c>
+      <c r="Q9" s="64">
         <f t="shared" si="0"/>
-        <v>7.1620105454544971</v>
-      </c>
-      <c r="J9" s="21">
+        <v>31.045360812371825</v>
+      </c>
+      <c r="R9" s="64">
         <f t="shared" si="0"/>
-        <v>7.4213520909090969</v>
-      </c>
-      <c r="K9" s="21">
+        <v>31.290554705555554</v>
+      </c>
+      <c r="S9" s="64">
         <f t="shared" si="0"/>
-        <v>8.0135456363635953</v>
-      </c>
-      <c r="L9" s="21">
+        <v>31.627027827245488</v>
+      </c>
+      <c r="T9" s="64">
         <f t="shared" si="0"/>
-        <v>6.3211112727273013</v>
-      </c>
-      <c r="M9" s="66">
-        <f t="shared" si="7"/>
-        <v>30.42664482906099</v>
-      </c>
-      <c r="N9" s="66">
+        <v>30.602575334686776</v>
+      </c>
+      <c r="U9" s="22">
+        <f t="shared" si="9"/>
+        <v>3.1921711818181997</v>
+      </c>
+      <c r="V9" s="22">
         <f t="shared" si="1"/>
-        <v>31.169807702500997</v>
-      </c>
-      <c r="O9" s="66">
+        <v>3.106565363636399</v>
+      </c>
+      <c r="W9" s="22">
         <f t="shared" si="1"/>
-        <v>30.716614098330982</v>
-      </c>
-      <c r="P9" s="66">
+        <v>2.9443938181817977</v>
+      </c>
+      <c r="X9" s="22">
         <f t="shared" si="1"/>
-        <v>30.621706714398922</v>
-      </c>
-      <c r="Q9" s="66">
+        <v>3.0943696363637017</v>
+      </c>
+      <c r="Y9" s="22">
         <f t="shared" si="1"/>
-        <v>31.16536081237183</v>
-      </c>
-      <c r="R9" s="66">
+        <v>2.972139727272701</v>
+      </c>
+      <c r="Z9" s="22">
         <f t="shared" si="1"/>
-        <v>31.290554705555554</v>
-      </c>
-      <c r="S9" s="66">
+        <v>2.9062109090908983</v>
+      </c>
+      <c r="AA9" s="22">
         <f t="shared" si="1"/>
-        <v>31.747027827245486</v>
-      </c>
-      <c r="T9" s="66">
+        <v>2.9512144545454007</v>
+      </c>
+      <c r="AB9" s="22">
         <f t="shared" si="1"/>
-        <v>30.602575334686776</v>
-      </c>
-      <c r="U9" s="22">
-        <f t="shared" si="5"/>
-        <v>3.1921711818181997</v>
-      </c>
-      <c r="V9" s="22">
+        <v>2.9665983636364004</v>
+      </c>
+      <c r="AC9" s="6">
+        <f t="shared" si="12"/>
+        <v>6.6016254845095391E-3</v>
+      </c>
+      <c r="AD9" s="6">
         <f t="shared" si="2"/>
-        <v>3.106565363636399</v>
-      </c>
-      <c r="W9" s="22">
+        <v>6.4532974988990733E-3</v>
+      </c>
+      <c r="AE9" s="6">
         <f t="shared" si="2"/>
-        <v>2.9443938181817977</v>
-      </c>
-      <c r="X9" s="22">
+        <v>6.5167198508223499E-3</v>
+      </c>
+      <c r="AF9" s="6">
         <f t="shared" si="2"/>
-        <v>3.0943696363637017</v>
-      </c>
-      <c r="Y9" s="22">
+        <v>6.3713765101763159E-3</v>
+      </c>
+      <c r="AG9" s="6">
         <f t="shared" si="2"/>
-        <v>2.972139727272701</v>
-      </c>
-      <c r="Z9" s="22">
+        <v>6.3281876281675023E-3</v>
+      </c>
+      <c r="AH9" s="6">
         <f t="shared" si="2"/>
-        <v>2.9062109090908983</v>
-      </c>
-      <c r="AA9" s="22">
+        <v>6.4046580808480051E-3</v>
+      </c>
+      <c r="AI9" s="6">
         <f t="shared" si="2"/>
-        <v>2.9512144545454007</v>
-      </c>
-      <c r="AB9" s="22">
+        <v>6.2124454818039227E-3</v>
+      </c>
+      <c r="AJ9" s="59">
         <f t="shared" si="2"/>
-        <v>2.9665983636364004</v>
-      </c>
-      <c r="AC9" s="6">
-        <f t="shared" si="8"/>
-        <v>6.6016254845095391E-3</v>
-      </c>
-      <c r="AD9" s="6">
-        <f t="shared" si="3"/>
-        <v>6.4532974988990733E-3</v>
-      </c>
-      <c r="AE9" s="6">
-        <f t="shared" si="3"/>
-        <v>6.5167198508223499E-3</v>
-      </c>
-      <c r="AF9" s="6">
-        <f t="shared" si="3"/>
-        <v>6.3713765101763159E-3</v>
-      </c>
-      <c r="AG9" s="6">
-        <f t="shared" si="3"/>
-        <v>6.3281876281675023E-3</v>
-      </c>
-      <c r="AH9" s="6">
-        <f t="shared" si="3"/>
-        <v>6.4046580808480051E-3</v>
-      </c>
-      <c r="AI9" s="6">
-        <f t="shared" si="3"/>
-        <v>6.2124454818039227E-3</v>
-      </c>
-      <c r="AJ9" s="59">
-        <f t="shared" si="3"/>
         <v>6.4830289496235361E-3</v>
       </c>
       <c r="AK9" s="58">
         <v>250</v>
       </c>
-      <c r="AL9" s="4">
+      <c r="AL9" s="56">
         <v>28.3</v>
       </c>
-      <c r="AM9" s="17">
+      <c r="AM9" s="56">
         <v>27.2</v>
       </c>
-      <c r="AN9" s="17">
+      <c r="AN9" s="56">
         <v>26.736363636363599</v>
       </c>
-      <c r="AO9" s="17">
+      <c r="AO9" s="56">
         <v>26.954545454545499</v>
       </c>
-      <c r="AP9" s="17">
+      <c r="AP9" s="56">
         <v>27.272727272727298</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="AQ9" s="56">
         <v>26.981818181818198</v>
       </c>
-      <c r="AR9" s="17">
+      <c r="AR9" s="56">
         <v>26.781818181818199</v>
       </c>
-      <c r="AS9" s="17">
+      <c r="AS9" s="56">
         <v>26.690909090909098</v>
       </c>
-      <c r="AT9" s="17">
+      <c r="AT9" s="56">
         <v>27.2545454545455</v>
       </c>
-      <c r="AU9" s="18">
+      <c r="AU9" s="56">
         <v>24.489117727272699</v>
       </c>
-      <c r="AV9" s="18">
+      <c r="AV9" s="56">
         <v>23.159037909090902</v>
       </c>
-      <c r="AW9" s="18">
+      <c r="AW9" s="56">
         <v>23.778953363636401</v>
       </c>
-      <c r="AX9" s="18">
+      <c r="AX9" s="56">
         <v>24.1769746363636</v>
       </c>
-      <c r="AY9" s="18">
+      <c r="AY9" s="56">
         <v>23.6942124545455</v>
       </c>
-      <c r="AZ9" s="18">
+      <c r="AZ9" s="56">
         <v>23.101369727272701</v>
       </c>
-      <c r="BA9" s="18">
+      <c r="BA9" s="56">
         <v>22.732669363636401</v>
       </c>
-      <c r="BB9" s="18">
+      <c r="BB9" s="56">
         <v>24.599119818181801</v>
       </c>
-      <c r="BC9" s="17">
+      <c r="BC9" s="56">
         <v>33.214535363636401</v>
       </c>
-      <c r="BD9" s="17">
+      <c r="BD9" s="56">
         <v>33.0055006363636</v>
       </c>
-      <c r="BE9" s="17">
+      <c r="BE9" s="56">
         <v>32.7919325454545</v>
       </c>
-      <c r="BF9" s="17">
+      <c r="BF9" s="56">
         <v>32.926695090909099</v>
       </c>
-      <c r="BG9" s="17">
+      <c r="BG9" s="56">
         <v>33.156222999999997</v>
       </c>
-      <c r="BH9" s="17">
+      <c r="BH9" s="56">
         <v>32.822721818181797</v>
       </c>
-      <c r="BI9" s="17">
+      <c r="BI9" s="56">
         <v>33.046214999999997</v>
       </c>
-      <c r="BJ9" s="17">
+      <c r="BJ9" s="56">
         <v>33.220231090909103</v>
       </c>
-      <c r="BK9" s="18">
+      <c r="BK9" s="56">
         <v>44.965983181818203</v>
       </c>
-      <c r="BL9" s="18">
+      <c r="BL9" s="56">
         <v>45.387287909090901</v>
       </c>
-      <c r="BM9" s="18">
+      <c r="BM9" s="56">
         <v>44.963858454545502</v>
       </c>
-      <c r="BN9" s="18">
+      <c r="BN9" s="56">
         <v>44.613250272727299</v>
       </c>
-      <c r="BO9" s="18">
+      <c r="BO9" s="56">
         <v>44.748230999999997</v>
       </c>
-      <c r="BP9" s="18">
+      <c r="BP9" s="56">
         <v>44.759838999999999</v>
       </c>
-      <c r="BQ9" s="18">
+      <c r="BQ9" s="56">
         <v>44.925552363636399</v>
       </c>
-      <c r="BR9" s="18">
+      <c r="BR9" s="56">
         <v>44.5000725454546</v>
       </c>
-      <c r="BS9" s="62">
+      <c r="BS9" s="65">
         <v>49.140868454545497</v>
       </c>
-      <c r="BT9" s="62">
+      <c r="BT9" s="65">
         <v>49.467132545454497</v>
       </c>
-      <c r="BU9" s="62">
+      <c r="BU9" s="65">
         <v>49.085049181818199</v>
       </c>
-      <c r="BV9" s="62">
+      <c r="BV9" s="65">
         <v>48.643136727272697</v>
       </c>
-      <c r="BW9" s="62">
+      <c r="BW9" s="65">
         <v>48.749586545454498</v>
       </c>
-      <c r="BX9" s="62">
+      <c r="BX9" s="65">
         <v>48.810775999999997</v>
       </c>
-      <c r="BY9" s="62">
+      <c r="BY9" s="65">
         <v>48.854319181818198</v>
       </c>
-      <c r="BZ9" s="62">
+      <c r="BZ9" s="65">
         <v>48.598713727272703</v>
       </c>
-      <c r="CA9" s="61">
+      <c r="CA9" s="65">
         <v>2.99681818181818E-2</v>
       </c>
-      <c r="CB9" s="61">
+      <c r="CB9" s="65">
         <v>2.99772727272727E-2</v>
       </c>
-      <c r="CC9" s="61">
+      <c r="CC9" s="65">
         <v>2.99681818181818E-2</v>
       </c>
-      <c r="CD9" s="61">
+      <c r="CD9" s="65">
         <v>2.9963636363636401E-2</v>
       </c>
-      <c r="CE9" s="61">
+      <c r="CE9" s="65">
         <v>2.99727272727273E-2</v>
       </c>
-      <c r="CF9" s="61">
+      <c r="CF9" s="65">
         <v>2.9963636363636401E-2</v>
       </c>
-      <c r="CG9" s="61">
+      <c r="CG9" s="65">
         <v>2.99681818181818E-2</v>
       </c>
-      <c r="CH9" s="61">
+      <c r="CH9" s="65">
         <v>2.99772727272727E-2</v>
       </c>
-      <c r="CI9" s="17">
+      <c r="CI9" s="56">
         <v>27.681288909090899</v>
       </c>
-      <c r="CJ9" s="17">
+      <c r="CJ9" s="56">
         <v>26.265603272727301</v>
       </c>
-      <c r="CK9" s="17">
+      <c r="CK9" s="56">
         <v>26.723347181818198</v>
       </c>
-      <c r="CL9" s="17">
+      <c r="CL9" s="56">
         <v>27.271344272727301</v>
       </c>
-      <c r="CM9" s="17">
+      <c r="CM9" s="56">
         <v>26.666352181818201</v>
       </c>
-      <c r="CN9" s="17">
+      <c r="CN9" s="56">
         <v>26.007580636363599</v>
       </c>
-      <c r="CO9" s="17">
+      <c r="CO9" s="56">
         <v>25.683883818181801</v>
       </c>
-      <c r="CP9" s="17">
+      <c r="CP9" s="56">
         <v>27.565718181818202</v>
       </c>
     </row>
@@ -8794,309 +8787,309 @@
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="29">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="3"/>
+        <v>6.6396501818181983</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="4"/>
+        <v>7.7111780000000021</v>
+      </c>
+      <c r="G10" s="21">
+        <f t="shared" si="5"/>
+        <v>7.2113631818182018</v>
+      </c>
+      <c r="H10" s="21">
         <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="E10" s="21">
-        <f t="shared" si="4"/>
-        <v>6.6396501818181983</v>
-      </c>
-      <c r="F10" s="21">
+        <v>7.0419417272727012</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="7"/>
+        <v>7.2911033636364042</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="6"/>
+        <v>7.7407471818181977</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="8"/>
+        <v>8.1054005454544988</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="6"/>
+        <v>6.2326523636364017</v>
+      </c>
+      <c r="M10" s="64">
+        <f t="shared" si="11"/>
+        <v>38.414463832459951</v>
+      </c>
+      <c r="N10" s="64">
         <f t="shared" si="0"/>
-        <v>7.8311780000000022</v>
-      </c>
-      <c r="G10" s="21">
+        <v>38.809256360872247</v>
+      </c>
+      <c r="O10" s="64">
         <f t="shared" si="0"/>
-        <v>7.3313631818182019</v>
-      </c>
-      <c r="H10" s="21">
+        <v>38.62796594982246</v>
+      </c>
+      <c r="P10" s="64">
         <f t="shared" si="0"/>
-        <v>7.0419417272727012</v>
-      </c>
-      <c r="I10" s="21">
+        <v>39.106497576732174</v>
+      </c>
+      <c r="Q10" s="64">
         <f t="shared" si="0"/>
-        <v>7.4111033636364043</v>
-      </c>
-      <c r="J10" s="21">
+        <v>38.857378413290398</v>
+      </c>
+      <c r="R10" s="64">
         <f t="shared" si="0"/>
-        <v>7.7407471818181977</v>
-      </c>
-      <c r="K10" s="21">
+        <v>38.939474489445502</v>
+      </c>
+      <c r="S10" s="64">
         <f t="shared" si="0"/>
-        <v>8.2254005454544981</v>
-      </c>
-      <c r="L10" s="21">
+        <v>38.740369974593939</v>
+      </c>
+      <c r="T10" s="64">
         <f t="shared" si="0"/>
-        <v>6.2326523636364017</v>
-      </c>
-      <c r="M10" s="66">
-        <f t="shared" si="7"/>
-        <v>38.414463832459951</v>
-      </c>
-      <c r="N10" s="66">
+        <v>37.551283331651319</v>
+      </c>
+      <c r="U10" s="22">
+        <f t="shared" si="9"/>
+        <v>3.7805229090908981</v>
+      </c>
+      <c r="V10" s="22">
         <f t="shared" si="1"/>
-        <v>38.929256360872252</v>
-      </c>
-      <c r="O10" s="66">
+        <v>3.8027300000000004</v>
+      </c>
+      <c r="W10" s="22">
         <f t="shared" si="1"/>
-        <v>38.747965949822465</v>
-      </c>
-      <c r="P10" s="66">
+        <v>3.7205461818182002</v>
+      </c>
+      <c r="X10" s="22">
         <f t="shared" si="1"/>
-        <v>39.106497576732174</v>
-      </c>
-      <c r="Q10" s="66">
+        <v>3.4635655454545997</v>
+      </c>
+      <c r="Y10" s="22">
         <f t="shared" si="1"/>
-        <v>38.977378413290403</v>
-      </c>
-      <c r="R10" s="66">
+        <v>3.6255353636364021</v>
+      </c>
+      <c r="Z10" s="22">
         <f t="shared" si="1"/>
-        <v>38.939474489445502</v>
-      </c>
-      <c r="S10" s="66">
+        <v>3.7025866363635984</v>
+      </c>
+      <c r="AA10" s="22">
         <f t="shared" si="1"/>
-        <v>38.860369974593937</v>
-      </c>
-      <c r="T10" s="66">
+        <v>4.0036907272726978</v>
+      </c>
+      <c r="AB10" s="22">
         <f t="shared" si="1"/>
-        <v>37.551283331651319</v>
-      </c>
-      <c r="U10" s="22">
-        <f t="shared" si="5"/>
-        <v>3.7805229090908981</v>
-      </c>
-      <c r="V10" s="22">
+        <v>3.9560288181817995</v>
+      </c>
+      <c r="AC10" s="6">
+        <f t="shared" si="12"/>
+        <v>8.2998039037469225E-3</v>
+      </c>
+      <c r="AD10" s="6">
         <f t="shared" si="2"/>
-        <v>3.8027300000000004</v>
-      </c>
-      <c r="W10" s="22">
+        <v>8.2825482186491203E-3</v>
+      </c>
+      <c r="AE10" s="6">
         <f t="shared" si="2"/>
-        <v>3.7205461818182002</v>
-      </c>
-      <c r="X10" s="22">
+        <v>8.3055956320373624E-3</v>
+      </c>
+      <c r="AF10" s="6">
         <f t="shared" si="2"/>
-        <v>3.4635655454545997</v>
-      </c>
-      <c r="Y10" s="22">
+        <v>8.2422414495287415E-3</v>
+      </c>
+      <c r="AG10" s="6">
         <f t="shared" si="2"/>
-        <v>3.6255353636364021</v>
-      </c>
-      <c r="Z10" s="22">
+        <v>8.189586709605734E-3</v>
+      </c>
+      <c r="AH10" s="6">
         <f t="shared" si="2"/>
-        <v>3.7025866363635984</v>
-      </c>
-      <c r="AA10" s="22">
+        <v>7.7769650999988029E-3</v>
+      </c>
+      <c r="AI10" s="6">
         <f t="shared" si="2"/>
-        <v>4.0036907272726978</v>
-      </c>
-      <c r="AB10" s="22">
+        <v>6.7943890423615132E-3</v>
+      </c>
+      <c r="AJ10" s="59">
         <f t="shared" si="2"/>
-        <v>3.9560288181817995</v>
-      </c>
-      <c r="AC10" s="6">
-        <f t="shared" si="8"/>
-        <v>8.2998039037469225E-3</v>
-      </c>
-      <c r="AD10" s="6">
-        <f t="shared" si="3"/>
-        <v>8.2825482186491203E-3</v>
-      </c>
-      <c r="AE10" s="6">
-        <f t="shared" si="3"/>
-        <v>8.3055956320373624E-3</v>
-      </c>
-      <c r="AF10" s="6">
-        <f t="shared" si="3"/>
-        <v>8.2422414495287415E-3</v>
-      </c>
-      <c r="AG10" s="6">
-        <f t="shared" si="3"/>
-        <v>8.189586709605734E-3</v>
-      </c>
-      <c r="AH10" s="6">
-        <f t="shared" si="3"/>
-        <v>7.7769650999988029E-3</v>
-      </c>
-      <c r="AI10" s="6">
-        <f t="shared" si="3"/>
-        <v>6.7943890423615132E-3</v>
-      </c>
-      <c r="AJ10" s="59">
-        <f t="shared" si="3"/>
         <v>7.1583956214860541E-3</v>
       </c>
       <c r="AK10" s="58">
         <v>300</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AL10" s="56">
         <v>36.818181818181799</v>
       </c>
-      <c r="AM10" s="17">
+      <c r="AM10" s="56">
         <v>35.563636363636398</v>
       </c>
-      <c r="AN10" s="17">
+      <c r="AN10" s="56">
         <v>34.909090909090899</v>
       </c>
-      <c r="AO10" s="17">
+      <c r="AO10" s="56">
         <v>35.145454545454498</v>
       </c>
-      <c r="AP10" s="17">
+      <c r="AP10" s="56">
         <v>35.536363636363603</v>
       </c>
-      <c r="AQ10" s="17">
+      <c r="AQ10" s="56">
         <v>35.200000000000003</v>
       </c>
-      <c r="AR10" s="17">
+      <c r="AR10" s="56">
         <v>34.909090909090899</v>
       </c>
-      <c r="AS10" s="17">
+      <c r="AS10" s="56">
         <v>34.645454545454498</v>
       </c>
-      <c r="AT10" s="17">
+      <c r="AT10" s="56">
         <v>35.281818181818203</v>
       </c>
-      <c r="AU10" s="18">
+      <c r="AU10" s="56">
         <v>24.063237818181801</v>
       </c>
-      <c r="AV10" s="18">
+      <c r="AV10" s="56">
         <v>22.6606316363636</v>
       </c>
-      <c r="AW10" s="18">
+      <c r="AW10" s="56">
         <v>23.318643000000002</v>
       </c>
-      <c r="AX10" s="18">
+      <c r="AX10" s="56">
         <v>23.8672039090909</v>
       </c>
-      <c r="AY10" s="18">
+      <c r="AY10" s="56">
         <v>23.353022818181799</v>
       </c>
-      <c r="AZ10" s="18">
+      <c r="AZ10" s="56">
         <v>22.932531090909102</v>
       </c>
-      <c r="BA10" s="18">
+      <c r="BA10" s="56">
         <v>22.662418363636402</v>
       </c>
-      <c r="BB10" s="18">
+      <c r="BB10" s="56">
         <v>24.548278818181799</v>
       </c>
-      <c r="BC10" s="17">
+      <c r="BC10" s="56">
         <v>33.002887999999999</v>
       </c>
-      <c r="BD10" s="17">
+      <c r="BD10" s="56">
         <v>32.791809636363602</v>
       </c>
-      <c r="BE10" s="17">
+      <c r="BE10" s="56">
         <v>32.950006181818203</v>
       </c>
-      <c r="BF10" s="17">
+      <c r="BF10" s="56">
         <v>33.209145636363601</v>
       </c>
-      <c r="BG10" s="17">
+      <c r="BG10" s="56">
         <v>33.064126181818203</v>
       </c>
-      <c r="BH10" s="17">
+      <c r="BH10" s="56">
         <v>32.973278272727299</v>
       </c>
-      <c r="BI10" s="17">
+      <c r="BI10" s="56">
         <v>33.1878189090909</v>
       </c>
-      <c r="BJ10" s="17">
+      <c r="BJ10" s="56">
         <v>33.080931181818201</v>
       </c>
-      <c r="BK10" s="18">
+      <c r="BK10" s="56">
         <v>49.196434090909101</v>
       </c>
-      <c r="BL10" s="18">
+      <c r="BL10" s="56">
         <v>49.568764363636397</v>
       </c>
-      <c r="BM10" s="18">
+      <c r="BM10" s="56">
         <v>49.249371363636399</v>
       </c>
-      <c r="BN10" s="18">
+      <c r="BN10" s="56">
         <v>48.8779021818182</v>
       </c>
-      <c r="BO10" s="18">
+      <c r="BO10" s="56">
         <v>49.145538999999999</v>
       </c>
-      <c r="BP10" s="18">
+      <c r="BP10" s="56">
         <v>50.176275545454502</v>
       </c>
-      <c r="BQ10" s="18">
+      <c r="BQ10" s="56">
         <v>51.420945636363598</v>
       </c>
-      <c r="BR10" s="18">
+      <c r="BR10" s="56">
         <v>50.860508909090903</v>
       </c>
-      <c r="BS10" s="62">
+      <c r="BS10" s="65">
         <v>54.446048090909102</v>
       </c>
-      <c r="BT10" s="62">
+      <c r="BT10" s="65">
         <v>54.804287272727301</v>
       </c>
-      <c r="BU10" s="62">
+      <c r="BU10" s="65">
         <v>54.501055272727299</v>
       </c>
-      <c r="BV10" s="62">
+      <c r="BV10" s="65">
         <v>54.087156818181803</v>
       </c>
-      <c r="BW10" s="62">
+      <c r="BW10" s="65">
         <v>54.322299545454499</v>
       </c>
-      <c r="BX10" s="62">
+      <c r="BX10" s="65">
         <v>55.093702818181796</v>
       </c>
-      <c r="BY10" s="62">
+      <c r="BY10" s="65">
         <v>55.715780818181798</v>
       </c>
-      <c r="BZ10" s="62">
+      <c r="BZ10" s="65">
         <v>55.386810545454502</v>
       </c>
-      <c r="CA10" s="61">
+      <c r="CA10" s="65">
         <v>2.9963636363636401E-2</v>
       </c>
-      <c r="CB10" s="61">
+      <c r="CB10" s="65">
         <v>2.99818181818182E-2</v>
       </c>
-      <c r="CC10" s="61">
+      <c r="CC10" s="65">
         <v>2.99727272727273E-2</v>
       </c>
-      <c r="CD10" s="61">
+      <c r="CD10" s="65">
         <v>2.9986363636363599E-2</v>
       </c>
-      <c r="CE10" s="61">
+      <c r="CE10" s="65">
         <v>2.99818181818182E-2</v>
       </c>
-      <c r="CF10" s="61">
+      <c r="CF10" s="65">
         <v>2.99727272727273E-2</v>
       </c>
-      <c r="CG10" s="61">
+      <c r="CG10" s="65">
         <v>2.99818181818182E-2</v>
       </c>
-      <c r="CH10" s="61">
+      <c r="CH10" s="65">
         <v>2.99727272727273E-2</v>
       </c>
-      <c r="CI10" s="17">
+      <c r="CI10" s="56">
         <v>27.843760727272699</v>
       </c>
-      <c r="CJ10" s="17">
+      <c r="CJ10" s="56">
         <v>26.463361636363601</v>
       </c>
-      <c r="CK10" s="17">
+      <c r="CK10" s="56">
         <v>27.039189181818202</v>
       </c>
-      <c r="CL10" s="17">
+      <c r="CL10" s="56">
         <v>27.3307694545455</v>
       </c>
-      <c r="CM10" s="17">
+      <c r="CM10" s="56">
         <v>26.978558181818201</v>
       </c>
-      <c r="CN10" s="17">
+      <c r="CN10" s="56">
         <v>26.6351177272727</v>
       </c>
-      <c r="CO10" s="17">
+      <c r="CO10" s="56">
         <v>26.666109090909099</v>
       </c>
-      <c r="CP10" s="17">
+      <c r="CP10" s="56">
         <v>28.504307636363599</v>
       </c>
     </row>
@@ -9108,110 +9101,308 @@
         <f>AK11</f>
         <v>350</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="51"/>
+      <c r="E11" s="21">
+        <f t="shared" ref="E11:E13" si="13">BC11-AU11-$B$4</f>
+        <v>6.661312627118698</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="4"/>
+        <v>7.7091013220337974</v>
+      </c>
+      <c r="G11" s="21">
+        <f t="shared" si="5"/>
+        <v>7.1542310169490992</v>
+      </c>
+      <c r="H11" s="21">
+        <f t="shared" ref="H11:H13" si="14">BF11-AX11-$B$4</f>
+        <v>6.7578535932204007</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="7"/>
+        <v>7.123138169491499</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" ref="J11:J12" si="15">BH11-AZ11-$B$4</f>
+        <v>7.7242071864405988</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="8"/>
+        <v>7.8409869661017009</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" ref="L11:L12" si="16">BJ11-BB11-$B$4</f>
+        <v>6.2322497118644984</v>
+      </c>
+      <c r="M11" s="64">
+        <f t="shared" ref="M11:M13" si="17">E11+AM11-U11-AC11</f>
+        <v>47.372472798728566</v>
+      </c>
+      <c r="N11" s="64">
+        <f t="shared" ref="N11:N13" si="18">F11+AN11-V11-AD11</f>
+        <v>47.949449171579566</v>
+      </c>
+      <c r="O11" s="64">
+        <f t="shared" ref="O11:O12" si="19">G11+AO11-W11-AE11</f>
+        <v>47.656513892800454</v>
+      </c>
+      <c r="P11" s="64">
+        <f t="shared" ref="P11:P13" si="20">H11+AP11-X11-AF11</f>
+        <v>47.593158804211868</v>
+      </c>
+      <c r="Q11" s="64">
+        <f t="shared" ref="Q11:Q13" si="21">I11+AQ11-Y11-AG11</f>
+        <v>47.782082563303298</v>
+      </c>
+      <c r="R11" s="64">
+        <f t="shared" ref="R11:R13" si="22">J11+AR11-Z11-AH11</f>
+        <v>47.971302139866587</v>
+      </c>
+      <c r="S11" s="64">
+        <f t="shared" ref="S11:S13" si="23">K11+AS11-AA11-AI11</f>
+        <v>47.67172957486062</v>
+      </c>
+      <c r="T11" s="64">
+        <f t="shared" ref="T11:T13" si="24">L11+AT11-AB11-AJ11</f>
+        <v>46.487716644261091</v>
+      </c>
+      <c r="U11" s="22">
+        <f t="shared" ref="U11:U13" si="25">CI11-AU11</f>
+        <v>4.4847714237287981</v>
+      </c>
+      <c r="V11" s="22">
+        <f t="shared" ref="V11:V13" si="26">CJ11-AV11</f>
+        <v>4.4622359491525003</v>
+      </c>
+      <c r="W11" s="22">
+        <f t="shared" ref="W11:W13" si="27">CK11-AW11</f>
+        <v>4.4307052033898024</v>
+      </c>
+      <c r="X11" s="22">
+        <f t="shared" ref="X11:X13" si="28">CL11-AX11</f>
+        <v>4.3654684067796978</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" ref="Y11:Y13" si="29">CM11-AY11</f>
+        <v>4.2670854237287976</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" ref="Z11:Z13" si="30">CN11-AZ11</f>
+        <v>4.4655591525422977</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" ref="AA11:AA13" si="31">CO11-BA11</f>
+        <v>4.6324718135592988</v>
+      </c>
+      <c r="AB11" s="22">
+        <f t="shared" ref="AB11:AB13" si="32">CP11-BB11</f>
+        <v>4.7007056610170004</v>
+      </c>
+      <c r="AC11" s="6">
+        <f t="shared" ref="AC11:AC13" si="33">$B$6*CA11/60*$B$7*ABS(BK11-BS11)</f>
+        <v>1.0848065678328824E-2</v>
+      </c>
+      <c r="AD11" s="6">
+        <f t="shared" ref="AD11:AD13" si="34">$B$6*CB11/60*$B$7*ABS(BL11-BT11)</f>
+        <v>1.0975523335628181E-2</v>
+      </c>
+      <c r="AE11" s="6">
+        <f t="shared" ref="AE11:AE13" si="35">$B$6*CC11/60*$B$7*ABS(BM11-BU11)</f>
+        <v>1.1079717369035971E-2</v>
+      </c>
+      <c r="AF11" s="6">
+        <f t="shared" ref="AF11:AF13" si="36">$B$6*CD11/60*$B$7*ABS(BN11-BV11)</f>
+        <v>1.1090789008544587E-2</v>
+      </c>
+      <c r="AG11" s="6">
+        <f t="shared" ref="AG11:AG13" si="37">$B$6*CE11/60*$B$7*ABS(BO11-BW11)</f>
+        <v>1.1258318052605437E-2</v>
+      </c>
+      <c r="AH11" s="6">
+        <f t="shared" ref="AH11:AH13" si="38">$B$6*CF11/60*$B$7*ABS(BP11-BX11)</f>
+        <v>1.1074707591114978E-2</v>
+      </c>
+      <c r="AI11" s="6">
+        <f t="shared" ref="AI11:AI13" si="39">$B$6*CG11/60*$B$7*ABS(BQ11-BY11)</f>
+        <v>9.6669336139830614E-3</v>
+      </c>
+      <c r="AJ11" s="59">
+        <f t="shared" ref="AJ11:AJ13" si="40">$B$6*CH11/60*$B$7*ABS(BR11-BZ11)</f>
+        <v>9.9291015016014991E-3</v>
+      </c>
       <c r="AK11" s="58">
         <v>350</v>
       </c>
-      <c r="AL11" s="4">
-        <v>46.609090909090902</v>
-      </c>
-      <c r="AM11" s="17">
-        <v>45.218181818181797</v>
-      </c>
-      <c r="AN11" s="17">
-        <v>44.7</v>
-      </c>
-      <c r="AO11" s="17">
-        <v>44.927272727272701</v>
-      </c>
-      <c r="AP11" s="17">
-        <v>45.2</v>
-      </c>
-      <c r="AQ11" s="17">
-        <v>44.9181818181818</v>
-      </c>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-      <c r="AU11" s="40"/>
-      <c r="AV11" s="40"/>
-      <c r="AW11" s="40"/>
-      <c r="AX11" s="40"/>
-      <c r="AY11" s="40"/>
-      <c r="AZ11" s="40"/>
-      <c r="BA11" s="40"/>
-      <c r="BB11" s="40"/>
-      <c r="BC11" s="39"/>
-      <c r="BD11" s="39"/>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="39"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
-      <c r="BJ11" s="39"/>
-      <c r="BK11" s="40"/>
-      <c r="BL11" s="40"/>
-      <c r="BM11" s="40"/>
-      <c r="BN11" s="40"/>
-      <c r="BO11" s="40"/>
-      <c r="BP11" s="40"/>
-      <c r="BQ11" s="40"/>
-      <c r="BR11" s="40"/>
-      <c r="BS11" s="39"/>
-      <c r="BT11" s="39"/>
-      <c r="BU11" s="39"/>
-      <c r="BV11" s="39"/>
-      <c r="BW11" s="39"/>
-      <c r="BX11" s="39"/>
-      <c r="BY11" s="39"/>
-      <c r="BZ11" s="39"/>
-      <c r="CA11" s="40"/>
-      <c r="CB11" s="40"/>
-      <c r="CC11" s="40"/>
-      <c r="CD11" s="40"/>
-      <c r="CE11" s="40"/>
-      <c r="CF11" s="40"/>
-      <c r="CG11" s="40"/>
-      <c r="CH11" s="40"/>
-      <c r="CI11" s="39"/>
-      <c r="CJ11" s="39"/>
-      <c r="CK11" s="39"/>
-      <c r="CL11" s="39"/>
-      <c r="CM11" s="39"/>
-      <c r="CN11" s="39"/>
-      <c r="CO11" s="39"/>
-      <c r="CP11" s="39"/>
+      <c r="AL11" s="56">
+        <v>46.581355932203302</v>
+      </c>
+      <c r="AM11" s="56">
+        <v>45.206779661017002</v>
+      </c>
+      <c r="AN11" s="56">
+        <v>44.713559322033902</v>
+      </c>
+      <c r="AO11" s="56">
+        <v>44.944067796610199</v>
+      </c>
+      <c r="AP11" s="56">
+        <v>45.211864406779704</v>
+      </c>
+      <c r="AQ11" s="56">
+        <v>44.937288135593199</v>
+      </c>
+      <c r="AR11" s="56">
+        <v>44.723728813559397</v>
+      </c>
+      <c r="AS11" s="56">
+        <v>44.472881355932202</v>
+      </c>
+      <c r="AT11" s="56">
+        <v>44.966101694915203</v>
+      </c>
+      <c r="AU11" s="56">
+        <v>24.027059813559301</v>
+      </c>
+      <c r="AV11" s="56">
+        <v>22.838503237288201</v>
+      </c>
+      <c r="AW11" s="56">
+        <v>23.429578677966099</v>
+      </c>
+      <c r="AX11" s="56">
+        <v>23.984621983050801</v>
+      </c>
+      <c r="AY11" s="56">
+        <v>23.465955694915301</v>
+      </c>
+      <c r="AZ11" s="56">
+        <v>23.003998406779701</v>
+      </c>
+      <c r="BA11" s="56">
+        <v>22.7735518474576</v>
+      </c>
+      <c r="BB11" s="56">
+        <v>24.459114661016901</v>
+      </c>
+      <c r="BC11" s="56">
+        <v>32.988372440677999</v>
+      </c>
+      <c r="BD11" s="56">
+        <v>32.967604559321998</v>
+      </c>
+      <c r="BE11" s="56">
+        <v>33.003809694915198</v>
+      </c>
+      <c r="BF11" s="56">
+        <v>33.042475576271201</v>
+      </c>
+      <c r="BG11" s="56">
+        <v>33.0090938644068</v>
+      </c>
+      <c r="BH11" s="56">
+        <v>33.028205593220299</v>
+      </c>
+      <c r="BI11" s="56">
+        <v>33.034538813559301</v>
+      </c>
+      <c r="BJ11" s="56">
+        <v>32.991364372881399</v>
+      </c>
+      <c r="BK11" s="56">
+        <v>54.277559084745803</v>
+      </c>
+      <c r="BL11" s="56">
+        <v>54.562213830508497</v>
+      </c>
+      <c r="BM11" s="56">
+        <v>54.285577694915297</v>
+      </c>
+      <c r="BN11" s="56">
+        <v>53.940114050847399</v>
+      </c>
+      <c r="BO11" s="56">
+        <v>54.107034508474598</v>
+      </c>
+      <c r="BP11" s="56">
+        <v>54.853579220339</v>
+      </c>
+      <c r="BQ11" s="56">
+        <v>56.610023423728798</v>
+      </c>
+      <c r="BR11" s="56">
+        <v>55.994649016949197</v>
+      </c>
+      <c r="BS11" s="56">
+        <v>61.137798457627099</v>
+      </c>
+      <c r="BT11" s="56">
+        <v>61.503252796610198</v>
+      </c>
+      <c r="BU11" s="56">
+        <v>61.291123322033897</v>
+      </c>
+      <c r="BV11" s="56">
+        <v>60.952858389830503</v>
+      </c>
+      <c r="BW11" s="56">
+        <v>61.223897033898297</v>
+      </c>
+      <c r="BX11" s="56">
+        <v>61.854175864406798</v>
+      </c>
+      <c r="BY11" s="56">
+        <v>62.722977576271198</v>
+      </c>
+      <c r="BZ11" s="56">
+        <v>62.272321830508503</v>
+      </c>
+      <c r="CA11" s="56">
+        <v>2.9968644067796601E-2</v>
+      </c>
+      <c r="CB11" s="56">
+        <v>2.99677966101695E-2</v>
+      </c>
+      <c r="CC11" s="56">
+        <v>2.9973728813559301E-2</v>
+      </c>
+      <c r="CD11" s="56">
+        <v>2.99728813559322E-2</v>
+      </c>
+      <c r="CE11" s="56">
+        <v>2.9980508474576301E-2</v>
+      </c>
+      <c r="CF11" s="56">
+        <v>2.9981355932203399E-2</v>
+      </c>
+      <c r="CG11" s="56">
+        <v>2.99703389830509E-2</v>
+      </c>
+      <c r="CH11" s="56">
+        <v>2.9975423728813601E-2</v>
+      </c>
+      <c r="CI11" s="56">
+        <v>28.511831237288099</v>
+      </c>
+      <c r="CJ11" s="56">
+        <v>27.300739186440701</v>
+      </c>
+      <c r="CK11" s="56">
+        <v>27.860283881355901</v>
+      </c>
+      <c r="CL11" s="56">
+        <v>28.350090389830498</v>
+      </c>
+      <c r="CM11" s="56">
+        <v>27.733041118644099</v>
+      </c>
+      <c r="CN11" s="56">
+        <v>27.469557559321998</v>
+      </c>
+      <c r="CO11" s="56">
+        <v>27.406023661016899</v>
+      </c>
+      <c r="CP11" s="56">
+        <v>29.159820322033902</v>
+      </c>
     </row>
     <row r="12" spans="1:94" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
@@ -9221,305 +9412,857 @@
         <f>AK12</f>
         <v>400</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="51"/>
+      <c r="E12" s="21">
+        <f t="shared" si="13"/>
+        <v>6.5092686101695003</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="4"/>
+        <v>7.5856523220339032</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="5"/>
+        <v>7.1495520847457978</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="14"/>
+        <v>6.7479854745761978</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="7"/>
+        <v>7.0885777457626968</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="15"/>
+        <v>7.6906626101694977</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" si="8"/>
+        <v>7.6719600338982961</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" si="16"/>
+        <v>6.2239050847458026</v>
+      </c>
+      <c r="M12" s="64">
+        <f t="shared" si="17"/>
+        <v>57.518269041765386</v>
+      </c>
+      <c r="N12" s="64">
+        <f t="shared" si="18"/>
+        <v>58.57611025619336</v>
+      </c>
+      <c r="O12" s="64">
+        <f t="shared" si="19"/>
+        <v>58.281049030488106</v>
+      </c>
+      <c r="P12" s="64">
+        <f t="shared" si="20"/>
+        <v>58.150427602959518</v>
+      </c>
+      <c r="Q12" s="64">
+        <f t="shared" si="21"/>
+        <v>58.379473019654476</v>
+      </c>
+      <c r="R12" s="64">
+        <f t="shared" si="22"/>
+        <v>58.726273268069633</v>
+      </c>
+      <c r="S12" s="64">
+        <f t="shared" si="23"/>
+        <v>58.095145715527735</v>
+      </c>
+      <c r="T12" s="64">
+        <f t="shared" si="24"/>
+        <v>56.899270151512432</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="25"/>
+        <v>5.2135600000000011</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="26"/>
+        <v>5.0384905762712009</v>
+      </c>
+      <c r="W12" s="22">
+        <f t="shared" si="27"/>
+        <v>5.0090128644067988</v>
+      </c>
+      <c r="X12" s="22">
+        <f t="shared" si="28"/>
+        <v>4.8822649322032987</v>
+      </c>
+      <c r="Y12" s="22">
+        <f t="shared" si="29"/>
+        <v>4.9160029152541966</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" si="30"/>
+        <v>5.0206278305085021</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="31"/>
+        <v>5.2938849661017002</v>
+      </c>
+      <c r="AB12" s="22">
+        <f t="shared" si="32"/>
+        <v>5.2869043728813985</v>
+      </c>
+      <c r="AC12" s="6">
+        <f t="shared" si="33"/>
+        <v>1.4727703997418335E-2</v>
+      </c>
+      <c r="AD12" s="6">
+        <f t="shared" si="34"/>
+        <v>1.5119286179442455E-2</v>
+      </c>
+      <c r="AE12" s="6">
+        <f t="shared" si="35"/>
+        <v>1.5422393240698941E-2</v>
+      </c>
+      <c r="AF12" s="6">
+        <f t="shared" si="36"/>
+        <v>1.5292939413476545E-2</v>
+      </c>
+      <c r="AG12" s="6">
+        <f t="shared" si="37"/>
+        <v>1.5135709159125604E-2</v>
+      </c>
+      <c r="AH12" s="6">
+        <f t="shared" si="38"/>
+        <v>1.4947952269260462E-2</v>
+      </c>
+      <c r="AI12" s="6">
+        <f t="shared" si="39"/>
+        <v>1.3437826845158094E-2</v>
+      </c>
+      <c r="AJ12" s="59">
+        <f t="shared" si="40"/>
+        <v>1.4001746792663444E-2</v>
+      </c>
       <c r="AK12" s="58">
         <v>400</v>
       </c>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="40"/>
-      <c r="AV12" s="40"/>
-      <c r="AW12" s="40"/>
-      <c r="AX12" s="40"/>
-      <c r="AY12" s="40"/>
-      <c r="AZ12" s="40"/>
-      <c r="BA12" s="40"/>
-      <c r="BB12" s="40"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="39"/>
-      <c r="BJ12" s="39"/>
-      <c r="BK12" s="40"/>
-      <c r="BL12" s="40"/>
-      <c r="BM12" s="40"/>
-      <c r="BN12" s="40"/>
-      <c r="BO12" s="40"/>
-      <c r="BP12" s="40"/>
-      <c r="BQ12" s="40"/>
-      <c r="BR12" s="40"/>
-      <c r="BS12" s="39"/>
-      <c r="BT12" s="39"/>
-      <c r="BU12" s="39"/>
-      <c r="BV12" s="39"/>
-      <c r="BW12" s="39"/>
-      <c r="BX12" s="39"/>
-      <c r="BY12" s="39"/>
-      <c r="BZ12" s="39"/>
-      <c r="CA12" s="40"/>
-      <c r="CB12" s="40"/>
-      <c r="CC12" s="40"/>
-      <c r="CD12" s="40"/>
-      <c r="CE12" s="40"/>
-      <c r="CF12" s="40"/>
-      <c r="CG12" s="40"/>
-      <c r="CH12" s="40"/>
-      <c r="CI12" s="39"/>
-      <c r="CJ12" s="39"/>
-      <c r="CK12" s="39"/>
-      <c r="CL12" s="39"/>
-      <c r="CM12" s="39"/>
-      <c r="CN12" s="39"/>
-      <c r="CO12" s="39"/>
-      <c r="CP12" s="39"/>
+      <c r="AL12" s="56">
+        <v>57.532203389830499</v>
+      </c>
+      <c r="AM12" s="56">
+        <v>56.237288135593303</v>
+      </c>
+      <c r="AN12" s="56">
+        <v>56.044067796610101</v>
+      </c>
+      <c r="AO12" s="56">
+        <v>56.155932203389803</v>
+      </c>
+      <c r="AP12" s="56">
+        <v>56.300000000000097</v>
+      </c>
+      <c r="AQ12" s="56">
+        <v>56.222033898305099</v>
+      </c>
+      <c r="AR12" s="56">
+        <v>56.071186440677899</v>
+      </c>
+      <c r="AS12" s="56">
+        <v>55.730508474576297</v>
+      </c>
+      <c r="AT12" s="56">
+        <v>55.976271186440698</v>
+      </c>
+      <c r="AU12" s="56">
+        <v>24.153121305084699</v>
+      </c>
+      <c r="AV12" s="56">
+        <v>22.986992322033899</v>
+      </c>
+      <c r="AW12" s="56">
+        <v>23.4624791016949</v>
+      </c>
+      <c r="AX12" s="56">
+        <v>23.9773157627119</v>
+      </c>
+      <c r="AY12" s="56">
+        <v>23.456049406779702</v>
+      </c>
+      <c r="AZ12" s="56">
+        <v>23.040315898305099</v>
+      </c>
+      <c r="BA12" s="56">
+        <v>22.903993271186401</v>
+      </c>
+      <c r="BB12" s="56">
+        <v>24.4445775254237</v>
+      </c>
+      <c r="BC12" s="56">
+        <v>32.962389915254199</v>
+      </c>
+      <c r="BD12" s="56">
+        <v>32.992644644067802</v>
+      </c>
+      <c r="BE12" s="56">
+        <v>33.032031186440697</v>
+      </c>
+      <c r="BF12" s="56">
+        <v>33.025301237288097</v>
+      </c>
+      <c r="BG12" s="56">
+        <v>32.964627152542398</v>
+      </c>
+      <c r="BH12" s="56">
+        <v>33.030978508474597</v>
+      </c>
+      <c r="BI12" s="56">
+        <v>32.995953305084697</v>
+      </c>
+      <c r="BJ12" s="56">
+        <v>32.968482610169502</v>
+      </c>
+      <c r="BK12" s="56">
+        <v>59.766662779660997</v>
+      </c>
+      <c r="BL12" s="56">
+        <v>59.964182152542399</v>
+      </c>
+      <c r="BM12" s="56">
+        <v>59.402262898305104</v>
+      </c>
+      <c r="BN12" s="56">
+        <v>58.964195220339001</v>
+      </c>
+      <c r="BO12" s="56">
+        <v>59.198127847457599</v>
+      </c>
+      <c r="BP12" s="56">
+        <v>60.0580055932204</v>
+      </c>
+      <c r="BQ12" s="56">
+        <v>62.164835542372899</v>
+      </c>
+      <c r="BR12" s="56">
+        <v>61.292390966101699</v>
+      </c>
+      <c r="BS12" s="56">
+        <v>69.077724762711895</v>
+      </c>
+      <c r="BT12" s="56">
+        <v>69.522267491525398</v>
+      </c>
+      <c r="BU12" s="56">
+        <v>69.151690355932203</v>
+      </c>
+      <c r="BV12" s="56">
+        <v>68.632333677966102</v>
+      </c>
+      <c r="BW12" s="56">
+        <v>68.768489220339006</v>
+      </c>
+      <c r="BX12" s="56">
+        <v>69.507510220339</v>
+      </c>
+      <c r="BY12" s="56">
+        <v>70.6618602881356</v>
+      </c>
+      <c r="BZ12" s="56">
+        <v>70.145243389830497</v>
+      </c>
+      <c r="CA12" s="56">
+        <v>2.99771186440678E-2</v>
+      </c>
+      <c r="CB12" s="56">
+        <v>2.9978813559321998E-2</v>
+      </c>
+      <c r="CC12" s="56">
+        <v>2.99796610169492E-2</v>
+      </c>
+      <c r="CD12" s="56">
+        <v>2.9977966101694901E-2</v>
+      </c>
+      <c r="CE12" s="56">
+        <v>2.99728813559322E-2</v>
+      </c>
+      <c r="CF12" s="56">
+        <v>2.99796610169492E-2</v>
+      </c>
+      <c r="CG12" s="56">
+        <v>2.9972033898305099E-2</v>
+      </c>
+      <c r="CH12" s="56">
+        <v>2.99745762711865E-2</v>
+      </c>
+      <c r="CI12" s="56">
+        <v>29.3666813050847</v>
+      </c>
+      <c r="CJ12" s="56">
+        <v>28.0254828983051</v>
+      </c>
+      <c r="CK12" s="56">
+        <v>28.471491966101699</v>
+      </c>
+      <c r="CL12" s="56">
+        <v>28.859580694915199</v>
+      </c>
+      <c r="CM12" s="56">
+        <v>28.372052322033898</v>
+      </c>
+      <c r="CN12" s="56">
+        <v>28.060943728813601</v>
+      </c>
+      <c r="CO12" s="56">
+        <v>28.197878237288101</v>
+      </c>
+      <c r="CP12" s="56">
+        <v>29.731481898305098</v>
+      </c>
     </row>
     <row r="13" spans="1:94" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="29">
-        <f t="shared" ref="D13" si="9">AK13</f>
+        <f t="shared" ref="D13" si="41">AK13</f>
         <v>450</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="51"/>
+      <c r="E13" s="21">
+        <f t="shared" si="13"/>
+        <v>6.6443452033898014</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="4"/>
+        <v>7.7379186610169999</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" si="5"/>
+        <v>7.2539354915254979</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="14"/>
+        <v>6.826938491525401</v>
+      </c>
+      <c r="I13" s="21">
+        <f t="shared" si="7"/>
+        <v>7.1705513898304982</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" ref="J13" si="42">BH13-AZ13-$C$4</f>
+        <v>7.5952996779661976</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="8"/>
+        <v>7.7461271355932997</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" ref="L13" si="43">BJ13-BB13-$C$4</f>
+        <v>6.3005581355932012</v>
+      </c>
+      <c r="M13" s="64">
+        <f t="shared" si="17"/>
+        <v>69.297224444835166</v>
+      </c>
+      <c r="N13" s="64">
+        <f t="shared" si="18"/>
+        <v>70.220600179293754</v>
+      </c>
+      <c r="O13" s="64">
+        <f>G13+AO13-W13-AE13</f>
+        <v>69.995085708174585</v>
+      </c>
+      <c r="P13" s="64">
+        <f t="shared" si="20"/>
+        <v>69.796497030909649</v>
+      </c>
+      <c r="Q13" s="64">
+        <f t="shared" si="21"/>
+        <v>70.071984253241268</v>
+      </c>
+      <c r="R13" s="64">
+        <f t="shared" si="22"/>
+        <v>70.234132806136572</v>
+      </c>
+      <c r="S13" s="64">
+        <f t="shared" si="23"/>
+        <v>69.790695395368985</v>
+      </c>
+      <c r="T13" s="64">
+        <f t="shared" si="24"/>
+        <v>68.46308655195665</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="25"/>
+        <v>5.8532060677965987</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="26"/>
+        <v>5.7589149152543015</v>
+      </c>
+      <c r="W13" s="22">
+        <f t="shared" si="27"/>
+        <v>5.6154849152542994</v>
+      </c>
+      <c r="X13" s="22">
+        <f t="shared" si="28"/>
+        <v>5.4956098644067986</v>
+      </c>
+      <c r="Y13" s="22">
+        <f t="shared" si="29"/>
+        <v>5.4907493898305013</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="30"/>
+        <v>5.6468024576271993</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" si="31"/>
+        <v>5.8936710169492024</v>
+      </c>
+      <c r="AB13" s="22">
+        <f t="shared" si="32"/>
+        <v>5.9058983559320986</v>
+      </c>
+      <c r="AC13" s="6">
+        <f t="shared" si="33"/>
+        <v>1.9338419571543468E-2</v>
+      </c>
+      <c r="AD13" s="6">
+        <f t="shared" si="34"/>
+        <v>1.9420515621547004E-2</v>
+      </c>
+      <c r="AE13" s="6">
+        <f t="shared" si="35"/>
+        <v>1.9636054537315716E-2</v>
+      </c>
+      <c r="AF13" s="6">
+        <f t="shared" si="36"/>
+        <v>1.957735892083461E-2</v>
+      </c>
+      <c r="AG13" s="6">
+        <f t="shared" si="37"/>
+        <v>1.9682153538427869E-2</v>
+      </c>
+      <c r="AH13" s="6">
+        <f t="shared" si="38"/>
+        <v>1.944915996521946E-2</v>
+      </c>
+      <c r="AI13" s="6">
+        <f t="shared" si="39"/>
+        <v>1.7692926664918673E-2</v>
+      </c>
+      <c r="AJ13" s="59">
+        <f t="shared" si="40"/>
+        <v>1.8013905670457461E-2</v>
+      </c>
       <c r="AK13" s="58">
         <v>450</v>
       </c>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="40"/>
-      <c r="AV13" s="40"/>
-      <c r="AW13" s="40"/>
-      <c r="AX13" s="40"/>
-      <c r="AY13" s="40"/>
-      <c r="AZ13" s="40"/>
-      <c r="BA13" s="40"/>
-      <c r="BB13" s="40"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="39"/>
-      <c r="BE13" s="39"/>
-      <c r="BF13" s="39"/>
-      <c r="BG13" s="39"/>
-      <c r="BH13" s="39"/>
-      <c r="BI13" s="39"/>
-      <c r="BJ13" s="39"/>
-      <c r="BK13" s="40"/>
-      <c r="BL13" s="40"/>
-      <c r="BM13" s="40"/>
-      <c r="BN13" s="40"/>
-      <c r="BO13" s="40"/>
-      <c r="BP13" s="40"/>
-      <c r="BQ13" s="40"/>
-      <c r="BR13" s="40"/>
-      <c r="BS13" s="39"/>
-      <c r="BT13" s="39"/>
-      <c r="BU13" s="39"/>
-      <c r="BV13" s="39"/>
-      <c r="BW13" s="39"/>
-      <c r="BX13" s="39"/>
-      <c r="BY13" s="39"/>
-      <c r="BZ13" s="39"/>
-      <c r="CA13" s="40"/>
-      <c r="CB13" s="40"/>
-      <c r="CC13" s="40"/>
-      <c r="CD13" s="40"/>
-      <c r="CE13" s="40"/>
-      <c r="CF13" s="40"/>
-      <c r="CG13" s="40"/>
-      <c r="CH13" s="40"/>
-      <c r="CI13" s="39"/>
-      <c r="CJ13" s="39"/>
-      <c r="CK13" s="39"/>
-      <c r="CL13" s="39"/>
-      <c r="CM13" s="39"/>
-      <c r="CN13" s="39"/>
-      <c r="CO13" s="39"/>
-      <c r="CP13" s="39"/>
+      <c r="AL13" s="56">
+        <v>69.8288135593221</v>
+      </c>
+      <c r="AM13" s="56">
+        <v>68.525423728813493</v>
+      </c>
+      <c r="AN13" s="56">
+        <v>68.261016949152605</v>
+      </c>
+      <c r="AO13" s="56">
+        <v>68.376271186440704</v>
+      </c>
+      <c r="AP13" s="56">
+        <v>68.484745762711896</v>
+      </c>
+      <c r="AQ13" s="56">
+        <v>68.411864406779699</v>
+      </c>
+      <c r="AR13">
+        <v>68.305084745762798</v>
+      </c>
+      <c r="AS13">
+        <v>67.955932203389807</v>
+      </c>
+      <c r="AT13">
+        <v>68.086440677965996</v>
+      </c>
+      <c r="AU13" s="56">
+        <v>24.0551307966102</v>
+      </c>
+      <c r="AV13" s="56">
+        <v>22.8823331355932</v>
+      </c>
+      <c r="AW13" s="56">
+        <v>23.335925559322</v>
+      </c>
+      <c r="AX13" s="56">
+        <v>23.834339610169501</v>
+      </c>
+      <c r="AY13" s="56">
+        <v>23.4022057966102</v>
+      </c>
+      <c r="AZ13">
+        <v>22.951978627118599</v>
+      </c>
+      <c r="BA13">
+        <v>22.811090847457599</v>
+      </c>
+      <c r="BB13">
+        <v>24.302762338983101</v>
+      </c>
+      <c r="BC13" s="56">
+        <v>32.999476000000001</v>
+      </c>
+      <c r="BD13" s="56">
+        <v>33.0402517966102</v>
+      </c>
+      <c r="BE13" s="56">
+        <v>33.009861050847498</v>
+      </c>
+      <c r="BF13" s="56">
+        <v>32.961278101694901</v>
+      </c>
+      <c r="BG13" s="56">
+        <v>32.992757186440699</v>
+      </c>
+      <c r="BH13">
+        <v>32.967278305084797</v>
+      </c>
+      <c r="BI13">
+        <v>32.977217983050899</v>
+      </c>
+      <c r="BJ13">
+        <v>33.023320474576302</v>
+      </c>
+      <c r="BK13" s="56">
+        <v>65.140258322033901</v>
+      </c>
+      <c r="BL13" s="56">
+        <v>65.461220169491497</v>
+      </c>
+      <c r="BM13" s="56">
+        <v>64.899498254237301</v>
+      </c>
+      <c r="BN13" s="56">
+        <v>64.439561915254203</v>
+      </c>
+      <c r="BO13" s="56">
+        <v>64.637034949152607</v>
+      </c>
+      <c r="BP13">
+        <v>65.434941050847499</v>
+      </c>
+      <c r="BQ13">
+        <v>67.784140288135603</v>
+      </c>
+      <c r="BR13">
+        <v>67.174750000000003</v>
+      </c>
+      <c r="BS13" s="56">
+        <v>77.367662338982996</v>
+      </c>
+      <c r="BT13" s="56">
+        <v>77.738796694915195</v>
+      </c>
+      <c r="BU13" s="56">
+        <v>77.3129867457627</v>
+      </c>
+      <c r="BV13" s="56">
+        <v>76.818393830508498</v>
+      </c>
+      <c r="BW13" s="56">
+        <v>77.082128864406798</v>
+      </c>
+      <c r="BX13">
+        <v>77.732712322033905</v>
+      </c>
+      <c r="BY13">
+        <v>78.972071813559296</v>
+      </c>
+      <c r="BZ13">
+        <v>78.561463559321993</v>
+      </c>
+      <c r="CA13" s="56">
+        <v>2.9973728813559301E-2</v>
+      </c>
+      <c r="CB13" s="56">
+        <v>2.9977966101694901E-2</v>
+      </c>
+      <c r="CC13" s="56">
+        <v>2.9978813559321998E-2</v>
+      </c>
+      <c r="CD13" s="56">
+        <v>2.99728813559322E-2</v>
+      </c>
+      <c r="CE13" s="56">
+        <v>2.99728813559322E-2</v>
+      </c>
+      <c r="CF13">
+        <v>2.99728813559322E-2</v>
+      </c>
+      <c r="CG13">
+        <v>2.9971186440678001E-2</v>
+      </c>
+      <c r="CH13">
+        <v>2.99822033898305E-2</v>
+      </c>
+      <c r="CI13" s="56">
+        <v>29.908336864406799</v>
+      </c>
+      <c r="CJ13" s="56">
+        <v>28.641248050847501</v>
+      </c>
+      <c r="CK13" s="56">
+        <v>28.951410474576299</v>
+      </c>
+      <c r="CL13" s="56">
+        <v>29.329949474576299</v>
+      </c>
+      <c r="CM13" s="56">
+        <v>28.892955186440702</v>
+      </c>
+      <c r="CN13">
+        <v>28.598781084745799</v>
+      </c>
+      <c r="CO13">
+        <v>28.704761864406802</v>
+      </c>
+      <c r="CP13">
+        <v>30.208660694915199</v>
+      </c>
     </row>
     <row r="14" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="29">
         <f>AK14</f>
         <v>500</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="E14" s="21">
+        <f t="shared" ref="E14" si="44">BC14-AU14-$B$4</f>
+        <v>6.814720050847499</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" ref="F14" si="45">BD14-AV14-$C$4</f>
+        <v>7.7449855084745014</v>
+      </c>
+      <c r="G14" s="21">
+        <f t="shared" ref="G14" si="46">BE14-AW14-$C$4</f>
+        <v>7.2406508474576032</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" ref="H14" si="47">BF14-AX14-$B$4</f>
+        <v>6.9738021525423983</v>
+      </c>
+      <c r="I14" s="21">
+        <f t="shared" ref="I14" si="48">BG14-AY14-$C$4</f>
+        <v>7.288240983050903</v>
+      </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="M14" s="64">
+        <f t="shared" ref="M14" si="49">E14+AM14-U14-AC14</f>
+        <v>82.470972518941096</v>
+      </c>
+      <c r="N14" s="64">
+        <f t="shared" ref="N14" si="50">F14+AN14-V14-AD14</f>
+        <v>83.236825467635796</v>
+      </c>
+      <c r="O14" s="64">
+        <f>G14+AO14-W14-AE14</f>
+        <v>83.011213428627727</v>
+      </c>
+      <c r="P14" s="64">
+        <f t="shared" ref="P14" si="51">H14+AP14-X14-AF14</f>
+        <v>82.81792076008206</v>
+      </c>
+      <c r="Q14" s="64">
+        <f t="shared" ref="Q14" si="52">I14+AQ14-Y14-AG14</f>
+        <v>83.106659204908766</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
+      <c r="U14" s="22">
+        <f t="shared" ref="U14" si="53">CI14-AU14</f>
+        <v>6.4085505762711996</v>
+      </c>
+      <c r="V14" s="22">
+        <f t="shared" ref="V14" si="54">CJ14-AV14</f>
+        <v>6.3909615084745006</v>
+      </c>
+      <c r="W14" s="22">
+        <f t="shared" ref="W14" si="55">CK14-AW14</f>
+        <v>6.1880158474576028</v>
+      </c>
+      <c r="X14" s="22">
+        <f t="shared" ref="X14" si="56">CL14-AX14</f>
+        <v>6.2105643898305019</v>
+      </c>
+      <c r="Y14" s="22">
+        <f t="shared" ref="Y14" si="57">CM14-AY14</f>
+        <v>6.1468755423729</v>
+      </c>
       <c r="Z14" s="22"/>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
+      <c r="AC14" s="6">
+        <f t="shared" ref="AC14" si="58">$B$6*CA14/60*$B$7*ABS(BK14-BS14)</f>
+        <v>0.13519695563510659</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" ref="AD14" si="59">$B$6*CB14/60*$B$7*ABS(BL14-BT14)</f>
+        <v>2.3978193381189981E-2</v>
+      </c>
+      <c r="AE14" s="6">
+        <f t="shared" ref="AE14" si="60">$B$6*CC14/60*$B$7*ABS(BM14-BU14)</f>
+        <v>2.2777503575670856E-2</v>
+      </c>
+      <c r="AF14" s="6">
+        <f t="shared" ref="AF14" si="61">$B$6*CD14/60*$B$7*ABS(BN14-BV14)</f>
+        <v>2.3283104324644765E-2</v>
+      </c>
+      <c r="AG14" s="6">
+        <f t="shared" ref="AG14" si="62">$B$6*CE14/60*$B$7*ABS(BO14-BW14)</f>
+        <v>2.4536744243838379E-2</v>
+      </c>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="51"/>
+      <c r="AJ14" s="59"/>
       <c r="AK14" s="58">
         <v>500</v>
       </c>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="18"/>
-      <c r="AX14" s="18"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
-      <c r="BA14" s="18"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="18"/>
-      <c r="BL14" s="18"/>
-      <c r="BM14" s="18"/>
-      <c r="BN14" s="18"/>
-      <c r="BO14" s="18"/>
-      <c r="BP14" s="18"/>
-      <c r="BQ14" s="18"/>
-      <c r="BR14" s="18"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="17"/>
-      <c r="BU14" s="17"/>
-      <c r="BV14" s="17"/>
-      <c r="BW14" s="17"/>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="17"/>
-      <c r="CA14" s="18"/>
-      <c r="CB14" s="18"/>
-      <c r="CC14" s="18"/>
-      <c r="CD14" s="18"/>
-      <c r="CE14" s="18"/>
-      <c r="CF14" s="18"/>
-      <c r="CG14" s="18"/>
-      <c r="CH14" s="18"/>
-      <c r="CI14" s="17"/>
-      <c r="CJ14" s="17"/>
-      <c r="CK14" s="17"/>
-      <c r="CL14" s="17"/>
-      <c r="CM14" s="17"/>
-      <c r="CN14" s="17"/>
-      <c r="CO14" s="17"/>
-      <c r="CP14" s="17"/>
+      <c r="AL14">
+        <v>83.471186440677997</v>
+      </c>
+      <c r="AM14">
+        <v>82.199999999999903</v>
+      </c>
+      <c r="AN14">
+        <v>81.906779661016998</v>
+      </c>
+      <c r="AO14">
+        <v>81.9813559322034</v>
+      </c>
+      <c r="AP14">
+        <v>82.077966101694798</v>
+      </c>
+      <c r="AQ14">
+        <v>81.989830508474597</v>
+      </c>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14">
+        <v>23.918136932203399</v>
+      </c>
+      <c r="AV14">
+        <v>22.807632694915299</v>
+      </c>
+      <c r="AW14">
+        <v>23.315214355932198</v>
+      </c>
+      <c r="AX14">
+        <v>23.748730779660999</v>
+      </c>
+      <c r="AY14">
+        <v>23.329305559321998</v>
+      </c>
+      <c r="AZ14" s="56"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14">
+        <v>33.032856983050898</v>
+      </c>
+      <c r="BD14">
+        <v>32.9726182033898</v>
+      </c>
+      <c r="BE14">
+        <v>32.975865203389802</v>
+      </c>
+      <c r="BF14">
+        <v>33.022532932203397</v>
+      </c>
+      <c r="BG14">
+        <v>33.037546542372901</v>
+      </c>
+      <c r="BH14" s="56"/>
+      <c r="BI14" s="56"/>
+      <c r="BJ14" s="56"/>
+      <c r="BK14" s="56"/>
+      <c r="BL14">
+        <v>71.068027593220293</v>
+      </c>
+      <c r="BM14">
+        <v>71.333845593220303</v>
+      </c>
+      <c r="BN14">
+        <v>70.785535694915296</v>
+      </c>
+      <c r="BO14">
+        <v>70.287290457627094</v>
+      </c>
+      <c r="BP14">
+        <v>70.668396999999999</v>
+      </c>
+      <c r="BQ14" s="56"/>
+      <c r="BR14" s="56"/>
+      <c r="BS14">
+        <v>85.468587881355901</v>
+      </c>
+      <c r="BT14">
+        <v>86.229951084745807</v>
+      </c>
+      <c r="BU14">
+        <v>85.736140067796597</v>
+      </c>
+      <c r="BV14">
+        <v>85.505858457627099</v>
+      </c>
+      <c r="BW14">
+        <v>85.801081627118606</v>
+      </c>
+      <c r="BX14" s="56"/>
+      <c r="BY14" s="56"/>
+      <c r="BZ14" s="56"/>
+      <c r="CA14">
+        <v>2.9978813559321998E-2</v>
+      </c>
+      <c r="CB14">
+        <v>2.9972033898305099E-2</v>
+      </c>
+      <c r="CC14">
+        <v>2.99728813559322E-2</v>
+      </c>
+      <c r="CD14">
+        <v>2.9976271186440698E-2</v>
+      </c>
+      <c r="CE14">
+        <v>2.99745762711865E-2</v>
+      </c>
+      <c r="CF14" s="56"/>
+      <c r="CG14" s="56"/>
+      <c r="CH14" s="56"/>
+      <c r="CI14">
+        <v>30.326687508474599</v>
+      </c>
+      <c r="CJ14">
+        <v>29.198594203389799</v>
+      </c>
+      <c r="CK14">
+        <v>29.503230203389801</v>
+      </c>
+      <c r="CL14">
+        <v>29.959295169491501</v>
+      </c>
+      <c r="CM14">
+        <v>29.476181101694898</v>
+      </c>
+      <c r="CN14" s="56"/>
+      <c r="CO14" s="56"/>
+      <c r="CP14" s="56"/>
     </row>
     <row r="15" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="29">
         <f>AK15</f>
         <v>550</v>
@@ -9560,69 +10303,69 @@
         <v>550</v>
       </c>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="18"/>
-      <c r="AV15" s="18"/>
-      <c r="AW15" s="18"/>
-      <c r="AX15" s="18"/>
-      <c r="AY15" s="18"/>
-      <c r="AZ15" s="18"/>
-      <c r="BA15" s="18"/>
-      <c r="BB15" s="18"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="18"/>
-      <c r="BL15" s="18"/>
-      <c r="BM15" s="18"/>
-      <c r="BN15" s="18"/>
-      <c r="BO15" s="18"/>
-      <c r="BP15" s="18"/>
-      <c r="BQ15" s="18"/>
-      <c r="BR15" s="18"/>
-      <c r="BS15" s="17"/>
-      <c r="BT15" s="17"/>
-      <c r="BU15" s="17"/>
-      <c r="BV15" s="17"/>
-      <c r="BW15" s="17"/>
-      <c r="BX15" s="17"/>
-      <c r="BY15" s="17"/>
-      <c r="BZ15" s="17"/>
-      <c r="CA15" s="18"/>
-      <c r="CB15" s="18"/>
-      <c r="CC15" s="18"/>
-      <c r="CD15" s="18"/>
-      <c r="CE15" s="18"/>
-      <c r="CF15" s="18"/>
-      <c r="CG15" s="18"/>
-      <c r="CH15" s="18"/>
-      <c r="CI15" s="17"/>
-      <c r="CJ15" s="17"/>
-      <c r="CK15" s="17"/>
-      <c r="CL15" s="17"/>
-      <c r="CM15" s="17"/>
-      <c r="CN15" s="17"/>
-      <c r="CO15" s="17"/>
-      <c r="CP15" s="17"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="56"/>
+      <c r="BP15" s="56"/>
+      <c r="BQ15" s="56"/>
+      <c r="BR15" s="56"/>
+      <c r="BS15" s="56"/>
+      <c r="BT15" s="56"/>
+      <c r="BU15" s="56"/>
+      <c r="BV15" s="56"/>
+      <c r="BW15" s="56"/>
+      <c r="BX15" s="56"/>
+      <c r="BY15" s="56"/>
+      <c r="BZ15" s="56"/>
+      <c r="CA15" s="56"/>
+      <c r="CB15" s="56"/>
+      <c r="CC15" s="56"/>
+      <c r="CD15" s="56"/>
+      <c r="CE15" s="56"/>
+      <c r="CF15" s="56"/>
+      <c r="CG15" s="56"/>
+      <c r="CH15" s="56"/>
+      <c r="CI15" s="56"/>
+      <c r="CJ15" s="56"/>
+      <c r="CK15" s="56"/>
+      <c r="CL15" s="56"/>
+      <c r="CM15" s="56"/>
+      <c r="CN15" s="56"/>
+      <c r="CO15" s="56"/>
+      <c r="CP15" s="56"/>
     </row>
     <row r="16" spans="1:94" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="29">
-        <f t="shared" ref="D16" si="10">AK16</f>
+        <f t="shared" ref="D16" si="63">AK16</f>
         <v>600</v>
       </c>
       <c r="E16" s="21"/>
@@ -9655,62 +10398,62 @@
         <v>600</v>
       </c>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="18"/>
-      <c r="BL16" s="18"/>
-      <c r="BM16" s="18"/>
-      <c r="BN16" s="18"/>
-      <c r="BO16" s="18"/>
-      <c r="BP16" s="18"/>
-      <c r="BQ16" s="18"/>
-      <c r="BR16" s="18"/>
-      <c r="BS16" s="17"/>
-      <c r="BT16" s="17"/>
-      <c r="BU16" s="17"/>
-      <c r="BV16" s="17"/>
-      <c r="BW16" s="17"/>
-      <c r="BX16" s="17"/>
-      <c r="BY16" s="17"/>
-      <c r="BZ16" s="17"/>
-      <c r="CA16" s="18"/>
-      <c r="CB16" s="18"/>
-      <c r="CC16" s="18"/>
-      <c r="CD16" s="18"/>
-      <c r="CE16" s="18"/>
-      <c r="CF16" s="18"/>
-      <c r="CG16" s="18"/>
-      <c r="CH16" s="18"/>
-      <c r="CI16" s="17"/>
-      <c r="CJ16" s="17"/>
-      <c r="CK16" s="17"/>
-      <c r="CL16" s="17"/>
-      <c r="CM16" s="17"/>
-      <c r="CN16" s="17"/>
-      <c r="CO16" s="17"/>
-      <c r="CP16" s="17"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="56"/>
+      <c r="BL16" s="56"/>
+      <c r="BM16" s="56"/>
+      <c r="BN16" s="56"/>
+      <c r="BO16" s="56"/>
+      <c r="BP16" s="56"/>
+      <c r="BQ16" s="56"/>
+      <c r="BR16" s="56"/>
+      <c r="BS16" s="56"/>
+      <c r="BT16" s="56"/>
+      <c r="BU16" s="56"/>
+      <c r="BV16" s="56"/>
+      <c r="BW16" s="56"/>
+      <c r="BX16" s="56"/>
+      <c r="BY16" s="56"/>
+      <c r="BZ16" s="56"/>
+      <c r="CA16" s="56"/>
+      <c r="CB16" s="56"/>
+      <c r="CC16" s="56"/>
+      <c r="CD16" s="56"/>
+      <c r="CE16" s="56"/>
+      <c r="CF16" s="56"/>
+      <c r="CG16" s="56"/>
+      <c r="CH16" s="56"/>
+      <c r="CI16" s="56"/>
+      <c r="CJ16" s="56"/>
+      <c r="CK16" s="56"/>
+      <c r="CL16" s="56"/>
+      <c r="CM16" s="56"/>
+      <c r="CN16" s="56"/>
+      <c r="CO16" s="56"/>
+      <c r="CP16" s="56"/>
     </row>
     <row r="17" spans="2:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
@@ -9773,6 +10516,39 @@
       <c r="BG17" s="3"/>
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3"/>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
+      <c r="CH17" s="3"/>
+      <c r="CI17" s="3"/>
+      <c r="CJ17" s="3"/>
+      <c r="CK17" s="3"/>
+      <c r="CL17" s="3"/>
+      <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
     </row>
     <row r="18" spans="2:100" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>

--- a/report/Conflat-LENR.xlsx
+++ b/report/Conflat-LENR.xlsx
@@ -494,12 +494,6 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +511,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,6 +561,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1371,11 +1372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259781696"/>
-        <c:axId val="259782272"/>
+        <c:axId val="257815616"/>
+        <c:axId val="257816192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259781696"/>
+        <c:axId val="257815616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -1388,12 +1389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259782272"/>
+        <c:crossAx val="257816192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259782272"/>
+        <c:axId val="257816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="26"/>
@@ -1406,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259781696"/>
+        <c:crossAx val="257815616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1458,6 +1459,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2599,11 +2601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="345620480"/>
-        <c:axId val="345621056"/>
+        <c:axId val="257817920"/>
+        <c:axId val="343654400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="345620480"/>
+        <c:axId val="257817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -2616,12 +2618,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345621056"/>
+        <c:crossAx val="343654400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345621056"/>
+        <c:axId val="343654400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120"/>
@@ -2634,7 +2636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345620480"/>
+        <c:crossAx val="257817920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2681,6 +2683,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3495,11 +3498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="345623360"/>
-        <c:axId val="345623936"/>
+        <c:axId val="343656704"/>
+        <c:axId val="343657280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="345623360"/>
+        <c:axId val="343656704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -3512,12 +3515,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345623936"/>
+        <c:crossAx val="343657280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345623936"/>
+        <c:axId val="343657280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -3530,7 +3533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345623360"/>
+        <c:crossAx val="343656704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3577,6 +3580,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4453,11 +4457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="345626240"/>
-        <c:axId val="345626816"/>
+        <c:axId val="343659584"/>
+        <c:axId val="343660160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="345626240"/>
+        <c:axId val="343659584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -4470,12 +4474,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345626816"/>
+        <c:crossAx val="343660160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345626816"/>
+        <c:axId val="343660160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="30"/>
@@ -4487,7 +4491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345626240"/>
+        <c:crossAx val="343659584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4534,6 +4538,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5286,11 +5291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346595904"/>
-        <c:axId val="346596480"/>
+        <c:axId val="344694784"/>
+        <c:axId val="344695360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346595904"/>
+        <c:axId val="344694784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -5303,12 +5308,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346596480"/>
+        <c:crossAx val="344695360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346596480"/>
+        <c:axId val="344695360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -5321,7 +5326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346595904"/>
+        <c:crossAx val="344694784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5677,11 +5682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="346598784"/>
-        <c:axId val="346599360"/>
+        <c:axId val="344697664"/>
+        <c:axId val="344698240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="346598784"/>
+        <c:axId val="344697664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5691,12 +5696,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346599360"/>
+        <c:crossAx val="344698240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346599360"/>
+        <c:axId val="344698240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,13 +5712,192 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346598784"/>
+        <c:crossAx val="344697664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'S38-9282016'!$AY$36:$BI$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.666667000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'S38-9282016'!$AY$37:$BI$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.60169491525425034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86610169491525024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69491525423728007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56271186440678989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66440677966101003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78813559322034976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90338983050846977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59322033898305992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69152542372880976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92542372881355028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56101694915254985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="344752704"/>
+        <c:axId val="206921024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="344752704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="206921024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="206921024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="344752704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6325,6 +6509,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6677,11 +6891,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:109" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
@@ -6717,103 +6931,103 @@
       <c r="Z1" s="64"/>
       <c r="AA1" s="64"/>
       <c r="AB1" s="64"/>
-      <c r="AD1" s="83" t="s">
+      <c r="AD1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83" t="s">
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83" t="s">
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83" t="s">
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83" t="s">
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83" t="s">
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="BJ1" s="83"/>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83" t="s">
+      <c r="BJ1" s="92"/>
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="92"/>
+      <c r="BN1" s="92"/>
+      <c r="BO1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="BP1" s="83"/>
-      <c r="BQ1" s="83"/>
-      <c r="BR1" s="83"/>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83" t="s">
+      <c r="BP1" s="92"/>
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="92"/>
+      <c r="BS1" s="92"/>
+      <c r="BT1" s="92"/>
+      <c r="BU1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="BV1" s="83"/>
-      <c r="BW1" s="83"/>
-      <c r="BX1" s="83"/>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="83"/>
-      <c r="CA1" s="83" t="s">
+      <c r="BV1" s="92"/>
+      <c r="BW1" s="92"/>
+      <c r="BX1" s="92"/>
+      <c r="BY1" s="92"/>
+      <c r="BZ1" s="92"/>
+      <c r="CA1" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="CB1" s="83"/>
-      <c r="CC1" s="83"/>
-      <c r="CD1" s="83"/>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="83" t="s">
+      <c r="CB1" s="92"/>
+      <c r="CC1" s="92"/>
+      <c r="CD1" s="92"/>
+      <c r="CE1" s="92"/>
+      <c r="CF1" s="92"/>
+      <c r="CG1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="CH1" s="83"/>
-      <c r="CI1" s="83"/>
-      <c r="CJ1" s="83"/>
-      <c r="CK1" s="83"/>
-      <c r="CL1" s="83"/>
-      <c r="CM1" s="83" t="s">
+      <c r="CH1" s="92"/>
+      <c r="CI1" s="92"/>
+      <c r="CJ1" s="92"/>
+      <c r="CK1" s="92"/>
+      <c r="CL1" s="92"/>
+      <c r="CM1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="CN1" s="83"/>
-      <c r="CO1" s="83"/>
-      <c r="CP1" s="83"/>
-      <c r="CQ1" s="83"/>
-      <c r="CR1" s="83"/>
-      <c r="CS1" s="83" t="s">
+      <c r="CN1" s="92"/>
+      <c r="CO1" s="92"/>
+      <c r="CP1" s="92"/>
+      <c r="CQ1" s="92"/>
+      <c r="CR1" s="92"/>
+      <c r="CS1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="CT1" s="83"/>
-      <c r="CU1" s="83"/>
-      <c r="CV1" s="83"/>
-      <c r="CW1" s="83"/>
-      <c r="CX1" s="83"/>
+      <c r="CT1" s="92"/>
+      <c r="CU1" s="92"/>
+      <c r="CV1" s="92"/>
+      <c r="CW1" s="92"/>
+      <c r="CX1" s="92"/>
     </row>
     <row r="2" spans="1:109" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12681,15 +12895,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:EY78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" topLeftCell="AN7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CI43" sqref="CI43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="84" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="82" customWidth="1"/>
     <col min="4" max="37" width="5.5703125" style="7" customWidth="1"/>
     <col min="38" max="47" width="5.5703125" style="1" customWidth="1"/>
     <col min="48" max="48" width="5.5703125" style="48" customWidth="1"/>
@@ -12698,11 +12912,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:143" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="29" t="s">
         <v>1</v>
       </c>
@@ -12758,104 +12972,104 @@
       <c r="AT1" s="23"/>
       <c r="AU1" s="23"/>
       <c r="AV1" s="50"/>
-      <c r="AX1" s="83" t="s">
+      <c r="AX1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="83"/>
-      <c r="BA1" s="83"/>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83" t="s">
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
+      <c r="BC1" s="92"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="92"/>
+      <c r="BF1" s="92"/>
+      <c r="BG1" s="92"/>
+      <c r="BH1" s="92"/>
+      <c r="BI1" s="92"/>
+      <c r="BJ1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="83"/>
-      <c r="BP1" s="83"/>
-      <c r="BQ1" s="83"/>
-      <c r="BR1" s="83"/>
-      <c r="BS1" s="83"/>
-      <c r="BT1" s="83"/>
-      <c r="BU1" s="83"/>
-      <c r="BV1" s="83" t="s">
+      <c r="BK1" s="92"/>
+      <c r="BL1" s="92"/>
+      <c r="BM1" s="92"/>
+      <c r="BN1" s="92"/>
+      <c r="BO1" s="92"/>
+      <c r="BP1" s="92"/>
+      <c r="BQ1" s="92"/>
+      <c r="BR1" s="92"/>
+      <c r="BS1" s="92"/>
+      <c r="BT1" s="92"/>
+      <c r="BU1" s="92"/>
+      <c r="BV1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="BW1" s="83"/>
-      <c r="BX1" s="83"/>
-      <c r="BY1" s="83"/>
-      <c r="BZ1" s="83"/>
-      <c r="CA1" s="83"/>
-      <c r="CB1" s="83"/>
-      <c r="CC1" s="83"/>
-      <c r="CD1" s="83"/>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="83"/>
-      <c r="CG1" s="83"/>
-      <c r="CH1" s="83" t="s">
+      <c r="BW1" s="92"/>
+      <c r="BX1" s="92"/>
+      <c r="BY1" s="92"/>
+      <c r="BZ1" s="92"/>
+      <c r="CA1" s="92"/>
+      <c r="CB1" s="92"/>
+      <c r="CC1" s="92"/>
+      <c r="CD1" s="92"/>
+      <c r="CE1" s="92"/>
+      <c r="CF1" s="92"/>
+      <c r="CG1" s="92"/>
+      <c r="CH1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="CI1" s="83"/>
-      <c r="CJ1" s="83"/>
-      <c r="CK1" s="83"/>
-      <c r="CL1" s="83"/>
-      <c r="CM1" s="83"/>
-      <c r="CN1" s="83"/>
-      <c r="CO1" s="83"/>
-      <c r="CP1" s="83"/>
-      <c r="CQ1" s="83"/>
-      <c r="CR1" s="83"/>
-      <c r="CS1" s="83"/>
-      <c r="CT1" s="83" t="s">
+      <c r="CI1" s="92"/>
+      <c r="CJ1" s="92"/>
+      <c r="CK1" s="92"/>
+      <c r="CL1" s="92"/>
+      <c r="CM1" s="92"/>
+      <c r="CN1" s="92"/>
+      <c r="CO1" s="92"/>
+      <c r="CP1" s="92"/>
+      <c r="CQ1" s="92"/>
+      <c r="CR1" s="92"/>
+      <c r="CS1" s="92"/>
+      <c r="CT1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="CU1" s="83"/>
-      <c r="CV1" s="83"/>
-      <c r="CW1" s="83"/>
-      <c r="CX1" s="83"/>
-      <c r="CY1" s="83"/>
-      <c r="CZ1" s="83"/>
-      <c r="DA1" s="83"/>
-      <c r="DB1" s="83"/>
-      <c r="DC1" s="83"/>
-      <c r="DD1" s="83"/>
-      <c r="DE1" s="83"/>
-      <c r="DF1" s="83" t="s">
+      <c r="CU1" s="92"/>
+      <c r="CV1" s="92"/>
+      <c r="CW1" s="92"/>
+      <c r="CX1" s="92"/>
+      <c r="CY1" s="92"/>
+      <c r="CZ1" s="92"/>
+      <c r="DA1" s="92"/>
+      <c r="DB1" s="92"/>
+      <c r="DC1" s="92"/>
+      <c r="DD1" s="92"/>
+      <c r="DE1" s="92"/>
+      <c r="DF1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="DG1" s="83"/>
-      <c r="DH1" s="83"/>
-      <c r="DI1" s="83"/>
-      <c r="DJ1" s="83"/>
-      <c r="DK1" s="83"/>
-      <c r="DL1" s="83"/>
-      <c r="DM1" s="83"/>
-      <c r="DN1" s="83"/>
-      <c r="DO1" s="83"/>
-      <c r="DP1" s="83"/>
-      <c r="DQ1" s="83"/>
-      <c r="DR1" s="83" t="s">
+      <c r="DG1" s="92"/>
+      <c r="DH1" s="92"/>
+      <c r="DI1" s="92"/>
+      <c r="DJ1" s="92"/>
+      <c r="DK1" s="92"/>
+      <c r="DL1" s="92"/>
+      <c r="DM1" s="92"/>
+      <c r="DN1" s="92"/>
+      <c r="DO1" s="92"/>
+      <c r="DP1" s="92"/>
+      <c r="DQ1" s="92"/>
+      <c r="DR1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="DS1" s="83"/>
-      <c r="DT1" s="83"/>
-      <c r="DU1" s="83"/>
-      <c r="DV1" s="83"/>
-      <c r="DW1" s="83"/>
-      <c r="DX1" s="83"/>
-      <c r="DY1" s="83"/>
-      <c r="DZ1" s="83"/>
-      <c r="EA1" s="83"/>
-      <c r="EB1" s="83"/>
-      <c r="EC1" s="83"/>
+      <c r="DS1" s="92"/>
+      <c r="DT1" s="92"/>
+      <c r="DU1" s="92"/>
+      <c r="DV1" s="92"/>
+      <c r="DW1" s="92"/>
+      <c r="DX1" s="92"/>
+      <c r="DY1" s="92"/>
+      <c r="DZ1" s="92"/>
+      <c r="EA1" s="92"/>
+      <c r="EB1" s="92"/>
+      <c r="EC1" s="92"/>
       <c r="ED1" s="73"/>
       <c r="EE1" s="1" t="s">
         <v>41</v>
@@ -12874,7 +13088,7 @@
       <c r="B2" s="20">
         <v>300</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="82">
         <v>100</v>
       </c>
       <c r="E2">
@@ -13296,7 +13510,7 @@
       <c r="B4" s="24">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="83">
         <v>2.42</v>
       </c>
       <c r="D4" s="52"/>
@@ -13328,7 +13542,7 @@
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="28"/>
@@ -13380,7 +13594,7 @@
       <c r="B6" s="26">
         <v>5.19</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="85">
         <v>14.53</v>
       </c>
       <c r="D6" s="75">
@@ -13860,7 +14074,7 @@
       <c r="B7" s="26">
         <v>0.61</v>
       </c>
-      <c r="C7" s="87">
+      <c r="C7" s="85">
         <v>0.30499999999999999</v>
       </c>
       <c r="D7" s="75">
@@ -14336,7 +14550,7 @@
     <row r="8" spans="1:143" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="87"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="75">
         <f t="shared" si="15"/>
         <v>2</v>
@@ -14810,7 +15024,7 @@
     <row r="9" spans="1:143" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="87"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="75">
         <f t="shared" si="15"/>
         <v>2.5</v>
@@ -15284,7 +15498,7 @@
     <row r="10" spans="1:143" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="87"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="75">
         <f t="shared" si="15"/>
         <v>3</v>
@@ -15758,7 +15972,7 @@
     <row r="11" spans="1:143" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="87"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="75">
         <f t="shared" si="15"/>
         <v>3.5</v>
@@ -16232,7 +16446,7 @@
     <row r="12" spans="1:143" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="87"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="75">
         <f t="shared" si="15"/>
         <v>4</v>
@@ -16706,7 +16920,7 @@
     <row r="13" spans="1:143" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="87"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="75">
         <f t="shared" si="15"/>
         <v>4.5</v>
@@ -17180,7 +17394,7 @@
     <row r="14" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
-      <c r="C14" s="88"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="75">
         <f t="shared" si="15"/>
         <v>5</v>
@@ -17654,7 +17868,7 @@
     <row r="15" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
-      <c r="C15" s="88"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="75">
         <f t="shared" si="15"/>
         <v>5.5</v>
@@ -18128,7 +18342,7 @@
     <row r="16" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
       <c r="B16" s="59"/>
-      <c r="C16" s="88"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="75">
         <f t="shared" si="15"/>
         <v>6</v>
@@ -18602,7 +18816,7 @@
     <row r="17" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
       <c r="B17" s="59"/>
-      <c r="C17" s="88"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="65"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -18746,7 +18960,7 @@
     <row r="18" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
       <c r="B18" s="59"/>
-      <c r="C18" s="88"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="76" t="s">
         <v>49</v>
       </c>
@@ -18896,7 +19110,7 @@
     <row r="19" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
       <c r="B19" s="59"/>
-      <c r="C19" s="88"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="65"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -19042,7 +19256,7 @@
     <row r="20" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
       <c r="B20" s="59"/>
-      <c r="C20" s="88"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="72">
         <f>AW20</f>
         <v>100</v>
@@ -19544,7 +19758,7 @@
     <row r="21" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
       <c r="B21" s="59"/>
-      <c r="C21" s="88"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="72">
         <f t="shared" ref="D21:D29" si="136">AW21</f>
         <v>150</v>
@@ -19994,7 +20208,7 @@
     <row r="22" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
       <c r="B22" s="59"/>
-      <c r="C22" s="88"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="72">
         <f t="shared" si="136"/>
         <v>200</v>
@@ -20444,7 +20658,7 @@
     <row r="23" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
       <c r="B23" s="59"/>
-      <c r="C23" s="88"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="72">
         <f t="shared" si="136"/>
         <v>250</v>
@@ -20894,7 +21108,7 @@
     <row r="24" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
       <c r="B24" s="59"/>
-      <c r="C24" s="88"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="72">
         <f t="shared" si="136"/>
         <v>300</v>
@@ -21344,7 +21558,7 @@
     <row r="25" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="88"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="72">
         <f t="shared" si="136"/>
         <v>350</v>
@@ -21794,7 +22008,7 @@
     <row r="26" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" s="59"/>
-      <c r="C26" s="88"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="72">
         <f t="shared" si="136"/>
         <v>400</v>
@@ -22244,7 +22458,7 @@
     <row r="27" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
       <c r="B27" s="59"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="72">
         <f t="shared" si="136"/>
         <v>450</v>
@@ -22694,7 +22908,7 @@
     <row r="28" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
       <c r="B28" s="59"/>
-      <c r="C28" s="88"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="72">
         <f t="shared" si="136"/>
         <v>500</v>
@@ -23144,7 +23358,7 @@
     <row r="29" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
       <c r="B29" s="59"/>
-      <c r="C29" s="88"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="72">
         <f t="shared" si="136"/>
         <v>550</v>
@@ -23594,7 +23808,7 @@
     <row r="30" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
       <c r="B30" s="59"/>
-      <c r="C30" s="88"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="72">
         <f>AW30</f>
         <v>600</v>
@@ -24044,7 +24258,7 @@
     <row r="31" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
       <c r="B31" s="59"/>
-      <c r="C31" s="88"/>
+      <c r="C31" s="86"/>
       <c r="D31" s="65"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -24188,7 +24402,7 @@
     <row r="32" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
       <c r="B32" s="59"/>
-      <c r="C32" s="88"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="65"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -24334,7 +24548,7 @@
     <row r="33" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="59"/>
-      <c r="C33" s="88"/>
+      <c r="C33" s="86"/>
       <c r="D33" s="65"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -24480,7 +24694,7 @@
     <row r="34" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60"/>
       <c r="B34" s="59"/>
-      <c r="C34" s="88"/>
+      <c r="C34" s="86"/>
       <c r="D34" s="72">
         <v>500</v>
       </c>
@@ -24929,7 +25143,7 @@
     <row r="35" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60"/>
       <c r="B35" s="59"/>
-      <c r="C35" s="88"/>
+      <c r="C35" s="86"/>
       <c r="D35" s="65"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -25071,7 +25285,7 @@
     <row r="36" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60"/>
       <c r="B36" s="59"/>
-      <c r="C36" s="88"/>
+      <c r="C36" s="86"/>
       <c r="D36" s="65"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -25116,17 +25330,39 @@
       <c r="AS36" s="6"/>
       <c r="AW36" s="56"/>
       <c r="AX36"/>
-      <c r="AY36"/>
-      <c r="AZ36"/>
-      <c r="BA36"/>
-      <c r="BB36"/>
-      <c r="BC36"/>
-      <c r="BD36"/>
-      <c r="BE36"/>
-      <c r="BF36"/>
-      <c r="BG36"/>
-      <c r="BH36"/>
-      <c r="BI36"/>
+      <c r="AY36">
+        <v>300</v>
+      </c>
+      <c r="AZ36">
+        <v>100</v>
+      </c>
+      <c r="BA36">
+        <v>150</v>
+      </c>
+      <c r="BB36">
+        <v>300</v>
+      </c>
+      <c r="BC36">
+        <v>150</v>
+      </c>
+      <c r="BD36">
+        <v>100</v>
+      </c>
+      <c r="BE36">
+        <v>91.666667000000004</v>
+      </c>
+      <c r="BF36">
+        <v>300</v>
+      </c>
+      <c r="BG36">
+        <v>300</v>
+      </c>
+      <c r="BH36">
+        <v>83.33</v>
+      </c>
+      <c r="BI36">
+        <v>300</v>
+      </c>
       <c r="BJ36"/>
       <c r="BK36"/>
       <c r="BL36"/>
@@ -25285,7 +25521,7 @@
     <row r="37" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60"/>
       <c r="B37" s="59"/>
-      <c r="C37" s="88"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="65"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -25328,31 +25564,96 @@
       <c r="AQ37" s="6"/>
       <c r="AR37" s="6"/>
       <c r="AS37" s="6"/>
-      <c r="AW37" s="56"/>
+      <c r="AW37" s="56">
+        <f>AW6</f>
+        <v>100</v>
+      </c>
       <c r="AX37"/>
-      <c r="AY37"/>
-      <c r="AZ37"/>
-      <c r="BA37"/>
-      <c r="BB37"/>
-      <c r="BC37"/>
-      <c r="BD37"/>
-      <c r="BE37"/>
-      <c r="BF37"/>
-      <c r="BG37"/>
-      <c r="BH37"/>
-      <c r="BI37"/>
+      <c r="AY37" s="4">
+        <f>$AX6-AY6</f>
+        <v>0.60169491525425034</v>
+      </c>
+      <c r="AZ37" s="4">
+        <f t="shared" ref="AZ37:BI37" si="224">$AX6-AZ6</f>
+        <v>0.86610169491525024</v>
+      </c>
+      <c r="BA37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.69491525423728007</v>
+      </c>
+      <c r="BB37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.56271186440678989</v>
+      </c>
+      <c r="BC37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.66440677966101003</v>
+      </c>
+      <c r="BD37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.78813559322034976</v>
+      </c>
+      <c r="BE37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.90338983050846977</v>
+      </c>
+      <c r="BF37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.59322033898305992</v>
+      </c>
+      <c r="BG37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.69152542372880976</v>
+      </c>
+      <c r="BH37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.92542372881355028</v>
+      </c>
+      <c r="BI37" s="4">
+        <f t="shared" si="224"/>
+        <v>0.56101694915254985</v>
+      </c>
       <c r="BJ37"/>
-      <c r="BK37"/>
-      <c r="BL37"/>
-      <c r="BM37"/>
-      <c r="BN37"/>
-      <c r="BO37"/>
-      <c r="BP37"/>
-      <c r="BQ37"/>
-      <c r="BR37"/>
-      <c r="BS37"/>
-      <c r="BT37"/>
-      <c r="BU37"/>
+      <c r="BK37" s="4">
+        <f>$AX20-AY20</f>
+        <v>0.6423728813559304</v>
+      </c>
+      <c r="BL37" s="4">
+        <f>$AX20-AZ20</f>
+        <v>0.84237288135594035</v>
+      </c>
+      <c r="BM37" s="4">
+        <f>$AX20-BA20</f>
+        <v>0.68305084745762024</v>
+      </c>
+      <c r="BN37" s="4">
+        <f>$AX20-BB20</f>
+        <v>0.55084745762713005</v>
+      </c>
+      <c r="BO37" s="4">
+        <f>$AX20-BC20</f>
+        <v>0.64576271186440071</v>
+      </c>
+      <c r="BP37" s="4">
+        <f>$AX20-BD20</f>
+        <v>0.74237288135593005</v>
+      </c>
+      <c r="BQ37" s="4">
+        <f>$AX20-BE20</f>
+        <v>0.80338983050847013</v>
+      </c>
+      <c r="BR37" s="4">
+        <f>$AX20-BF20</f>
+        <v>0.56101694915255074</v>
+      </c>
+      <c r="BS37" s="4">
+        <f>$AX20-BG20</f>
+        <v>0.6000000000000103</v>
+      </c>
+      <c r="BT37" s="4">
+        <f>$AX20-BH20</f>
+        <v>0.98135593220338002</v>
+      </c>
       <c r="BV37"/>
       <c r="BW37"/>
       <c r="BX37"/>
@@ -25427,7 +25728,7 @@
     <row r="38" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="59"/>
-      <c r="C38" s="88"/>
+      <c r="C38" s="86"/>
       <c r="D38" s="65"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -25470,30 +25771,96 @@
       <c r="AQ38" s="6"/>
       <c r="AR38" s="6"/>
       <c r="AS38" s="6"/>
-      <c r="AW38" s="56"/>
+      <c r="AW38" s="56">
+        <f t="shared" ref="AW38:AW46" si="225">AW7</f>
+        <v>150</v>
+      </c>
       <c r="AX38"/>
-      <c r="AY38"/>
-      <c r="AZ38"/>
-      <c r="BA38"/>
-      <c r="BB38"/>
-      <c r="BC38"/>
-      <c r="BD38"/>
-      <c r="BE38"/>
-      <c r="BF38"/>
-      <c r="BG38"/>
-      <c r="BH38"/>
-      <c r="BI38"/>
+      <c r="AY38" s="4">
+        <f t="shared" ref="AY38:BI38" si="226">$AX7-AY7</f>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="AZ38" s="4">
+        <f t="shared" si="226"/>
+        <v>1.1090909090909005</v>
+      </c>
+      <c r="BA38" s="4">
+        <f t="shared" si="226"/>
+        <v>0.99090909090909918</v>
+      </c>
+      <c r="BB38" s="4">
+        <f t="shared" si="226"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="BC38" s="4">
+        <f t="shared" si="226"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="BD38" s="4">
+        <f t="shared" si="226"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="BE38" s="4">
+        <f t="shared" si="226"/>
+        <v>1.2090909090909001</v>
+      </c>
+      <c r="BF38" s="4">
+        <f t="shared" si="226"/>
+        <v>0.88181818181820049</v>
+      </c>
+      <c r="BG38" s="4">
+        <f t="shared" si="226"/>
+        <v>0.70677966101700029</v>
+      </c>
+      <c r="BH38" s="4">
+        <f t="shared" si="226"/>
+        <v>1.2118644067797</v>
+      </c>
+      <c r="BI38" s="4">
+        <f t="shared" si="226"/>
+        <v>0.83898305084749936</v>
+      </c>
       <c r="BJ38"/>
-      <c r="BK38"/>
-      <c r="BL38"/>
-      <c r="BM38"/>
-      <c r="BN38"/>
-      <c r="BO38"/>
-      <c r="BP38"/>
-      <c r="BQ38"/>
-      <c r="BR38"/>
-      <c r="BS38"/>
-      <c r="BT38"/>
+      <c r="BK38" s="4">
+        <f t="shared" ref="BK38:BT38" si="227">$AX21-AY21</f>
+        <v>0.79830508474579887</v>
+      </c>
+      <c r="BL38" s="4">
+        <f t="shared" si="227"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="BM38" s="4">
+        <f t="shared" si="227"/>
+        <v>0.97457627118640033</v>
+      </c>
+      <c r="BN38" s="4">
+        <f t="shared" si="227"/>
+        <v>0.80847457627120001</v>
+      </c>
+      <c r="BO38" s="4">
+        <f t="shared" si="227"/>
+        <v>1.0084745762711993</v>
+      </c>
+      <c r="BP38" s="4">
+        <f t="shared" si="227"/>
+        <v>1.2152542372881996</v>
+      </c>
+      <c r="BQ38" s="4">
+        <f t="shared" si="227"/>
+        <v>1.2830508474576003</v>
+      </c>
+      <c r="BR38" s="4">
+        <f t="shared" si="227"/>
+        <v>0.97796610169489995</v>
+      </c>
+      <c r="BS38" s="4">
+        <f t="shared" si="227"/>
+        <v>0.98135593220339956</v>
+      </c>
+      <c r="BT38" s="4">
+        <f t="shared" si="227"/>
+        <v>1.3694915254236992</v>
+      </c>
       <c r="BU38"/>
       <c r="BV38"/>
       <c r="BW38"/>
@@ -25569,7 +25936,7 @@
     <row r="39" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="59"/>
-      <c r="C39" s="88"/>
+      <c r="C39" s="86"/>
       <c r="D39" s="65"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -25612,30 +25979,96 @@
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
-      <c r="AW39" s="56"/>
+      <c r="AW39" s="56">
+        <f t="shared" si="225"/>
+        <v>200</v>
+      </c>
       <c r="AX39"/>
-      <c r="AY39"/>
-      <c r="AZ39"/>
-      <c r="BA39"/>
-      <c r="BB39"/>
-      <c r="BC39"/>
-      <c r="BD39"/>
-      <c r="BE39"/>
-      <c r="BF39"/>
-      <c r="BG39"/>
-      <c r="BH39"/>
-      <c r="BI39"/>
+      <c r="AY39" s="4">
+        <f t="shared" ref="AY39:BI39" si="228">$AX8-AY8</f>
+        <v>0.87272727272720019</v>
+      </c>
+      <c r="AZ39" s="4">
+        <f t="shared" si="228"/>
+        <v>1.236363636363599</v>
+      </c>
+      <c r="BA39" s="4">
+        <f t="shared" si="228"/>
+        <v>1.0545454545453978</v>
+      </c>
+      <c r="BB39" s="4">
+        <f t="shared" si="228"/>
+        <v>0.87272727272720019</v>
+      </c>
+      <c r="BC39" s="4">
+        <f t="shared" si="228"/>
+        <v>1.0545454545453978</v>
+      </c>
+      <c r="BD39" s="4">
+        <f t="shared" si="228"/>
+        <v>1.1727272727271973</v>
+      </c>
+      <c r="BE39" s="4">
+        <f t="shared" si="228"/>
+        <v>1.236363636363599</v>
+      </c>
+      <c r="BF39" s="4">
+        <f t="shared" si="228"/>
+        <v>0.8363636363635969</v>
+      </c>
+      <c r="BG39" s="4">
+        <f t="shared" si="228"/>
+        <v>0.92003081664089947</v>
+      </c>
+      <c r="BH39" s="4">
+        <f t="shared" si="228"/>
+        <v>1.3844375963019999</v>
+      </c>
+      <c r="BI39" s="4">
+        <f t="shared" si="228"/>
+        <v>0.83020030816639689</v>
+      </c>
       <c r="BJ39"/>
-      <c r="BK39"/>
-      <c r="BL39"/>
-      <c r="BM39"/>
-      <c r="BN39"/>
-      <c r="BO39"/>
-      <c r="BP39"/>
-      <c r="BQ39"/>
-      <c r="BR39"/>
-      <c r="BS39"/>
-      <c r="BT39"/>
+      <c r="BK39" s="4">
+        <f t="shared" ref="BK39:BT39" si="229">$AX22-AY22</f>
+        <v>0.93050847457630326</v>
+      </c>
+      <c r="BL39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.3440677966102008</v>
+      </c>
+      <c r="BM39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.266101694915303</v>
+      </c>
+      <c r="BN39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.1152542372882017</v>
+      </c>
+      <c r="BO39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.2847457627118999</v>
+      </c>
+      <c r="BP39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.4661016949153023</v>
+      </c>
+      <c r="BQ39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.4830508474576014</v>
+      </c>
+      <c r="BR39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.0101694915254029</v>
+      </c>
+      <c r="BS39" s="4">
+        <f t="shared" si="229"/>
+        <v>0.98644067796610102</v>
+      </c>
+      <c r="BT39" s="4">
+        <f t="shared" si="229"/>
+        <v>1.4966101694915004</v>
+      </c>
       <c r="BU39"/>
       <c r="BV39"/>
       <c r="BW39"/>
@@ -25711,7 +26144,7 @@
     <row r="40" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="59"/>
-      <c r="C40" s="88"/>
+      <c r="C40" s="86"/>
       <c r="D40" s="65"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -25754,30 +26187,96 @@
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
-      <c r="AW40" s="56"/>
+      <c r="AW40" s="56">
+        <f t="shared" si="225"/>
+        <v>250</v>
+      </c>
       <c r="AX40"/>
-      <c r="AY40"/>
-      <c r="AZ40"/>
-      <c r="BA40"/>
-      <c r="BB40"/>
-      <c r="BC40"/>
-      <c r="BD40"/>
-      <c r="BE40"/>
-      <c r="BF40"/>
-      <c r="BG40"/>
-      <c r="BH40"/>
-      <c r="BI40"/>
+      <c r="AY40" s="4">
+        <f t="shared" ref="AY40:BI40" si="230">$AX9-AY9</f>
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="AZ40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.5636363636364017</v>
+      </c>
+      <c r="BA40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.3454545454545013</v>
+      </c>
+      <c r="BB40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.0272727272727025</v>
+      </c>
+      <c r="BC40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.3181818181818024</v>
+      </c>
+      <c r="BD40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.5181818181818016</v>
+      </c>
+      <c r="BE40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.6090909090909022</v>
+      </c>
+      <c r="BF40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.0454545454545006</v>
+      </c>
+      <c r="BG40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.0016949152543013</v>
+      </c>
+      <c r="BH40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.6338983050846991</v>
+      </c>
+      <c r="BI40" s="4">
+        <f t="shared" si="230"/>
+        <v>1.0440677966102001</v>
+      </c>
       <c r="BJ40"/>
-      <c r="BK40"/>
-      <c r="BL40"/>
-      <c r="BM40"/>
-      <c r="BN40"/>
-      <c r="BO40"/>
-      <c r="BP40"/>
-      <c r="BQ40"/>
-      <c r="BR40"/>
-      <c r="BS40"/>
-      <c r="BT40"/>
+      <c r="BK40" s="4">
+        <f t="shared" ref="BK40:BT40" si="231">$AX23-AY23</f>
+        <v>1.1118644067796986</v>
+      </c>
+      <c r="BL40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.6050847457626993</v>
+      </c>
+      <c r="BM40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.4745762711863968</v>
+      </c>
+      <c r="BN40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.1016949152541997</v>
+      </c>
+      <c r="BO40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.2711864406779974</v>
+      </c>
+      <c r="BP40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.5186440677965969</v>
+      </c>
+      <c r="BQ40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.5559322033897978</v>
+      </c>
+      <c r="BR40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.0711864406778986</v>
+      </c>
+      <c r="BS40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.0406779661016969</v>
+      </c>
+      <c r="BT40" s="4">
+        <f t="shared" si="231"/>
+        <v>1.6491525423728994</v>
+      </c>
       <c r="BU40"/>
       <c r="BV40"/>
       <c r="BW40"/>
@@ -25853,7 +26352,7 @@
     <row r="41" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="59"/>
-      <c r="C41" s="88"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="65"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -25896,30 +26395,96 @@
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
-      <c r="AW41" s="56"/>
+      <c r="AW41" s="56">
+        <f t="shared" si="225"/>
+        <v>300</v>
+      </c>
       <c r="AX41"/>
-      <c r="AY41"/>
-      <c r="AZ41"/>
-      <c r="BA41"/>
-      <c r="BB41"/>
-      <c r="BC41"/>
-      <c r="BD41"/>
-      <c r="BE41"/>
-      <c r="BF41"/>
-      <c r="BG41"/>
-      <c r="BH41"/>
-      <c r="BI41"/>
+      <c r="AY41" s="4">
+        <f t="shared" ref="AY41:BI41" si="232">$AX10-AY10</f>
+        <v>1.2545454545454007</v>
+      </c>
+      <c r="AZ41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.9090909090908994</v>
+      </c>
+      <c r="BA41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.6727272727273004</v>
+      </c>
+      <c r="BB41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.2818181818181955</v>
+      </c>
+      <c r="BC41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.618181818181796</v>
+      </c>
+      <c r="BD41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.9090909090908994</v>
+      </c>
+      <c r="BE41" s="4">
+        <f t="shared" si="232"/>
+        <v>2.1727272727273004</v>
+      </c>
+      <c r="BF41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.5363636363635962</v>
+      </c>
+      <c r="BG41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.3690292758088987</v>
+      </c>
+      <c r="BH41" s="4">
+        <f t="shared" si="232"/>
+        <v>2.1910631741139994</v>
+      </c>
+      <c r="BI41" s="4">
+        <f t="shared" si="232"/>
+        <v>1.4215716486901968</v>
+      </c>
       <c r="BJ41"/>
-      <c r="BK41"/>
-      <c r="BL41"/>
-      <c r="BM41"/>
-      <c r="BN41"/>
-      <c r="BO41"/>
-      <c r="BP41"/>
-      <c r="BQ41"/>
-      <c r="BR41"/>
-      <c r="BS41"/>
-      <c r="BT41"/>
+      <c r="BK41" s="4">
+        <f t="shared" ref="BK41:BT41" si="233">$AX24-AY24</f>
+        <v>1.410169491525501</v>
+      </c>
+      <c r="BL41" s="4">
+        <f t="shared" si="233"/>
+        <v>2.0152542372882039</v>
+      </c>
+      <c r="BM41" s="4">
+        <f t="shared" si="233"/>
+        <v>1.716949152542405</v>
+      </c>
+      <c r="BN41" s="4">
+        <f t="shared" si="233"/>
+        <v>1.3932203389830988</v>
+      </c>
+      <c r="BO41" s="4">
+        <f t="shared" si="233"/>
+        <v>1.6779661016948992</v>
+      </c>
+      <c r="BP41" s="4">
+        <f t="shared" si="233"/>
+        <v>1.9305084745762997</v>
+      </c>
+      <c r="BQ41" s="4">
+        <f t="shared" si="233"/>
+        <v>2.0050847457628009</v>
+      </c>
+      <c r="BR41" s="4">
+        <f t="shared" si="233"/>
+        <v>1.3745762711865055</v>
+      </c>
+      <c r="BS41" s="4">
+        <f t="shared" si="233"/>
+        <v>1.3661016949153009</v>
+      </c>
+      <c r="BT41" s="4">
+        <f t="shared" si="233"/>
+        <v>2.1118644067797021</v>
+      </c>
       <c r="BU41"/>
       <c r="BV41"/>
       <c r="BW41"/>
@@ -25995,7 +26560,7 @@
     <row r="42" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="59"/>
-      <c r="C42" s="88"/>
+      <c r="C42" s="86"/>
       <c r="D42" s="65"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -26038,30 +26603,96 @@
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6"/>
       <c r="AS42" s="6"/>
-      <c r="AW42" s="56"/>
+      <c r="AW42" s="56">
+        <f t="shared" si="225"/>
+        <v>350</v>
+      </c>
       <c r="AX42"/>
-      <c r="AY42"/>
-      <c r="AZ42"/>
-      <c r="BA42"/>
-      <c r="BB42"/>
-      <c r="BC42"/>
-      <c r="BD42"/>
-      <c r="BE42"/>
-      <c r="BF42"/>
-      <c r="BG42"/>
-      <c r="BH42"/>
-      <c r="BI42"/>
+      <c r="AY42" s="4">
+        <f t="shared" ref="AY42:BI42" si="234">$AX11-AY11</f>
+        <v>1.3745762711862994</v>
+      </c>
+      <c r="AZ42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.8677966101693997</v>
+      </c>
+      <c r="BA42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.6372881355931028</v>
+      </c>
+      <c r="BB42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.369491525423598</v>
+      </c>
+      <c r="BC42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.6440677966101021</v>
+      </c>
+      <c r="BD42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.8576271186439044</v>
+      </c>
+      <c r="BE42" s="4">
+        <f t="shared" si="234"/>
+        <v>2.1084745762710995</v>
+      </c>
+      <c r="BF42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.6152542372880987</v>
+      </c>
+      <c r="BG42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.3423728813558</v>
+      </c>
+      <c r="BH42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.9677966101695006</v>
+      </c>
+      <c r="BI42" s="4">
+        <f t="shared" si="234"/>
+        <v>1.2983050847456994</v>
+      </c>
       <c r="BJ42"/>
-      <c r="BK42"/>
-      <c r="BL42"/>
-      <c r="BM42"/>
-      <c r="BN42"/>
-      <c r="BO42"/>
-      <c r="BP42"/>
-      <c r="BQ42"/>
-      <c r="BR42"/>
-      <c r="BS42"/>
-      <c r="BT42"/>
+      <c r="BK42" s="4">
+        <f t="shared" ref="BK42:BT42" si="235">$AX25-AY25</f>
+        <v>1.3406779661017012</v>
+      </c>
+      <c r="BL42" s="4">
+        <f t="shared" si="235"/>
+        <v>1.7711864406780009</v>
+      </c>
+      <c r="BM42" s="4">
+        <f t="shared" si="235"/>
+        <v>1.6101694915254043</v>
+      </c>
+      <c r="BN42" s="4">
+        <f t="shared" si="235"/>
+        <v>1.4101694915254015</v>
+      </c>
+      <c r="BO42" s="4">
+        <f t="shared" si="235"/>
+        <v>1.7813559322034038</v>
+      </c>
+      <c r="BP42" s="4">
+        <f t="shared" si="235"/>
+        <v>2.089830508474499</v>
+      </c>
+      <c r="BQ42" s="4">
+        <f t="shared" si="235"/>
+        <v>2.1779661016949987</v>
+      </c>
+      <c r="BR42" s="4">
+        <f t="shared" si="235"/>
+        <v>1.7372881355933032</v>
+      </c>
+      <c r="BS42" s="4">
+        <f t="shared" si="235"/>
+        <v>1.6983050847458045</v>
+      </c>
+      <c r="BT42" s="4">
+        <f t="shared" si="235"/>
+        <v>2.2237288135594042</v>
+      </c>
       <c r="BU42"/>
       <c r="BV42"/>
       <c r="BW42"/>
@@ -26076,7 +26707,10 @@
       <c r="CF42"/>
       <c r="CG42"/>
       <c r="CH42"/>
-      <c r="CI42"/>
+      <c r="CI42">
+        <f>12000/3600</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="CJ42"/>
       <c r="CK42"/>
       <c r="CL42"/>
@@ -26137,7 +26771,7 @@
     <row r="43" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="59"/>
-      <c r="C43" s="88"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="65"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -26180,30 +26814,96 @@
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
-      <c r="AW43" s="56"/>
+      <c r="AW43" s="56">
+        <f t="shared" si="225"/>
+        <v>400</v>
+      </c>
       <c r="AX43"/>
-      <c r="AY43"/>
-      <c r="AZ43"/>
-      <c r="BA43"/>
-      <c r="BB43"/>
-      <c r="BC43"/>
-      <c r="BD43"/>
-      <c r="BE43"/>
-      <c r="BF43"/>
-      <c r="BG43"/>
-      <c r="BH43"/>
-      <c r="BI43"/>
+      <c r="AY43" s="4">
+        <f t="shared" ref="AY43:BI43" si="236">$AX12-AY12</f>
+        <v>1.2949152542371962</v>
+      </c>
+      <c r="AZ43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.4881355932203988</v>
+      </c>
+      <c r="BA43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.3762711864406967</v>
+      </c>
+      <c r="BB43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.2322033898304028</v>
+      </c>
+      <c r="BC43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.3101694915254001</v>
+      </c>
+      <c r="BD43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.4610169491526008</v>
+      </c>
+      <c r="BE43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.8016949152542026</v>
+      </c>
+      <c r="BF43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.5559322033898013</v>
+      </c>
+      <c r="BG43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.3898305084746028</v>
+      </c>
+      <c r="BH43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.864406779660996</v>
+      </c>
+      <c r="BI43" s="4">
+        <f t="shared" si="236"/>
+        <v>1.5610169491525028</v>
+      </c>
       <c r="BJ43"/>
-      <c r="BK43"/>
-      <c r="BL43"/>
-      <c r="BM43"/>
-      <c r="BN43"/>
-      <c r="BO43"/>
-      <c r="BP43"/>
-      <c r="BQ43"/>
-      <c r="BR43"/>
-      <c r="BS43"/>
-      <c r="BT43"/>
+      <c r="BK43" s="4">
+        <f t="shared" ref="BK43:BT43" si="237">$AX26-AY26</f>
+        <v>1.2559322033899036</v>
+      </c>
+      <c r="BL43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.7525423728814999</v>
+      </c>
+      <c r="BM43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.8033898305085998</v>
+      </c>
+      <c r="BN43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.7271186440679003</v>
+      </c>
+      <c r="BO43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.8932203389830988</v>
+      </c>
+      <c r="BP43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.9762711864406981</v>
+      </c>
+      <c r="BQ43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.8406779661018007</v>
+      </c>
+      <c r="BR43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.5</v>
+      </c>
+      <c r="BS43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.4389830508475043</v>
+      </c>
+      <c r="BT43" s="4">
+        <f t="shared" si="237"/>
+        <v>1.6915254237290043</v>
+      </c>
       <c r="BU43"/>
       <c r="BV43"/>
       <c r="BW43"/>
@@ -26279,7 +26979,7 @@
     <row r="44" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="59"/>
-      <c r="C44" s="88"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="65"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -26322,30 +27022,96 @@
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6"/>
       <c r="AS44" s="6"/>
-      <c r="AW44" s="56"/>
+      <c r="AW44" s="56">
+        <f t="shared" si="225"/>
+        <v>450</v>
+      </c>
       <c r="AX44"/>
-      <c r="AY44"/>
-      <c r="AZ44"/>
-      <c r="BA44"/>
-      <c r="BB44"/>
-      <c r="BC44"/>
-      <c r="BD44"/>
-      <c r="BE44"/>
-      <c r="BF44"/>
-      <c r="BG44"/>
-      <c r="BH44"/>
-      <c r="BI44"/>
+      <c r="AY44" s="4">
+        <f t="shared" ref="AY44:BI44" si="238">$AX13-AY13</f>
+        <v>1.3033898305086069</v>
+      </c>
+      <c r="AZ44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.5677966101694949</v>
+      </c>
+      <c r="BA44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.4525423728813962</v>
+      </c>
+      <c r="BB44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.3440677966102044</v>
+      </c>
+      <c r="BC44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.4169491525424007</v>
+      </c>
+      <c r="BD44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.5237288135593019</v>
+      </c>
+      <c r="BE44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.872881355932293</v>
+      </c>
+      <c r="BF44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.7423728813561041</v>
+      </c>
+      <c r="BG44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.527118644067798</v>
+      </c>
+      <c r="BH44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.7084745762713993</v>
+      </c>
+      <c r="BI44" s="4">
+        <f t="shared" si="238"/>
+        <v>1.3237288135593985</v>
+      </c>
       <c r="BJ44"/>
-      <c r="BK44"/>
-      <c r="BL44"/>
-      <c r="BM44"/>
-      <c r="BN44"/>
-      <c r="BO44"/>
-      <c r="BP44"/>
-      <c r="BQ44"/>
-      <c r="BR44"/>
-      <c r="BS44"/>
-      <c r="BT44"/>
+      <c r="BK44" s="4">
+        <f t="shared" ref="BK44:BT44" si="239">$AX27-AY27</f>
+        <v>1.3711864406780023</v>
+      </c>
+      <c r="BL44" s="4">
+        <f t="shared" si="239"/>
+        <v>1.6118644067796026</v>
+      </c>
+      <c r="BM44" s="4">
+        <f t="shared" si="239"/>
+        <v>1.4966101694915039</v>
+      </c>
+      <c r="BN44" s="4">
+        <f t="shared" si="239"/>
+        <v>1.2033898305083994</v>
+      </c>
+      <c r="BO44" s="4">
+        <f t="shared" si="239"/>
+        <v>1.0813559322033086</v>
+      </c>
+      <c r="BP44" s="4">
+        <f t="shared" si="239"/>
+        <v>1.113559322033808</v>
+      </c>
+      <c r="BQ44" s="4">
+        <f t="shared" si="239"/>
+        <v>1.157627118644001</v>
+      </c>
+      <c r="BR44" s="4">
+        <f t="shared" si="239"/>
+        <v>0.86949152542381114</v>
+      </c>
+      <c r="BS44" s="4">
+        <f t="shared" si="239"/>
+        <v>0.75762711864420851</v>
+      </c>
+      <c r="BT44" s="4">
+        <f t="shared" si="239"/>
+        <v>1.0152542372881044</v>
+      </c>
       <c r="BU44"/>
       <c r="BV44"/>
       <c r="BW44"/>
@@ -26421,7 +27187,7 @@
     <row r="45" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="B45" s="59"/>
-      <c r="C45" s="88"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="65"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -26464,30 +27230,96 @@
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
-      <c r="AW45" s="56"/>
+      <c r="AW45" s="56">
+        <f t="shared" si="225"/>
+        <v>500</v>
+      </c>
       <c r="AX45"/>
-      <c r="AY45"/>
-      <c r="AZ45"/>
-      <c r="BA45"/>
-      <c r="BB45"/>
-      <c r="BC45"/>
-      <c r="BD45"/>
-      <c r="BE45"/>
-      <c r="BF45"/>
-      <c r="BG45"/>
-      <c r="BH45"/>
-      <c r="BI45"/>
+      <c r="AY45" s="4">
+        <f t="shared" ref="AY45:BI45" si="240">$AX14-AY14</f>
+        <v>1.2711864406780933</v>
+      </c>
+      <c r="AZ45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.5644067796609988</v>
+      </c>
+      <c r="BA45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.4898305084745971</v>
+      </c>
+      <c r="BB45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.3932203389831983</v>
+      </c>
+      <c r="BC45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.4813559322033996</v>
+      </c>
+      <c r="BD45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.557627118644092</v>
+      </c>
+      <c r="BE45" s="4">
+        <f t="shared" si="240"/>
+        <v>2.0118644067795941</v>
+      </c>
+      <c r="BF45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.8169491525424917</v>
+      </c>
+      <c r="BG45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.2389830508474944</v>
+      </c>
+      <c r="BH45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.5338983050846906</v>
+      </c>
+      <c r="BI45" s="4">
+        <f t="shared" si="240"/>
+        <v>1.5694915254237003</v>
+      </c>
       <c r="BJ45"/>
-      <c r="BK45"/>
-      <c r="BL45"/>
-      <c r="BM45"/>
-      <c r="BN45"/>
-      <c r="BO45"/>
-      <c r="BP45"/>
-      <c r="BQ45"/>
-      <c r="BR45"/>
-      <c r="BS45"/>
-      <c r="BT45"/>
+      <c r="BK45" s="4">
+        <f t="shared" ref="BK45:BT45" si="241">$AX28-AY28</f>
+        <v>1.1576271186440863</v>
+      </c>
+      <c r="BL45" s="4">
+        <f t="shared" si="241"/>
+        <v>1.2694915254237884</v>
+      </c>
+      <c r="BM45" s="4">
+        <f t="shared" si="241"/>
+        <v>1.3389830508474887</v>
+      </c>
+      <c r="BN45" s="4">
+        <f t="shared" si="241"/>
+        <v>1.5033898305083966</v>
+      </c>
+      <c r="BO45" s="4">
+        <f t="shared" si="241"/>
+        <v>1.8254237288135897</v>
+      </c>
+      <c r="BP45" s="4">
+        <f t="shared" si="241"/>
+        <v>2.1847457627118985</v>
+      </c>
+      <c r="BQ45" s="4">
+        <f t="shared" si="241"/>
+        <v>2.5864406779660953</v>
+      </c>
+      <c r="BR45" s="4">
+        <f t="shared" si="241"/>
+        <v>3.0220338983050965</v>
+      </c>
+      <c r="BS45" s="4">
+        <f t="shared" si="241"/>
+        <v>3.6220338983051903</v>
+      </c>
+      <c r="BT45" s="4">
+        <f t="shared" si="241"/>
+        <v>4.2830508474576874</v>
+      </c>
       <c r="BU45"/>
       <c r="BV45"/>
       <c r="BW45"/>
@@ -26563,7 +27395,7 @@
     <row r="46" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
       <c r="B46" s="59"/>
-      <c r="C46" s="88"/>
+      <c r="C46" s="86"/>
       <c r="D46" s="65"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -26606,30 +27438,96 @@
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
       <c r="AS46" s="6"/>
-      <c r="AW46" s="56"/>
+      <c r="AW46" s="56">
+        <f t="shared" si="225"/>
+        <v>550</v>
+      </c>
       <c r="AX46"/>
-      <c r="AY46"/>
-      <c r="AZ46"/>
-      <c r="BA46"/>
-      <c r="BB46"/>
-      <c r="BC46"/>
-      <c r="BD46"/>
-      <c r="BE46"/>
-      <c r="BF46"/>
-      <c r="BG46"/>
-      <c r="BH46"/>
-      <c r="BI46"/>
+      <c r="AY46" s="4">
+        <f t="shared" ref="AY46:BI46" si="242">$AX15-AY15</f>
+        <v>1.4423728813559933</v>
+      </c>
+      <c r="AZ46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.6372881355933941</v>
+      </c>
+      <c r="BA46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.5898305084747051</v>
+      </c>
+      <c r="BB46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.4847457627118956</v>
+      </c>
+      <c r="BC46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.5813559322035928</v>
+      </c>
+      <c r="BD46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.6237288135594952</v>
+      </c>
+      <c r="BE46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.6423728813560956</v>
+      </c>
+      <c r="BF46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.4322033898305051</v>
+      </c>
+      <c r="BG46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.8813559322034052</v>
+      </c>
+      <c r="BH46" s="4">
+        <f t="shared" si="242"/>
+        <v>2.1694915254237941</v>
+      </c>
+      <c r="BI46" s="4">
+        <f t="shared" si="242"/>
+        <v>1.715254237288093</v>
+      </c>
       <c r="BJ46"/>
-      <c r="BK46"/>
-      <c r="BL46"/>
-      <c r="BM46"/>
-      <c r="BN46"/>
-      <c r="BO46"/>
-      <c r="BP46"/>
-      <c r="BQ46"/>
-      <c r="BR46"/>
-      <c r="BS46"/>
-      <c r="BT46"/>
+      <c r="BK46" s="4">
+        <f t="shared" ref="BK46:BT46" si="243">$AX29-AY29</f>
+        <v>1.6559322033899946</v>
+      </c>
+      <c r="BL46" s="4">
+        <f t="shared" si="243"/>
+        <v>1.742372881355891</v>
+      </c>
+      <c r="BM46" s="4">
+        <f t="shared" si="243"/>
+        <v>1.4322033898305904</v>
+      </c>
+      <c r="BN46" s="4">
+        <f t="shared" si="243"/>
+        <v>1.1762711864408004</v>
+      </c>
+      <c r="BO46" s="4">
+        <f t="shared" si="243"/>
+        <v>1.0677966101694949</v>
+      </c>
+      <c r="BP46" s="4">
+        <f t="shared" si="243"/>
+        <v>1.0305084745761945</v>
+      </c>
+      <c r="BQ46" s="4">
+        <f t="shared" si="243"/>
+        <v>0.991525423728703</v>
+      </c>
+      <c r="BR46" s="4">
+        <f t="shared" si="243"/>
+        <v>0.76101694915249141</v>
+      </c>
+      <c r="BS46" s="4">
+        <f t="shared" si="243"/>
+        <v>0.7254237288135954</v>
+      </c>
+      <c r="BT46" s="4">
+        <f t="shared" si="243"/>
+        <v>0.9084745762712032</v>
+      </c>
       <c r="BU46"/>
       <c r="BV46"/>
       <c r="BW46"/>
@@ -26705,7 +27603,7 @@
     <row r="47" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
       <c r="B47" s="59"/>
-      <c r="C47" s="88"/>
+      <c r="C47" s="86"/>
       <c r="D47" s="65"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -26748,30 +27646,96 @@
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
-      <c r="AW47" s="56"/>
+      <c r="AW47" s="56">
+        <f>AW16</f>
+        <v>600</v>
+      </c>
       <c r="AX47"/>
-      <c r="AY47"/>
-      <c r="AZ47"/>
-      <c r="BA47"/>
-      <c r="BB47"/>
-      <c r="BC47"/>
-      <c r="BD47"/>
-      <c r="BE47"/>
-      <c r="BF47"/>
-      <c r="BG47"/>
-      <c r="BH47"/>
-      <c r="BI47"/>
+      <c r="AY47" s="4">
+        <f t="shared" ref="AY47:BI47" si="244">$AX16-AY16</f>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="AZ47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.7694915254240016</v>
+      </c>
+      <c r="BA47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.7033898305089963</v>
+      </c>
+      <c r="BB47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.6084745762710071</v>
+      </c>
+      <c r="BC47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.6457627118650038</v>
+      </c>
+      <c r="BD47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.6762711864409994</v>
+      </c>
+      <c r="BE47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.6796610169489981</v>
+      </c>
+      <c r="BF47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.4203389830509963</v>
+      </c>
+      <c r="BG47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.3949152542370058</v>
+      </c>
+      <c r="BH47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.5949152542369944</v>
+      </c>
+      <c r="BI47" s="4">
+        <f t="shared" si="244"/>
+        <v>1.283050847458</v>
+      </c>
       <c r="BJ47"/>
-      <c r="BK47"/>
-      <c r="BL47"/>
-      <c r="BM47"/>
-      <c r="BN47"/>
-      <c r="BO47"/>
-      <c r="BP47"/>
-      <c r="BQ47"/>
-      <c r="BR47"/>
-      <c r="BS47"/>
-      <c r="BT47"/>
+      <c r="BK47" s="4">
+        <f t="shared" ref="BK47:BT47" si="245">$AX30-AY30</f>
+        <v>1.4542372881349905</v>
+      </c>
+      <c r="BL47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.647457627118996</v>
+      </c>
+      <c r="BM47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.5542372881359938</v>
+      </c>
+      <c r="BN47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.5576271186439925</v>
+      </c>
+      <c r="BO47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.5525423728809926</v>
+      </c>
+      <c r="BP47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.5610169491530002</v>
+      </c>
+      <c r="BQ47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.6406779661019897</v>
+      </c>
+      <c r="BR47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.4474576271179984</v>
+      </c>
+      <c r="BS47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.4016949152539979</v>
+      </c>
+      <c r="BT47" s="4">
+        <f t="shared" si="245"/>
+        <v>1.728813559321992</v>
+      </c>
       <c r="BU47"/>
       <c r="BV47"/>
       <c r="BW47"/>
@@ -26847,7 +27811,7 @@
     <row r="48" spans="1:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
       <c r="B48" s="59"/>
-      <c r="C48" s="88"/>
+      <c r="C48" s="86"/>
       <c r="D48" s="65"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -26988,7 +27952,7 @@
     </row>
     <row r="49" spans="2:143" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
-      <c r="C49" s="89"/>
+      <c r="C49" s="87"/>
       <c r="D49" s="45"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -27041,7 +28005,7 @@
     </row>
     <row r="50" spans="2:143" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
-      <c r="C50" s="90"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="20"/>
       <c r="E50" s="63"/>
       <c r="F50" s="63"/>
@@ -27219,7 +28183,7 @@
     </row>
     <row r="51" spans="2:143" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="20"/>
-      <c r="C51" s="90"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="20"/>
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
@@ -27397,7 +28361,7 @@
     </row>
     <row r="52" spans="2:143" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
-      <c r="C52" s="91"/>
+      <c r="C52" s="89"/>
       <c r="D52" s="46"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -27714,7 +28678,7 @@
     </row>
     <row r="54" spans="2:143" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="42"/>
-      <c r="C54" s="92"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="46"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
